--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="18300" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="177">
   <si>
     <t>Template Name:</t>
   </si>
@@ -595,6 +595,12 @@
   </si>
   <si>
     <t>An Ad Hoc web service that "enriches" a request to port 8011 with a NiFi greeting utilizing HandleHttpRequest, HandleHttpResponse and the StandardHttpContextMap controller service.</t>
+  </si>
+  <si>
+    <t>Twitter_Dashboard</t>
+  </si>
+  <si>
+    <t>Push tweets to HDFS/Solr and visualize using Banana dashboard.</t>
   </si>
 </sst>
 </file>
@@ -1361,10 +1367,10 @@
   <dimension ref="A1:DR164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="CN33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="CQ34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="CS34" sqref="CS34"/>
+      <selection pane="bottomRight" activeCell="DA34" sqref="DA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1488,7 +1494,7 @@
       </c>
       <c r="AE1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF1">
         <f t="shared" si="1"/>
@@ -1616,7 +1622,7 @@
       </c>
       <c r="BK1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL1">
         <f t="shared" si="1"/>
@@ -1672,7 +1678,7 @@
       </c>
       <c r="BY1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ1">
         <f t="shared" si="1"/>
@@ -1704,7 +1710,7 @@
       </c>
       <c r="CG1">
         <f t="shared" ref="CG1:DQ1" si="2">COUNTIFS(CG10:CG300,"X")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CH1">
         <f t="shared" si="2"/>
@@ -1720,7 +1726,7 @@
       </c>
       <c r="CK1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL1">
         <f t="shared" si="2"/>
@@ -1748,7 +1754,7 @@
       </c>
       <c r="CR1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS1">
         <f t="shared" si="2"/>
@@ -1764,7 +1770,7 @@
       </c>
       <c r="CV1">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW1">
         <f t="shared" si="2"/>
@@ -1780,7 +1786,7 @@
       </c>
       <c r="CZ1">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DA1">
         <f t="shared" si="2"/>
@@ -6131,8 +6137,12 @@
       <c r="DQ33" s="13"/>
     </row>
     <row r="34" spans="1:121" ht="72" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>176</v>
+      </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="13"/>
@@ -6160,7 +6170,9 @@
       <c r="AB34" s="13"/>
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
+      <c r="AE34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AF34" s="13"/>
       <c r="AG34" s="13"/>
       <c r="AH34" s="13"/>
@@ -6192,7 +6204,9 @@
       <c r="BH34" s="13"/>
       <c r="BI34" s="13"/>
       <c r="BJ34" s="13"/>
-      <c r="BK34" s="13"/>
+      <c r="BK34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BL34" s="13"/>
       <c r="BM34" s="13"/>
       <c r="BN34" s="13"/>
@@ -6206,7 +6220,9 @@
       <c r="BV34" s="13"/>
       <c r="BW34" s="13"/>
       <c r="BX34" s="13"/>
-      <c r="BY34" s="13"/>
+      <c r="BY34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BZ34" s="13"/>
       <c r="CA34" s="13"/>
       <c r="CB34" s="13"/>
@@ -6214,26 +6230,36 @@
       <c r="CD34" s="13"/>
       <c r="CE34" s="13"/>
       <c r="CF34" s="13"/>
-      <c r="CG34" s="13"/>
+      <c r="CG34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CH34" s="13"/>
       <c r="CI34" s="13"/>
       <c r="CJ34" s="13"/>
-      <c r="CK34" s="13"/>
+      <c r="CK34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CL34" s="13"/>
       <c r="CM34" s="13"/>
       <c r="CN34" s="13"/>
       <c r="CO34" s="13"/>
       <c r="CP34" s="13"/>
       <c r="CQ34" s="13"/>
-      <c r="CR34" s="13"/>
+      <c r="CR34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CS34" s="13"/>
       <c r="CT34" s="13"/>
       <c r="CU34" s="13"/>
-      <c r="CV34" s="13"/>
+      <c r="CV34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CW34" s="13"/>
       <c r="CX34" s="13"/>
       <c r="CY34" s="13"/>
-      <c r="CZ34" s="13"/>
+      <c r="CZ34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DA34" s="13"/>
       <c r="DB34" s="13"/>
       <c r="DC34" s="13"/>

--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -607,7 +607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -659,6 +659,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -790,7 +798,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -871,6 +879,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
@@ -954,7 +964,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1035,6 +1045,8 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1367,10 +1379,10 @@
   <dimension ref="A1:DR164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="CQ34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="DA34" sqref="DA34"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="18420" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="179">
   <si>
     <t>Template Name:</t>
   </si>
@@ -601,6 +601,12 @@
   </si>
   <si>
     <t>Push tweets to HDFS/Solr and visualize using Banana dashboard.</t>
+  </si>
+  <si>
+    <t>List_and_Fetch_SFTP_template</t>
+  </si>
+  <si>
+    <t>This template is an example of how ListSFTP and FetchSFTP work together to create a list of files on a remote system and then decide which files the user wants to pull from the remote system.</t>
   </si>
 </sst>
 </file>
@@ -1379,10 +1385,10 @@
   <dimension ref="A1:DR164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1446,7 +1452,7 @@
       </c>
       <c r="P1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q1">
         <f t="shared" si="1"/>
@@ -1490,7 +1496,7 @@
       </c>
       <c r="AA1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB1">
         <f t="shared" si="1"/>
@@ -1554,7 +1560,7 @@
       </c>
       <c r="AQ1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR1">
         <f t="shared" si="1"/>
@@ -1570,7 +1576,7 @@
       </c>
       <c r="AU1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV1">
         <f t="shared" si="1"/>
@@ -1602,7 +1608,7 @@
       </c>
       <c r="BC1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD1">
         <f t="shared" si="1"/>
@@ -1658,7 +1664,7 @@
       </c>
       <c r="BQ1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR1">
         <f t="shared" si="1"/>
@@ -1682,15 +1688,15 @@
       </c>
       <c r="BW1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BZ1">
         <f t="shared" si="1"/>
@@ -1718,11 +1724,11 @@
       </c>
       <c r="CF1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CG1">
         <f t="shared" ref="CG1:DQ1" si="2">COUNTIFS(CG10:CG300,"X")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CH1">
         <f t="shared" si="2"/>
@@ -1758,7 +1764,7 @@
       </c>
       <c r="CP1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ1">
         <f t="shared" si="2"/>
@@ -1798,7 +1804,7 @@
       </c>
       <c r="CZ1">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DA1">
         <f t="shared" si="2"/>
@@ -1806,7 +1812,7 @@
       </c>
       <c r="DB1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DC1">
         <f t="shared" si="2"/>
@@ -1858,7 +1864,7 @@
       </c>
       <c r="DO1">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DP1">
         <f t="shared" si="2"/>
@@ -6291,8 +6297,12 @@
       <c r="DQ34" s="13"/>
     </row>
     <row r="35" spans="1:121" ht="72" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>178</v>
+      </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="13"/>
@@ -6305,7 +6315,9 @@
       <c r="M35" s="14"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
+      <c r="P35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
@@ -6316,7 +6328,9 @@
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
+      <c r="AA35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AB35" s="13"/>
       <c r="AC35" s="13"/>
       <c r="AD35" s="13"/>
@@ -6332,11 +6346,15 @@
       <c r="AN35" s="13"/>
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
-      <c r="AQ35" s="13"/>
+      <c r="AQ35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AR35" s="13"/>
       <c r="AS35" s="13"/>
       <c r="AT35" s="13"/>
-      <c r="AU35" s="13"/>
+      <c r="AU35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AV35" s="13"/>
       <c r="AW35" s="13"/>
       <c r="AX35" s="13"/>
@@ -6344,7 +6362,9 @@
       <c r="AZ35" s="13"/>
       <c r="BA35" s="13"/>
       <c r="BB35" s="13"/>
-      <c r="BC35" s="13"/>
+      <c r="BC35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BD35" s="13"/>
       <c r="BE35" s="13"/>
       <c r="BF35" s="13"/>
@@ -6358,23 +6378,35 @@
       <c r="BN35" s="13"/>
       <c r="BO35" s="13"/>
       <c r="BP35" s="13"/>
-      <c r="BQ35" s="13"/>
+      <c r="BQ35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BR35" s="13"/>
       <c r="BS35" s="13"/>
       <c r="BT35" s="13"/>
       <c r="BU35" s="13"/>
       <c r="BV35" s="13"/>
-      <c r="BW35" s="13"/>
-      <c r="BX35" s="13"/>
-      <c r="BY35" s="13"/>
+      <c r="BW35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BY35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BZ35" s="13"/>
       <c r="CA35" s="13"/>
       <c r="CB35" s="13"/>
       <c r="CC35" s="13"/>
       <c r="CD35" s="13"/>
       <c r="CE35" s="13"/>
-      <c r="CF35" s="13"/>
-      <c r="CG35" s="13"/>
+      <c r="CF35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CG35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CH35" s="13"/>
       <c r="CI35" s="13"/>
       <c r="CJ35" s="13"/>
@@ -6383,7 +6415,9 @@
       <c r="CM35" s="13"/>
       <c r="CN35" s="13"/>
       <c r="CO35" s="13"/>
-      <c r="CP35" s="13"/>
+      <c r="CP35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CQ35" s="13"/>
       <c r="CR35" s="13"/>
       <c r="CS35" s="13"/>
@@ -6393,9 +6427,13 @@
       <c r="CW35" s="13"/>
       <c r="CX35" s="13"/>
       <c r="CY35" s="13"/>
-      <c r="CZ35" s="13"/>
+      <c r="CZ35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DA35" s="13"/>
-      <c r="DB35" s="13"/>
+      <c r="DB35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DC35" s="13"/>
       <c r="DD35" s="13"/>
       <c r="DE35" s="13"/>
@@ -6408,7 +6446,9 @@
       <c r="DL35" s="13"/>
       <c r="DM35" s="13"/>
       <c r="DN35" s="13"/>
-      <c r="DO35" s="13"/>
+      <c r="DO35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DP35" s="13"/>
       <c r="DQ35" s="13"/>
     </row>

--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="18420" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="18420" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="181">
   <si>
     <t>Template Name:</t>
   </si>
@@ -607,6 +607,12 @@
   </si>
   <si>
     <t>This template is an example of how ListSFTP and FetchSFTP work together to create a list of files on a remote system and then decide which files the user wants to pull from the remote system.</t>
+  </si>
+  <si>
+    <t>PostHTTP Content-Type</t>
+  </si>
+  <si>
+    <t>Sample flow to specify a PostHTTP Content-Type by updating the mime.type on a FlowFile.  These flowfile requests are received by a HandleHttpResponse and a logging of the associated attributes is performed to view how an endpoint would receive the specified headers and content.</t>
   </si>
 </sst>
 </file>
@@ -1385,10 +1391,10 @@
   <dimension ref="A1:DR164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="DE36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="DO36" sqref="DO36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1436,7 +1442,7 @@
       </c>
       <c r="K1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L1">
         <f t="shared" si="0"/>
@@ -1580,7 +1586,7 @@
       </c>
       <c r="AV1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW1">
         <f t="shared" si="1"/>
@@ -1644,11 +1650,11 @@
       </c>
       <c r="BL1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BM1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BN1">
         <f t="shared" si="1"/>
@@ -1692,7 +1698,7 @@
       </c>
       <c r="BX1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BY1">
         <f t="shared" si="1"/>
@@ -1708,7 +1714,7 @@
       </c>
       <c r="CB1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC1">
         <f t="shared" si="1"/>
@@ -1788,7 +1794,7 @@
       </c>
       <c r="CV1">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CW1">
         <f t="shared" si="2"/>
@@ -1864,7 +1870,7 @@
       </c>
       <c r="DO1">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DP1">
         <f t="shared" si="2"/>
@@ -6453,8 +6459,12 @@
       <c r="DQ35" s="13"/>
     </row>
     <row r="36" spans="1:121" ht="72" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="13"/>
@@ -6462,7 +6472,9 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
+      <c r="K36" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="L36" s="13"/>
       <c r="M36" s="14"/>
       <c r="N36" s="13"/>
@@ -6499,7 +6511,9 @@
       <c r="AS36" s="13"/>
       <c r="AT36" s="13"/>
       <c r="AU36" s="13"/>
-      <c r="AV36" s="13"/>
+      <c r="AV36" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AW36" s="13"/>
       <c r="AX36" s="13"/>
       <c r="AY36" s="13"/>
@@ -6515,8 +6529,12 @@
       <c r="BI36" s="13"/>
       <c r="BJ36" s="13"/>
       <c r="BK36" s="13"/>
-      <c r="BL36" s="13"/>
-      <c r="BM36" s="13"/>
+      <c r="BL36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM36" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BN36" s="13"/>
       <c r="BO36" s="13"/>
       <c r="BP36" s="13"/>
@@ -6527,11 +6545,15 @@
       <c r="BU36" s="13"/>
       <c r="BV36" s="13"/>
       <c r="BW36" s="13"/>
-      <c r="BX36" s="13"/>
+      <c r="BX36" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BY36" s="13"/>
       <c r="BZ36" s="13"/>
       <c r="CA36" s="13"/>
-      <c r="CB36" s="13"/>
+      <c r="CB36" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CC36" s="13"/>
       <c r="CD36" s="13"/>
       <c r="CE36" s="13"/>
@@ -6551,7 +6573,9 @@
       <c r="CS36" s="13"/>
       <c r="CT36" s="13"/>
       <c r="CU36" s="13"/>
-      <c r="CV36" s="13"/>
+      <c r="CV36" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CW36" s="13"/>
       <c r="CX36" s="13"/>
       <c r="CY36" s="13"/>
@@ -6570,7 +6594,9 @@
       <c r="DL36" s="13"/>
       <c r="DM36" s="13"/>
       <c r="DN36" s="13"/>
-      <c r="DO36" s="13"/>
+      <c r="DO36" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DP36" s="13"/>
       <c r="DQ36" s="13"/>
     </row>

--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="18420" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="16640" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="183">
   <si>
     <t>Template Name:</t>
   </si>
@@ -582,9 +582,6 @@
     <t>WebCrawler</t>
   </si>
   <si>
-    <t>A template that takes in an initial seed URL scraps the contents of the site for more URLs. For each URL it will extract lines which match specific phrases ("nifi" in the example) email the flowfile to an address. Also it bundles together websites then compresses and puts them to a local folder.</t>
-  </si>
-  <si>
     <t>Syslog_Hbase</t>
   </si>
   <si>
@@ -609,10 +606,22 @@
     <t>This template is an example of how ListSFTP and FetchSFTP work together to create a list of files on a remote system and then decide which files the user wants to pull from the remote system.</t>
   </si>
   <si>
-    <t>PostHTTP Content-Type</t>
+    <t>Sample flow to specify a PostHTTP Content-Type by updating the mime.type on a FlowFile.  These flowfile requests are received by a HandleHttpResponse and a logging of the associated attributes is performed to view how an endpoint would receive the specified headers and content.</t>
   </si>
   <si>
-    <t>Sample flow to specify a PostHTTP Content-Type by updating the mime.type on a FlowFile.  These flowfile requests are received by a HandleHttpResponse and a logging of the associated attributes is performed to view how an endpoint would receive the specified headers and content.</t>
+    <t>PostHTTP_Content-Type</t>
+  </si>
+  <si>
+    <t>Convert_To_Avro_From_CSV_and_JSON</t>
+  </si>
+  <si>
+    <t>A template that takes in an initial seed URL scraps the contents of the site for more URLs. For each URL it will extract lines which match specific phrases ("nifi" in the example) email the flowfile to an address.
+Also it bundles together websites then compresses and puts them to a local folder.
+Note: This template requires a DistributedMapCacheServer with default values to run. It is not included because at the time of creation there was no way to explicitly include a controller service with no processors referring to it.</t>
+  </si>
+  <si>
+    <t>This flow takes in data from a random user generator using GetHTTP in two different formats, CSV and JSON. It then converts the data into Avro (JSON is massaged first) then split and converted to JSON. 
+This template is purely to showcase the different Avro related processors and isn't demonstrating one specific use-case.</t>
   </si>
 </sst>
 </file>
@@ -1391,10 +1400,10 @@
   <dimension ref="A1:DR164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="DE36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="DH37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="DO36" sqref="DO36"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1466,11 +1475,11 @@
       </c>
       <c r="R1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T1">
         <f t="shared" si="1"/>
@@ -1478,11 +1487,11 @@
       </c>
       <c r="U1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W1">
         <f t="shared" si="1"/>
@@ -1518,7 +1527,7 @@
       </c>
       <c r="AE1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF1">
         <f t="shared" si="1"/>
@@ -1614,7 +1623,7 @@
       </c>
       <c r="BC1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD1">
         <f t="shared" si="1"/>
@@ -1702,7 +1711,7 @@
       </c>
       <c r="BY1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BZ1">
         <f t="shared" si="1"/>
@@ -1834,7 +1843,7 @@
       </c>
       <c r="DF1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG1">
         <f t="shared" si="2"/>
@@ -1842,7 +1851,7 @@
       </c>
       <c r="DH1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DI1">
         <f t="shared" si="2"/>
@@ -1870,7 +1879,7 @@
       </c>
       <c r="DO1">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DP1">
         <f t="shared" si="2"/>
@@ -5732,12 +5741,12 @@
       <c r="DP30" s="13"/>
       <c r="DQ30" s="13"/>
     </row>
-    <row r="31" spans="1:121" ht="90">
+    <row r="31" spans="1:121" ht="165">
       <c r="A31" s="16" t="s">
         <v>169</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -5892,10 +5901,10 @@
     </row>
     <row r="32" spans="1:121" ht="72" customHeight="1">
       <c r="A32" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>171</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>172</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -6028,10 +6037,10 @@
     </row>
     <row r="33" spans="1:121" ht="72" customHeight="1">
       <c r="A33" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>173</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>174</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -6162,10 +6171,10 @@
     </row>
     <row r="34" spans="1:121" ht="72" customHeight="1">
       <c r="A34" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>175</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>176</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -6304,10 +6313,10 @@
     </row>
     <row r="35" spans="1:121" ht="72" customHeight="1">
       <c r="A35" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>177</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>178</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -6463,7 +6472,7 @@
         <v>179</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -6601,8 +6610,12 @@
       <c r="DQ36" s="13"/>
     </row>
     <row r="37" spans="1:121" ht="72" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>182</v>
+      </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="13"/>
@@ -6617,11 +6630,19 @@
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
+      <c r="R37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
+      <c r="U37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V37" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
@@ -6630,7 +6651,9 @@
       <c r="AB37" s="13"/>
       <c r="AC37" s="13"/>
       <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
+      <c r="AE37" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AF37" s="13"/>
       <c r="AG37" s="13"/>
       <c r="AH37" s="13"/>
@@ -6654,7 +6677,9 @@
       <c r="AZ37" s="13"/>
       <c r="BA37" s="13"/>
       <c r="BB37" s="13"/>
-      <c r="BC37" s="13"/>
+      <c r="BC37" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BD37" s="13"/>
       <c r="BE37" s="13"/>
       <c r="BF37" s="13"/>
@@ -6676,7 +6701,9 @@
       <c r="BV37" s="13"/>
       <c r="BW37" s="13"/>
       <c r="BX37" s="13"/>
-      <c r="BY37" s="13"/>
+      <c r="BY37" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BZ37" s="13"/>
       <c r="CA37" s="13"/>
       <c r="CB37" s="13"/>
@@ -6709,16 +6736,22 @@
       <c r="DC37" s="13"/>
       <c r="DD37" s="13"/>
       <c r="DE37" s="13"/>
-      <c r="DF37" s="13"/>
+      <c r="DF37" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DG37" s="13"/>
-      <c r="DH37" s="13"/>
+      <c r="DH37" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DI37" s="13"/>
       <c r="DJ37" s="13"/>
       <c r="DK37" s="13"/>
       <c r="DL37" s="13"/>
       <c r="DM37" s="13"/>
       <c r="DN37" s="13"/>
-      <c r="DO37" s="13"/>
+      <c r="DO37" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DP37" s="13"/>
       <c r="DQ37" s="13"/>
     </row>
@@ -19846,6 +19879,9 @@
     <mergeCell ref="N9:DQ9"/>
     <mergeCell ref="D2:L2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A37" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="16640" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="28820" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="184">
   <si>
     <t>Template Name:</t>
   </si>
@@ -348,51 +348,6 @@
     <t xml:space="preserve">PutHBaseCell   </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">This chart list available templates and indicates what </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Processors</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> are used in those templates.  If a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Controller Service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is marked for a template, that indicates that the template has a dependency on that Controller service existing.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">HBase_1_1_2_ClientService   </t>
   </si>
   <si>
@@ -623,12 +578,20 @@
     <t>This flow takes in data from a random user generator using GetHTTP in two different formats, CSV and JSON. It then converts the data into Avro (JSON is massaged first) then split and converted to JSON. 
 This template is purely to showcase the different Avro related processors and isn't demonstrating one specific use-case.</t>
   </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This chart list available templates and indicates what Processors are used in those templates.  If a Controller Service is marked for a template, that indicates that the template has a dependency on that Controller service existing.
+X = Included in template
+* = Depended on by template (used when controller services tasks aren't directly included) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -659,14 +622,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -821,88 +776,88 @@
   </borders>
   <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -955,7 +910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1400,10 +1355,10 @@
   <dimension ref="A1:DR164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="DH37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1419,7 +1374,7 @@
   <sheetData>
     <row r="1" spans="1:122" ht="16" thickBot="1">
       <c r="B1" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D1">
         <f>COUNTIFS(D10:D300,"X")</f>
@@ -1435,7 +1390,7 @@
       </c>
       <c r="G1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1">
         <f t="shared" si="0"/>
@@ -1892,7 +1847,7 @@
     </row>
     <row r="2" spans="1:122" s="5" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="27" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="19"/>
@@ -2025,7 +1980,7 @@
       <c r="B3" s="28"/>
       <c r="C3" s="20"/>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -2043,7 +1998,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>7</v>
@@ -2053,7 +2008,7 @@
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>11</v>
@@ -2086,7 +2041,7 @@
         <v>20</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>21</v>
@@ -2131,7 +2086,7 @@
         <v>38</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>39</v>
@@ -2152,7 +2107,7 @@
         <v>43</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AV3" s="1" t="s">
         <v>44</v>
@@ -2167,7 +2122,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>48</v>
@@ -2236,7 +2191,7 @@
         <v>67</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BX3" s="1" t="s">
         <v>68</v>
@@ -2254,13 +2209,13 @@
         <v>72</v>
       </c>
       <c r="CC3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="CF3" s="1" t="s">
         <v>73</v>
@@ -2275,7 +2230,7 @@
         <v>108</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CK3" s="1" t="s">
         <v>76</v>
@@ -2329,7 +2284,7 @@
         <v>91</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="DC3" s="1" t="s">
         <v>92</v>
@@ -2341,13 +2296,13 @@
         <v>94</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="DG3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="DH3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="DI3" s="1" t="s">
         <v>96</v>
@@ -2359,7 +2314,7 @@
         <v>98</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DM3" s="1" t="s">
         <v>99</v>
@@ -2839,10 +2794,10 @@
     </row>
     <row r="10" spans="1:122" ht="120">
       <c r="A10" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -3001,10 +2956,10 @@
     </row>
     <row r="11" spans="1:122" ht="90">
       <c r="A11" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -3139,10 +3094,10 @@
     </row>
     <row r="12" spans="1:122" ht="72" customHeight="1">
       <c r="A12" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>113</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>114</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -3273,10 +3228,10 @@
     </row>
     <row r="13" spans="1:122" ht="72" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -3409,10 +3364,10 @@
     </row>
     <row r="14" spans="1:122" ht="90">
       <c r="A14" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -3541,10 +3496,10 @@
     </row>
     <row r="15" spans="1:122" ht="90">
       <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>120</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>121</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -3683,10 +3638,10 @@
     </row>
     <row r="16" spans="1:122" ht="72" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -3821,10 +3776,10 @@
     </row>
     <row r="17" spans="1:121" ht="120">
       <c r="A17" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>124</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>125</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -3957,10 +3912,10 @@
     </row>
     <row r="18" spans="1:121" ht="72" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -4109,10 +4064,10 @@
     </row>
     <row r="19" spans="1:121" ht="72" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -4241,10 +4196,10 @@
     </row>
     <row r="20" spans="1:121" ht="90">
       <c r="A20" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -4371,10 +4326,10 @@
     </row>
     <row r="21" spans="1:121" ht="72" customHeight="1">
       <c r="A21" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -4505,10 +4460,10 @@
     </row>
     <row r="22" spans="1:121" ht="105">
       <c r="A22" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>135</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -4643,10 +4598,10 @@
     </row>
     <row r="23" spans="1:121" ht="105">
       <c r="A23" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>138</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -4779,10 +4734,10 @@
     </row>
     <row r="24" spans="1:121" ht="120">
       <c r="A24" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>139</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>140</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -4911,10 +4866,10 @@
     </row>
     <row r="25" spans="1:121" ht="75">
       <c r="A25" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>142</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -5045,10 +5000,10 @@
     </row>
     <row r="26" spans="1:121" ht="240">
       <c r="A26" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>144</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -5185,10 +5140,10 @@
     </row>
     <row r="27" spans="1:121" ht="330">
       <c r="A27" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>145</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>146</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -5319,10 +5274,10 @@
     </row>
     <row r="28" spans="1:121" ht="409">
       <c r="A28" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>149</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -5465,10 +5420,10 @@
     </row>
     <row r="29" spans="1:121" ht="72" customHeight="1">
       <c r="A29" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>165</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -5601,10 +5556,10 @@
     </row>
     <row r="30" spans="1:121" ht="105">
       <c r="A30" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>166</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>167</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -5743,16 +5698,16 @@
     </row>
     <row r="31" spans="1:121" ht="165">
       <c r="A31" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>27</v>
@@ -5901,10 +5856,10 @@
     </row>
     <row r="32" spans="1:121" ht="72" customHeight="1">
       <c r="A32" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>170</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -6037,10 +5992,10 @@
     </row>
     <row r="33" spans="1:121" ht="72" customHeight="1">
       <c r="A33" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>172</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>173</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -6171,10 +6126,10 @@
     </row>
     <row r="34" spans="1:121" ht="72" customHeight="1">
       <c r="A34" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>174</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>175</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -6313,10 +6268,10 @@
     </row>
     <row r="35" spans="1:121" ht="72" customHeight="1">
       <c r="A35" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>176</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>177</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -6469,10 +6424,10 @@
     </row>
     <row r="36" spans="1:121" ht="72" customHeight="1">
       <c r="A36" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -6611,10 +6566,10 @@
     </row>
     <row r="37" spans="1:121" ht="72" customHeight="1">
       <c r="A37" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>

--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="28820" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="-50220" yWindow="-10540" windowWidth="48540" windowHeight="27440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="186">
   <si>
     <t>Template Name:</t>
   </si>
@@ -585,6 +585,12 @@
     <t xml:space="preserve">This chart list available templates and indicates what Processors are used in those templates.  If a Controller Service is marked for a template, that indicates that the template has a dependency on that Controller service existing.
 X = Included in template
 * = Depended on by template (used when controller services tasks aren't directly included) </t>
+  </si>
+  <si>
+    <t>MongoDB Get and Put Example</t>
+  </si>
+  <si>
+    <t>This template shows a basic configuration of the GetMongo and PutMongo processors. This template assumes you have a mongo db instance running with a test db and restaurant collection within test.</t>
   </si>
 </sst>
 </file>
@@ -1355,10 +1361,10 @@
   <dimension ref="A1:DR164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="AU38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:B3"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1550,7 +1556,7 @@
       </c>
       <c r="AV1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW1">
         <f t="shared" si="1"/>
@@ -1594,7 +1600,7 @@
       </c>
       <c r="BG1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH1">
         <f t="shared" si="1"/>
@@ -1726,7 +1732,7 @@
       </c>
       <c r="CN1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO1">
         <f t="shared" si="2"/>
@@ -1758,7 +1764,7 @@
       </c>
       <c r="CV1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CW1">
         <f t="shared" si="2"/>
@@ -1834,7 +1840,7 @@
       </c>
       <c r="DO1">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DP1">
         <f t="shared" si="2"/>
@@ -6711,8 +6717,12 @@
       <c r="DQ37" s="13"/>
     </row>
     <row r="38" spans="1:121" ht="72" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>185</v>
+      </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="13"/>
@@ -6757,7 +6767,9 @@
       <c r="AS38" s="13"/>
       <c r="AT38" s="13"/>
       <c r="AU38" s="13"/>
-      <c r="AV38" s="13"/>
+      <c r="AV38" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AW38" s="13"/>
       <c r="AX38" s="13"/>
       <c r="AY38" s="13"/>
@@ -6768,7 +6780,9 @@
       <c r="BD38" s="13"/>
       <c r="BE38" s="13"/>
       <c r="BF38" s="13"/>
-      <c r="BG38" s="13"/>
+      <c r="BG38" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BH38" s="13"/>
       <c r="BI38" s="13"/>
       <c r="BJ38" s="13"/>
@@ -6801,7 +6815,9 @@
       <c r="CK38" s="13"/>
       <c r="CL38" s="13"/>
       <c r="CM38" s="13"/>
-      <c r="CN38" s="13"/>
+      <c r="CN38" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CO38" s="13"/>
       <c r="CP38" s="13"/>
       <c r="CQ38" s="13"/>
@@ -6809,7 +6825,9 @@
       <c r="CS38" s="13"/>
       <c r="CT38" s="13"/>
       <c r="CU38" s="13"/>
-      <c r="CV38" s="13"/>
+      <c r="CV38" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CW38" s="13"/>
       <c r="CX38" s="13"/>
       <c r="CY38" s="13"/>
@@ -6828,7 +6846,9 @@
       <c r="DL38" s="13"/>
       <c r="DM38" s="13"/>
       <c r="DN38" s="13"/>
-      <c r="DO38" s="13"/>
+      <c r="DO38" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DP38" s="13"/>
       <c r="DQ38" s="13"/>
     </row>

--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-50220" yWindow="-10540" windowWidth="48540" windowHeight="27440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26940" windowHeight="18640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="190">
   <si>
     <t>Template Name:</t>
   </si>
@@ -592,6 +592,18 @@
   <si>
     <t>This template shows a basic configuration of the GetMongo and PutMongo processors. This template assumes you have a mongo db instance running with a test db and restaurant collection within test.</t>
   </si>
+  <si>
+    <t>ExecuteScript JSON-to-JSON conversion</t>
+  </si>
+  <si>
+    <t>This template illustrates the ExecuteScript processor using Groovy to perform JSON-to-JSON transformations</t>
+  </si>
+  <si>
+    <t>ExecuteScript</t>
+  </si>
+  <si>
+    <t>InvokeScriptedProcessor</t>
+  </si>
 </sst>
 </file>
 
@@ -865,7 +877,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
@@ -928,6 +940,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1358,13 +1373,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DR164"/>
+  <dimension ref="A1:DT164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="AU38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="BJ38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="BS4" sqref="BS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1374,11 +1389,11 @@
     <col min="3" max="3" width="1.83203125" style="12" customWidth="1"/>
     <col min="4" max="12" width="4.83203125" customWidth="1"/>
     <col min="13" max="13" width="1.6640625" style="3" customWidth="1"/>
-    <col min="14" max="121" width="4.83203125" customWidth="1"/>
-    <col min="122" max="122" width="1.6640625" style="3" customWidth="1"/>
+    <col min="14" max="123" width="4.83203125" customWidth="1"/>
+    <col min="124" max="124" width="1.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" ht="16" thickBot="1">
+    <row r="1" spans="1:124" ht="16" thickBot="1">
       <c r="B1" s="26" t="s">
         <v>153</v>
       </c>
@@ -1423,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="O1">
-        <f t="shared" ref="O1:CF1" si="1">COUNTIFS(O10:O300,"X")</f>
+        <f t="shared" ref="O1:CH1" si="1">COUNTIFS(O10:O300,"X")</f>
         <v>0</v>
       </c>
       <c r="P1">
@@ -1514,17 +1529,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AL1">
+      <c r="AM1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM1">
+      <c r="AN1">
         <f t="shared" si="1"/>
         <v>2</v>
-      </c>
-      <c r="AN1">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="AO1">
         <f t="shared" si="1"/>
@@ -1536,15 +1547,15 @@
       </c>
       <c r="AQ1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AS1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT1">
         <f t="shared" si="1"/>
@@ -1552,31 +1563,31 @@
       </c>
       <c r="AU1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AX1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB1">
         <f t="shared" si="1"/>
@@ -1584,11 +1595,11 @@
       </c>
       <c r="BC1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BD1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BE1">
         <f t="shared" si="1"/>
@@ -1600,11 +1611,11 @@
       </c>
       <c r="BG1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI1">
         <f t="shared" si="1"/>
@@ -1616,7 +1627,7 @@
       </c>
       <c r="BK1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BL1">
         <f t="shared" si="1"/>
@@ -1628,27 +1639,23 @@
       </c>
       <c r="BN1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BQ1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BR1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BS1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BT1">
         <f t="shared" si="1"/>
@@ -1664,27 +1671,27 @@
       </c>
       <c r="BW1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BY1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BZ1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CA1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CB1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CC1">
         <f t="shared" si="1"/>
@@ -1692,7 +1699,7 @@
       </c>
       <c r="CD1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE1">
         <f t="shared" si="1"/>
@@ -1700,43 +1707,43 @@
       </c>
       <c r="CF1">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CG1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CH1">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="CG1">
-        <f t="shared" ref="CG1:DQ1" si="2">COUNTIFS(CG10:CG300,"X")</f>
-        <v>7</v>
-      </c>
-      <c r="CH1">
+      <c r="CI1">
+        <f t="shared" ref="CI1:DS1" si="2">COUNTIFS(CI10:CI300,"X")</f>
+        <v>8</v>
+      </c>
+      <c r="CJ1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CI1">
+      <c r="CK1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="CJ1">
+      <c r="CL1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="CK1">
+      <c r="CM1">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="CL1">
+      <c r="CN1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CM1">
+      <c r="CO1">
         <f t="shared" si="2"/>
         <v>4</v>
-      </c>
-      <c r="CN1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="CO1">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
       <c r="CP1">
         <f t="shared" si="2"/>
@@ -1748,7 +1755,7 @@
       </c>
       <c r="CR1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CS1">
         <f t="shared" si="2"/>
@@ -1756,47 +1763,47 @@
       </c>
       <c r="CT1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CW1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CY1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="DA1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DB1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="DC1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DD1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DE1">
         <f t="shared" si="2"/>
@@ -1804,7 +1811,7 @@
       </c>
       <c r="DF1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG1">
         <f t="shared" si="2"/>
@@ -1812,23 +1819,23 @@
       </c>
       <c r="DH1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DI1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="DJ1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DK1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DL1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM1">
         <f t="shared" si="2"/>
@@ -1836,11 +1843,11 @@
       </c>
       <c r="DN1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO1">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="DP1">
         <f t="shared" si="2"/>
@@ -1848,142 +1855,152 @@
       </c>
       <c r="DQ1">
         <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="DR1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DS1">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:122" s="5" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:124" s="5" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="30"/>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="30"/>
-      <c r="BL2" s="30"/>
-      <c r="BM2" s="30"/>
-      <c r="BN2" s="30"/>
-      <c r="BO2" s="30"/>
-      <c r="BP2" s="30"/>
-      <c r="BQ2" s="30"/>
-      <c r="BR2" s="30"/>
-      <c r="BS2" s="30"/>
-      <c r="BT2" s="30"/>
-      <c r="BU2" s="30"/>
-      <c r="BV2" s="30"/>
-      <c r="BW2" s="30"/>
-      <c r="BX2" s="30"/>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="30"/>
-      <c r="CA2" s="30"/>
-      <c r="CB2" s="30"/>
-      <c r="CC2" s="30"/>
-      <c r="CD2" s="30"/>
-      <c r="CE2" s="30"/>
-      <c r="CF2" s="30"/>
-      <c r="CG2" s="30"/>
-      <c r="CH2" s="30"/>
-      <c r="CI2" s="30"/>
-      <c r="CJ2" s="30"/>
-      <c r="CK2" s="30"/>
-      <c r="CL2" s="30"/>
-      <c r="CM2" s="30"/>
-      <c r="CN2" s="30"/>
-      <c r="CO2" s="30"/>
-      <c r="CP2" s="30"/>
-      <c r="CQ2" s="30"/>
-      <c r="CR2" s="30"/>
-      <c r="CS2" s="30"/>
-      <c r="CT2" s="30"/>
-      <c r="CU2" s="30"/>
-      <c r="CV2" s="30"/>
-      <c r="CW2" s="30"/>
-      <c r="CX2" s="30"/>
-      <c r="CY2" s="30"/>
-      <c r="CZ2" s="30"/>
-      <c r="DA2" s="30"/>
-      <c r="DB2" s="30"/>
-      <c r="DC2" s="30"/>
-      <c r="DD2" s="30"/>
-      <c r="DE2" s="30"/>
-      <c r="DF2" s="30"/>
-      <c r="DG2" s="30"/>
-      <c r="DH2" s="30"/>
-      <c r="DI2" s="30"/>
-      <c r="DJ2" s="30"/>
-      <c r="DK2" s="30"/>
-      <c r="DL2" s="30"/>
-      <c r="DM2" s="30"/>
-      <c r="DN2" s="30"/>
-      <c r="DO2" s="30"/>
-      <c r="DP2" s="30"/>
-      <c r="DQ2" s="30"/>
-      <c r="DR2" s="6"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="31"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="31"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
+      <c r="BP2" s="31"/>
+      <c r="BQ2" s="31"/>
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31"/>
+      <c r="BU2" s="31"/>
+      <c r="BV2" s="31"/>
+      <c r="BW2" s="31"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="31"/>
+      <c r="CA2" s="31"/>
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31"/>
+      <c r="CG2" s="31"/>
+      <c r="CH2" s="31"/>
+      <c r="CI2" s="31"/>
+      <c r="CJ2" s="31"/>
+      <c r="CK2" s="31"/>
+      <c r="CL2" s="31"/>
+      <c r="CM2" s="31"/>
+      <c r="CN2" s="31"/>
+      <c r="CO2" s="31"/>
+      <c r="CP2" s="31"/>
+      <c r="CQ2" s="31"/>
+      <c r="CR2" s="31"/>
+      <c r="CS2" s="31"/>
+      <c r="CT2" s="31"/>
+      <c r="CU2" s="31"/>
+      <c r="CV2" s="31"/>
+      <c r="CW2" s="31"/>
+      <c r="CX2" s="31"/>
+      <c r="CY2" s="31"/>
+      <c r="CZ2" s="31"/>
+      <c r="DA2" s="31"/>
+      <c r="DB2" s="31"/>
+      <c r="DC2" s="31"/>
+      <c r="DD2" s="31"/>
+      <c r="DE2" s="31"/>
+      <c r="DF2" s="31"/>
+      <c r="DG2" s="31"/>
+      <c r="DH2" s="31"/>
+      <c r="DI2" s="31"/>
+      <c r="DJ2" s="31"/>
+      <c r="DK2" s="31"/>
+      <c r="DL2" s="31"/>
+      <c r="DM2" s="31"/>
+      <c r="DN2" s="31"/>
+      <c r="DO2" s="31"/>
+      <c r="DP2" s="31"/>
+      <c r="DQ2" s="31"/>
+      <c r="DR2" s="31"/>
+      <c r="DS2" s="31"/>
+      <c r="DT2" s="6"/>
     </row>
-    <row r="3" spans="1:122" s="1" customFormat="1" ht="221" customHeight="1" thickTop="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+    <row r="3" spans="1:124" s="1" customFormat="1" ht="221" customHeight="1" thickTop="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="20"/>
       <c r="D3" s="2" t="s">
         <v>162</v>
@@ -2086,264 +2103,270 @@
         <v>36</v>
       </c>
       <c r="AL3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BT3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DR3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DQ3" s="1" t="s">
+      <c r="DS3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DR3" s="4"/>
+      <c r="DT3" s="4"/>
     </row>
-    <row r="4" spans="1:122" s="3" customFormat="1" ht="8" customHeight="1">
+    <row r="4" spans="1:124" s="3" customFormat="1" ht="8" customHeight="1">
       <c r="B4" s="7"/>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:122">
+    <row r="5" spans="1:124">
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
@@ -2387,22 +2410,22 @@
       <c r="AI5" s="10"/>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
+      <c r="AL5" s="27"/>
       <c r="AM5" s="10"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="21"/>
       <c r="AP5" s="10"/>
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10"/>
       <c r="AS5" s="10"/>
       <c r="AT5" s="10"/>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="21"/>
       <c r="AW5" s="10"/>
       <c r="AX5" s="10"/>
       <c r="AY5" s="10"/>
-      <c r="AZ5" s="21"/>
-      <c r="BA5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="21"/>
       <c r="BB5" s="10"/>
       <c r="BC5" s="10"/>
       <c r="BD5" s="10"/>
@@ -2420,11 +2443,13 @@
       <c r="BP5" s="10"/>
       <c r="BQ5" s="10"/>
       <c r="BR5" s="10"/>
-      <c r="BS5" s="10"/>
+      <c r="BS5" s="27"/>
       <c r="BT5" s="10"/>
       <c r="BU5" s="10"/>
+      <c r="BV5" s="10"/>
+      <c r="BW5" s="10"/>
     </row>
-    <row r="6" spans="1:122">
+    <row r="6" spans="1:124">
       <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
@@ -2474,22 +2499,22 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
+      <c r="AL6" s="27"/>
       <c r="AM6" s="10"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="21"/>
       <c r="AP6" s="10"/>
       <c r="AQ6" s="10"/>
       <c r="AR6" s="10"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="10"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="21"/>
       <c r="AW6" s="10"/>
       <c r="AX6" s="10"/>
       <c r="AY6" s="10"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="21"/>
       <c r="BB6" s="10"/>
       <c r="BC6" s="10"/>
       <c r="BD6" s="10"/>
@@ -2507,11 +2532,13 @@
       <c r="BP6" s="10"/>
       <c r="BQ6" s="10"/>
       <c r="BR6" s="10"/>
-      <c r="BS6" s="10"/>
+      <c r="BS6" s="27"/>
       <c r="BT6" s="10"/>
       <c r="BU6" s="10"/>
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10"/>
     </row>
-    <row r="7" spans="1:122">
+    <row r="7" spans="1:124">
       <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
@@ -2561,22 +2588,22 @@
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
+      <c r="AL7" s="27"/>
       <c r="AM7" s="10"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="21"/>
       <c r="AP7" s="10"/>
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10"/>
       <c r="AS7" s="10"/>
       <c r="AT7" s="10"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="21"/>
       <c r="AW7" s="10"/>
       <c r="AX7" s="10"/>
       <c r="AY7" s="10"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="21"/>
       <c r="BB7" s="10"/>
       <c r="BC7" s="10"/>
       <c r="BD7" s="10"/>
@@ -2594,11 +2621,13 @@
       <c r="BP7" s="10"/>
       <c r="BQ7" s="10"/>
       <c r="BR7" s="10"/>
-      <c r="BS7" s="10"/>
+      <c r="BS7" s="27"/>
       <c r="BT7" s="10"/>
       <c r="BU7" s="10"/>
+      <c r="BV7" s="10"/>
+      <c r="BW7" s="10"/>
     </row>
-    <row r="8" spans="1:122" s="3" customFormat="1" ht="7" customHeight="1" thickBot="1">
+    <row r="8" spans="1:124" s="3" customFormat="1" ht="7" customHeight="1" thickBot="1">
       <c r="B8" s="7"/>
       <c r="C8" s="12"/>
       <c r="D8" s="11"/>
@@ -2671,134 +2700,138 @@
       <c r="BS8" s="11"/>
       <c r="BT8" s="11"/>
       <c r="BU8" s="11"/>
+      <c r="BV8" s="11"/>
+      <c r="BW8" s="11"/>
     </row>
-    <row r="9" spans="1:122" ht="25" customHeight="1" thickTop="1">
+    <row r="9" spans="1:124" ht="25" customHeight="1" thickTop="1">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32"/>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32"/>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32"/>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32"/>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32"/>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="32"/>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="32"/>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="32"/>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="32"/>
-      <c r="CD9" s="32"/>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="32"/>
-      <c r="CG9" s="32"/>
-      <c r="CH9" s="32"/>
-      <c r="CI9" s="32"/>
-      <c r="CJ9" s="32"/>
-      <c r="CK9" s="32"/>
-      <c r="CL9" s="32"/>
-      <c r="CM9" s="32"/>
-      <c r="CN9" s="32"/>
-      <c r="CO9" s="32"/>
-      <c r="CP9" s="32"/>
-      <c r="CQ9" s="32"/>
-      <c r="CR9" s="32"/>
-      <c r="CS9" s="32"/>
-      <c r="CT9" s="32"/>
-      <c r="CU9" s="32"/>
-      <c r="CV9" s="32"/>
-      <c r="CW9" s="32"/>
-      <c r="CX9" s="32"/>
-      <c r="CY9" s="32"/>
-      <c r="CZ9" s="32"/>
-      <c r="DA9" s="32"/>
-      <c r="DB9" s="32"/>
-      <c r="DC9" s="32"/>
-      <c r="DD9" s="32"/>
-      <c r="DE9" s="32"/>
-      <c r="DF9" s="32"/>
-      <c r="DG9" s="32"/>
-      <c r="DH9" s="32"/>
-      <c r="DI9" s="32"/>
-      <c r="DJ9" s="32"/>
-      <c r="DK9" s="32"/>
-      <c r="DL9" s="32"/>
-      <c r="DM9" s="32"/>
-      <c r="DN9" s="32"/>
-      <c r="DO9" s="32"/>
-      <c r="DP9" s="32"/>
-      <c r="DQ9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33"/>
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33"/>
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33"/>
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33"/>
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33"/>
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33"/>
+      <c r="BS9" s="33"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="33"/>
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="33"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="33"/>
+      <c r="CA9" s="33"/>
+      <c r="CB9" s="33"/>
+      <c r="CC9" s="33"/>
+      <c r="CD9" s="33"/>
+      <c r="CE9" s="33"/>
+      <c r="CF9" s="33"/>
+      <c r="CG9" s="33"/>
+      <c r="CH9" s="33"/>
+      <c r="CI9" s="33"/>
+      <c r="CJ9" s="33"/>
+      <c r="CK9" s="33"/>
+      <c r="CL9" s="33"/>
+      <c r="CM9" s="33"/>
+      <c r="CN9" s="33"/>
+      <c r="CO9" s="33"/>
+      <c r="CP9" s="33"/>
+      <c r="CQ9" s="33"/>
+      <c r="CR9" s="33"/>
+      <c r="CS9" s="33"/>
+      <c r="CT9" s="33"/>
+      <c r="CU9" s="33"/>
+      <c r="CV9" s="33"/>
+      <c r="CW9" s="33"/>
+      <c r="CX9" s="33"/>
+      <c r="CY9" s="33"/>
+      <c r="CZ9" s="33"/>
+      <c r="DA9" s="33"/>
+      <c r="DB9" s="33"/>
+      <c r="DC9" s="33"/>
+      <c r="DD9" s="33"/>
+      <c r="DE9" s="33"/>
+      <c r="DF9" s="33"/>
+      <c r="DG9" s="33"/>
+      <c r="DH9" s="33"/>
+      <c r="DI9" s="33"/>
+      <c r="DJ9" s="33"/>
+      <c r="DK9" s="33"/>
+      <c r="DL9" s="33"/>
+      <c r="DM9" s="33"/>
+      <c r="DN9" s="33"/>
+      <c r="DO9" s="33"/>
+      <c r="DP9" s="33"/>
+      <c r="DQ9" s="33"/>
+      <c r="DR9" s="33"/>
+      <c r="DS9" s="33"/>
     </row>
-    <row r="10" spans="1:122" ht="120">
+    <row r="10" spans="1:124" ht="120">
       <c r="A10" s="22" t="s">
         <v>110</v>
       </c>
@@ -2862,37 +2895,37 @@
       <c r="AT10" s="13"/>
       <c r="AU10" s="13"/>
       <c r="AV10" s="13"/>
-      <c r="AW10" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="AW10" s="13"/>
       <c r="AX10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AY10" s="13"/>
+      <c r="AY10" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AZ10" s="13"/>
       <c r="BA10" s="13"/>
       <c r="BB10" s="13"/>
-      <c r="BC10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BE10" s="13"/>
       <c r="BF10" s="13"/>
       <c r="BG10" s="13"/>
       <c r="BH10" s="13"/>
       <c r="BI10" s="13"/>
       <c r="BJ10" s="13"/>
-      <c r="BK10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BL10" s="13"/>
+      <c r="BK10" s="13"/>
+      <c r="BL10" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BM10" s="13"/>
       <c r="BN10" s="13"/>
       <c r="BO10" s="13"/>
-      <c r="BP10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BQ10" s="13"/>
+      <c r="BP10" s="13"/>
+      <c r="BQ10" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BR10" s="13"/>
       <c r="BS10" s="13"/>
       <c r="BT10" s="13"/>
@@ -2900,21 +2933,21 @@
       <c r="BV10" s="13"/>
       <c r="BW10" s="13"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BY10" s="13"/>
       <c r="BZ10" s="13"/>
-      <c r="CA10" s="13"/>
+      <c r="CA10" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CB10" s="13"/>
       <c r="CC10" s="13"/>
       <c r="CD10" s="13"/>
       <c r="CE10" s="13"/>
       <c r="CF10" s="13"/>
-      <c r="CG10" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CG10" s="13"/>
       <c r="CH10" s="13"/>
-      <c r="CI10" s="13"/>
+      <c r="CI10" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CJ10" s="13"/>
       <c r="CK10" s="13"/>
       <c r="CL10" s="13"/>
@@ -2930,37 +2963,39 @@
       <c r="CV10" s="13"/>
       <c r="CW10" s="13"/>
       <c r="CX10" s="13"/>
-      <c r="CY10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="CZ10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="DA10" s="13"/>
-      <c r="DB10" s="13"/>
+      <c r="CY10" s="13"/>
+      <c r="CZ10" s="13"/>
+      <c r="DA10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DB10" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DC10" s="13"/>
       <c r="DD10" s="13"/>
       <c r="DE10" s="13"/>
       <c r="DF10" s="13"/>
       <c r="DG10" s="13"/>
       <c r="DH10" s="13"/>
-      <c r="DI10" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DI10" s="13"/>
       <c r="DJ10" s="13"/>
-      <c r="DK10" s="13"/>
+      <c r="DK10" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DL10" s="13"/>
       <c r="DM10" s="13"/>
       <c r="DN10" s="13"/>
-      <c r="DO10" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO10" s="13"/>
       <c r="DP10" s="13"/>
       <c r="DQ10" s="13" t="s">
         <v>27</v>
       </c>
+      <c r="DR10" s="13"/>
+      <c r="DS10" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="11" spans="1:122" ht="90">
+    <row r="11" spans="1:124" ht="90">
       <c r="A11" s="16" t="s">
         <v>111</v>
       </c>
@@ -3006,19 +3041,19 @@
       <c r="AN11" s="13"/>
       <c r="AO11" s="13"/>
       <c r="AP11" s="13"/>
-      <c r="AQ11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AS11" s="13"/>
       <c r="AT11" s="13"/>
       <c r="AU11" s="13"/>
       <c r="AV11" s="13"/>
       <c r="AW11" s="13"/>
-      <c r="AX11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AZ11" s="13"/>
       <c r="BA11" s="13"/>
       <c r="BB11" s="13"/>
@@ -3043,11 +3078,11 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="13"/>
-      <c r="BX11" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BX11" s="13"/>
       <c r="BY11" s="13"/>
-      <c r="BZ11" s="13"/>
+      <c r="BZ11" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CA11" s="13"/>
       <c r="CB11" s="13"/>
       <c r="CC11" s="13"/>
@@ -3069,36 +3104,38 @@
       <c r="CS11" s="13"/>
       <c r="CT11" s="13"/>
       <c r="CU11" s="13"/>
-      <c r="CV11" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CV11" s="13"/>
       <c r="CW11" s="13"/>
-      <c r="CX11" s="13"/>
+      <c r="CX11" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CY11" s="13"/>
       <c r="CZ11" s="13"/>
-      <c r="DA11" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DA11" s="13"/>
       <c r="DB11" s="13"/>
-      <c r="DC11" s="13"/>
+      <c r="DC11" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DD11" s="13"/>
       <c r="DE11" s="13"/>
       <c r="DF11" s="13"/>
       <c r="DG11" s="13"/>
       <c r="DH11" s="13"/>
-      <c r="DI11" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DI11" s="13"/>
       <c r="DJ11" s="13"/>
-      <c r="DK11" s="13"/>
+      <c r="DK11" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DL11" s="13"/>
       <c r="DM11" s="13"/>
       <c r="DN11" s="13"/>
       <c r="DO11" s="13"/>
       <c r="DP11" s="13"/>
       <c r="DQ11" s="13"/>
+      <c r="DR11" s="13"/>
+      <c r="DS11" s="13"/>
     </row>
-    <row r="12" spans="1:122" ht="72" customHeight="1">
+    <row r="12" spans="1:124" ht="72" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>112</v>
       </c>
@@ -3144,17 +3181,17 @@
       <c r="AN12" s="13"/>
       <c r="AO12" s="13"/>
       <c r="AP12" s="13"/>
-      <c r="AQ12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AS12" s="13"/>
       <c r="AT12" s="13"/>
       <c r="AU12" s="13"/>
-      <c r="AV12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AX12" s="13"/>
       <c r="AY12" s="13"/>
       <c r="AZ12" s="13"/>
@@ -3205,11 +3242,11 @@
       <c r="CS12" s="13"/>
       <c r="CT12" s="13"/>
       <c r="CU12" s="13"/>
-      <c r="CV12" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CV12" s="13"/>
       <c r="CW12" s="13"/>
-      <c r="CX12" s="13"/>
+      <c r="CX12" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CY12" s="13"/>
       <c r="CZ12" s="13"/>
       <c r="DA12" s="13"/>
@@ -3226,13 +3263,15 @@
       <c r="DL12" s="13"/>
       <c r="DM12" s="13"/>
       <c r="DN12" s="13"/>
-      <c r="DO12" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO12" s="13"/>
       <c r="DP12" s="13"/>
-      <c r="DQ12" s="13"/>
+      <c r="DQ12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR12" s="13"/>
+      <c r="DS12" s="13"/>
     </row>
-    <row r="13" spans="1:122" ht="72" customHeight="1">
+    <row r="13" spans="1:124" ht="72" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>115</v>
       </c>
@@ -3285,10 +3324,10 @@
       <c r="AS13" s="13"/>
       <c r="AT13" s="13"/>
       <c r="AU13" s="13"/>
-      <c r="AV13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AX13" s="13"/>
       <c r="AY13" s="13"/>
       <c r="AZ13" s="13"/>
@@ -3307,21 +3346,21 @@
       <c r="BM13" s="13"/>
       <c r="BN13" s="13"/>
       <c r="BO13" s="13"/>
-      <c r="BP13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BQ13" s="13"/>
+      <c r="BP13" s="13"/>
+      <c r="BQ13" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BR13" s="13"/>
       <c r="BS13" s="13"/>
       <c r="BT13" s="13"/>
       <c r="BU13" s="13"/>
       <c r="BV13" s="13"/>
       <c r="BW13" s="13"/>
-      <c r="BX13" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BX13" s="13"/>
       <c r="BY13" s="13"/>
-      <c r="BZ13" s="13"/>
+      <c r="BZ13" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CA13" s="13"/>
       <c r="CB13" s="13"/>
       <c r="CC13" s="13"/>
@@ -3347,11 +3386,11 @@
       <c r="CW13" s="13"/>
       <c r="CX13" s="13"/>
       <c r="CY13" s="13"/>
-      <c r="CZ13" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CZ13" s="13"/>
       <c r="DA13" s="13"/>
-      <c r="DB13" s="13"/>
+      <c r="DB13" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DC13" s="13"/>
       <c r="DD13" s="13"/>
       <c r="DE13" s="13"/>
@@ -3367,8 +3406,10 @@
       <c r="DO13" s="13"/>
       <c r="DP13" s="13"/>
       <c r="DQ13" s="13"/>
+      <c r="DR13" s="13"/>
+      <c r="DS13" s="13"/>
     </row>
-    <row r="14" spans="1:122" ht="90">
+    <row r="14" spans="1:124" ht="90">
       <c r="A14" s="16" t="s">
         <v>116</v>
       </c>
@@ -3410,10 +3451,10 @@
       <c r="AJ14" s="13"/>
       <c r="AK14" s="13"/>
       <c r="AL14" s="13"/>
-      <c r="AM14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AO14" s="13"/>
       <c r="AP14" s="13"/>
       <c r="AQ14" s="13"/>
@@ -3423,10 +3464,10 @@
       <c r="AU14" s="13"/>
       <c r="AV14" s="13"/>
       <c r="AW14" s="13"/>
-      <c r="AX14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AZ14" s="13"/>
       <c r="BA14" s="13"/>
       <c r="BB14" s="13"/>
@@ -3451,11 +3492,11 @@
       <c r="BU14" s="13"/>
       <c r="BV14" s="13"/>
       <c r="BW14" s="13"/>
-      <c r="BX14" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BX14" s="13"/>
       <c r="BY14" s="13"/>
-      <c r="BZ14" s="13"/>
+      <c r="BZ14" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CA14" s="13"/>
       <c r="CB14" s="13"/>
       <c r="CC14" s="13"/>
@@ -3499,8 +3540,10 @@
       <c r="DO14" s="13"/>
       <c r="DP14" s="13"/>
       <c r="DQ14" s="13"/>
+      <c r="DR14" s="13"/>
+      <c r="DS14" s="13"/>
     </row>
-    <row r="15" spans="1:122" ht="90">
+    <row r="15" spans="1:124" ht="90">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -3544,16 +3587,16 @@
       <c r="AJ15" s="13"/>
       <c r="AK15" s="13"/>
       <c r="AL15" s="13"/>
-      <c r="AM15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AO15" s="13"/>
       <c r="AP15" s="13"/>
-      <c r="AQ15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AS15" s="13"/>
       <c r="AT15" s="13"/>
       <c r="AU15" s="13"/>
@@ -3573,13 +3616,13 @@
       <c r="BI15" s="13"/>
       <c r="BJ15" s="13"/>
       <c r="BK15" s="13"/>
-      <c r="BL15" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BL15" s="13"/>
       <c r="BM15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="BN15" s="13"/>
+      <c r="BN15" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BO15" s="13"/>
       <c r="BP15" s="13"/>
       <c r="BQ15" s="13"/>
@@ -3590,11 +3633,11 @@
       <c r="BV15" s="13"/>
       <c r="BW15" s="13"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BY15" s="13"/>
       <c r="BZ15" s="13"/>
-      <c r="CA15" s="13"/>
+      <c r="CA15" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CB15" s="13"/>
       <c r="CC15" s="13"/>
       <c r="CD15" s="13"/>
@@ -3615,17 +3658,17 @@
       <c r="CS15" s="13"/>
       <c r="CT15" s="13"/>
       <c r="CU15" s="13"/>
-      <c r="CV15" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CV15" s="13"/>
       <c r="CW15" s="13"/>
-      <c r="CX15" s="13"/>
+      <c r="CX15" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CY15" s="13"/>
-      <c r="CZ15" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CZ15" s="13"/>
       <c r="DA15" s="13"/>
-      <c r="DB15" s="13"/>
+      <c r="DB15" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DC15" s="13"/>
       <c r="DD15" s="13"/>
       <c r="DE15" s="13"/>
@@ -3641,8 +3684,10 @@
       <c r="DO15" s="13"/>
       <c r="DP15" s="13"/>
       <c r="DQ15" s="13"/>
+      <c r="DR15" s="13"/>
+      <c r="DS15" s="13"/>
     </row>
-    <row r="16" spans="1:122" ht="72" customHeight="1">
+    <row r="16" spans="1:124" ht="72" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>122</v>
       </c>
@@ -3695,10 +3740,10 @@
       <c r="AS16" s="13"/>
       <c r="AT16" s="13"/>
       <c r="AU16" s="13"/>
-      <c r="AV16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AX16" s="13"/>
       <c r="AY16" s="13"/>
       <c r="AZ16" s="13"/>
@@ -3713,13 +3758,13 @@
       <c r="BI16" s="13"/>
       <c r="BJ16" s="13"/>
       <c r="BK16" s="13"/>
-      <c r="BL16" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BL16" s="13"/>
       <c r="BM16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="BN16" s="13"/>
+      <c r="BN16" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BO16" s="13"/>
       <c r="BP16" s="13"/>
       <c r="BQ16" s="13"/>
@@ -3729,17 +3774,17 @@
       <c r="BU16" s="13"/>
       <c r="BV16" s="13"/>
       <c r="BW16" s="13"/>
-      <c r="BX16" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BX16" s="13"/>
       <c r="BY16" s="13"/>
-      <c r="BZ16" s="13"/>
+      <c r="BZ16" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CA16" s="13"/>
-      <c r="CB16" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CB16" s="13"/>
       <c r="CC16" s="13"/>
-      <c r="CD16" s="13"/>
+      <c r="CD16" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CE16" s="13"/>
       <c r="CF16" s="13"/>
       <c r="CG16" s="13"/>
@@ -3779,8 +3824,10 @@
       <c r="DO16" s="13"/>
       <c r="DP16" s="13"/>
       <c r="DQ16" s="13"/>
+      <c r="DR16" s="13"/>
+      <c r="DS16" s="13"/>
     </row>
-    <row r="17" spans="1:121" ht="120">
+    <row r="17" spans="1:123" ht="120">
       <c r="A17" s="16" t="s">
         <v>123</v>
       </c>
@@ -3831,10 +3878,10 @@
       <c r="AS17" s="13"/>
       <c r="AT17" s="13"/>
       <c r="AU17" s="13"/>
-      <c r="AV17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AX17" s="13"/>
       <c r="AY17" s="13"/>
       <c r="AZ17" s="13"/>
@@ -3852,14 +3899,14 @@
       <c r="BL17" s="13"/>
       <c r="BM17" s="13"/>
       <c r="BN17" s="13"/>
-      <c r="BO17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BP17" s="13"/>
-      <c r="BQ17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BR17" s="13"/>
+      <c r="BO17" s="13"/>
+      <c r="BP17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ17" s="13"/>
+      <c r="BR17" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BS17" s="13"/>
       <c r="BT17" s="13"/>
       <c r="BU17" s="13"/>
@@ -3893,11 +3940,11 @@
       <c r="CW17" s="13"/>
       <c r="CX17" s="13"/>
       <c r="CY17" s="13"/>
-      <c r="CZ17" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CZ17" s="13"/>
       <c r="DA17" s="13"/>
-      <c r="DB17" s="13"/>
+      <c r="DB17" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DC17" s="13"/>
       <c r="DD17" s="13"/>
       <c r="DE17" s="13"/>
@@ -3910,13 +3957,15 @@
       <c r="DL17" s="13"/>
       <c r="DM17" s="13"/>
       <c r="DN17" s="13"/>
-      <c r="DO17" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO17" s="13"/>
       <c r="DP17" s="13"/>
-      <c r="DQ17" s="13"/>
+      <c r="DQ17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR17" s="13"/>
+      <c r="DS17" s="13"/>
     </row>
-    <row r="18" spans="1:121" ht="72" customHeight="1">
+    <row r="18" spans="1:123" ht="72" customHeight="1">
       <c r="A18" s="16" t="s">
         <v>126</v>
       </c>
@@ -3974,18 +4023,18 @@
       <c r="AT18" s="13"/>
       <c r="AU18" s="13"/>
       <c r="AV18" s="13"/>
-      <c r="AW18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AX18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AY18" s="13"/>
       <c r="AZ18" s="13"/>
       <c r="BA18" s="13"/>
       <c r="BB18" s="13"/>
-      <c r="BC18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD18" s="13"/>
+      <c r="BC18" s="13"/>
+      <c r="BD18" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BE18" s="13"/>
       <c r="BF18" s="13"/>
       <c r="BG18" s="13"/>
@@ -3997,10 +4046,10 @@
       <c r="BM18" s="13"/>
       <c r="BN18" s="13"/>
       <c r="BO18" s="13"/>
-      <c r="BP18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BQ18" s="13"/>
+      <c r="BP18" s="13"/>
+      <c r="BQ18" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BR18" s="13"/>
       <c r="BS18" s="13"/>
       <c r="BT18" s="13"/>
@@ -4008,31 +4057,31 @@
       <c r="BV18" s="13"/>
       <c r="BW18" s="13"/>
       <c r="BX18" s="13"/>
-      <c r="BY18" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BY18" s="13"/>
       <c r="BZ18" s="13"/>
-      <c r="CA18" s="13"/>
+      <c r="CA18" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CB18" s="13"/>
       <c r="CC18" s="13"/>
       <c r="CD18" s="13"/>
       <c r="CE18" s="13"/>
       <c r="CF18" s="13"/>
-      <c r="CG18" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CG18" s="13"/>
       <c r="CH18" s="13"/>
-      <c r="CI18" s="13"/>
+      <c r="CI18" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CJ18" s="13"/>
-      <c r="CK18" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CK18" s="13"/>
       <c r="CL18" s="13"/>
       <c r="CM18" s="13" t="s">
         <v>27</v>
       </c>
       <c r="CN18" s="13"/>
-      <c r="CO18" s="13"/>
+      <c r="CO18" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CP18" s="13"/>
       <c r="CQ18" s="13"/>
       <c r="CR18" s="13"/>
@@ -4043,32 +4092,34 @@
       <c r="CW18" s="13"/>
       <c r="CX18" s="13"/>
       <c r="CY18" s="13"/>
-      <c r="CZ18" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CZ18" s="13"/>
       <c r="DA18" s="13"/>
-      <c r="DB18" s="13"/>
+      <c r="DB18" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DC18" s="13"/>
       <c r="DD18" s="13"/>
       <c r="DE18" s="13"/>
       <c r="DF18" s="13"/>
       <c r="DG18" s="13"/>
       <c r="DH18" s="13"/>
-      <c r="DI18" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DI18" s="13"/>
       <c r="DJ18" s="13"/>
-      <c r="DK18" s="13"/>
+      <c r="DK18" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DL18" s="13"/>
       <c r="DM18" s="13"/>
       <c r="DN18" s="13"/>
-      <c r="DO18" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO18" s="13"/>
       <c r="DP18" s="13"/>
-      <c r="DQ18" s="13"/>
+      <c r="DQ18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR18" s="13"/>
+      <c r="DS18" s="13"/>
     </row>
-    <row r="19" spans="1:121" ht="72" customHeight="1">
+    <row r="19" spans="1:123" ht="72" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>127</v>
       </c>
@@ -4136,10 +4187,10 @@
       <c r="BH19" s="13"/>
       <c r="BI19" s="13"/>
       <c r="BJ19" s="13"/>
-      <c r="BK19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BL19" s="13"/>
+      <c r="BK19" s="13"/>
+      <c r="BL19" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BM19" s="13"/>
       <c r="BN19" s="13"/>
       <c r="BO19" s="13"/>
@@ -4179,11 +4230,11 @@
       <c r="CW19" s="13"/>
       <c r="CX19" s="13"/>
       <c r="CY19" s="13"/>
-      <c r="CZ19" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CZ19" s="13"/>
       <c r="DA19" s="13"/>
-      <c r="DB19" s="13"/>
+      <c r="DB19" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DC19" s="13"/>
       <c r="DD19" s="13"/>
       <c r="DE19" s="13"/>
@@ -4199,8 +4250,10 @@
       <c r="DO19" s="13"/>
       <c r="DP19" s="13"/>
       <c r="DQ19" s="13"/>
+      <c r="DR19" s="13"/>
+      <c r="DS19" s="13"/>
     </row>
-    <row r="20" spans="1:121" ht="90">
+    <row r="20" spans="1:123" ht="90">
       <c r="A20" s="16" t="s">
         <v>128</v>
       </c>
@@ -4307,11 +4360,11 @@
       <c r="CW20" s="13"/>
       <c r="CX20" s="13"/>
       <c r="CY20" s="13"/>
-      <c r="CZ20" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CZ20" s="13"/>
       <c r="DA20" s="13"/>
-      <c r="DB20" s="13"/>
+      <c r="DB20" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DC20" s="13"/>
       <c r="DD20" s="13"/>
       <c r="DE20" s="13"/>
@@ -4324,13 +4377,15 @@
       <c r="DL20" s="13"/>
       <c r="DM20" s="13"/>
       <c r="DN20" s="13"/>
-      <c r="DO20" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO20" s="13"/>
       <c r="DP20" s="13"/>
-      <c r="DQ20" s="13"/>
+      <c r="DQ20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR20" s="13"/>
+      <c r="DS20" s="13"/>
     </row>
-    <row r="21" spans="1:121" ht="72" customHeight="1">
+    <row r="21" spans="1:123" ht="72" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>131</v>
       </c>
@@ -4376,10 +4431,10 @@
       <c r="AN21" s="13"/>
       <c r="AO21" s="13"/>
       <c r="AP21" s="13"/>
-      <c r="AQ21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AS21" s="13"/>
       <c r="AT21" s="13"/>
       <c r="AU21" s="13"/>
@@ -4390,10 +4445,10 @@
       <c r="AZ21" s="13"/>
       <c r="BA21" s="13"/>
       <c r="BB21" s="13"/>
-      <c r="BC21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BE21" s="13"/>
       <c r="BF21" s="13"/>
       <c r="BG21" s="13"/>
@@ -4417,11 +4472,11 @@
       <c r="BY21" s="13"/>
       <c r="BZ21" s="13"/>
       <c r="CA21" s="13"/>
-      <c r="CB21" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CB21" s="13"/>
       <c r="CC21" s="13"/>
-      <c r="CD21" s="13"/>
+      <c r="CD21" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CE21" s="13"/>
       <c r="CF21" s="13"/>
       <c r="CG21" s="13"/>
@@ -4443,11 +4498,11 @@
       <c r="CW21" s="13"/>
       <c r="CX21" s="13"/>
       <c r="CY21" s="13"/>
-      <c r="CZ21" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CZ21" s="13"/>
       <c r="DA21" s="13"/>
-      <c r="DB21" s="13"/>
+      <c r="DB21" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DC21" s="13"/>
       <c r="DD21" s="13"/>
       <c r="DE21" s="13"/>
@@ -4463,8 +4518,10 @@
       <c r="DO21" s="13"/>
       <c r="DP21" s="13"/>
       <c r="DQ21" s="13"/>
+      <c r="DR21" s="13"/>
+      <c r="DS21" s="13"/>
     </row>
-    <row r="22" spans="1:121" ht="105">
+    <row r="22" spans="1:123" ht="105">
       <c r="A22" s="22" t="s">
         <v>133</v>
       </c>
@@ -4517,10 +4574,10 @@
       <c r="AU22" s="13"/>
       <c r="AV22" s="13"/>
       <c r="AW22" s="13"/>
-      <c r="AX22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AZ22" s="13"/>
       <c r="BA22" s="13"/>
       <c r="BB22" s="13"/>
@@ -4546,11 +4603,11 @@
       <c r="BV22" s="13"/>
       <c r="BW22" s="13"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BY22" s="13"/>
       <c r="BZ22" s="13"/>
-      <c r="CA22" s="13"/>
+      <c r="CA22" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CB22" s="13"/>
       <c r="CC22" s="13"/>
       <c r="CD22" s="13"/>
@@ -4576,33 +4633,35 @@
       <c r="CX22" s="13"/>
       <c r="CY22" s="13"/>
       <c r="CZ22" s="13"/>
-      <c r="DA22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="DB22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="DC22" s="13"/>
-      <c r="DD22" s="13"/>
+      <c r="DA22" s="13"/>
+      <c r="DB22" s="13"/>
+      <c r="DC22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DD22" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DE22" s="13"/>
       <c r="DF22" s="13"/>
       <c r="DG22" s="13"/>
       <c r="DH22" s="13"/>
-      <c r="DI22" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DI22" s="13"/>
       <c r="DJ22" s="13"/>
-      <c r="DK22" s="13"/>
+      <c r="DK22" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DL22" s="13"/>
       <c r="DM22" s="13"/>
       <c r="DN22" s="13"/>
-      <c r="DO22" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO22" s="13"/>
       <c r="DP22" s="13"/>
-      <c r="DQ22" s="13"/>
+      <c r="DQ22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR22" s="13"/>
+      <c r="DS22" s="13"/>
     </row>
-    <row r="23" spans="1:121" ht="105">
+    <row r="23" spans="1:123" ht="105">
       <c r="A23" s="16" t="s">
         <v>136</v>
       </c>
@@ -4670,10 +4729,10 @@
       <c r="BH23" s="13"/>
       <c r="BI23" s="13"/>
       <c r="BJ23" s="13"/>
-      <c r="BK23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BL23" s="13"/>
+      <c r="BK23" s="13"/>
+      <c r="BL23" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BM23" s="13"/>
       <c r="BN23" s="13"/>
       <c r="BO23" s="13"/>
@@ -4686,11 +4745,11 @@
       <c r="BV23" s="13"/>
       <c r="BW23" s="13"/>
       <c r="BX23" s="13"/>
-      <c r="BY23" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BY23" s="13"/>
       <c r="BZ23" s="13"/>
-      <c r="CA23" s="13"/>
+      <c r="CA23" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CB23" s="13"/>
       <c r="CC23" s="13"/>
       <c r="CD23" s="13"/>
@@ -4707,21 +4766,21 @@
       <c r="CO23" s="13"/>
       <c r="CP23" s="13"/>
       <c r="CQ23" s="13"/>
-      <c r="CR23" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CR23" s="13"/>
       <c r="CS23" s="13"/>
-      <c r="CT23" s="13"/>
+      <c r="CT23" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CU23" s="13"/>
       <c r="CV23" s="13"/>
       <c r="CW23" s="13"/>
       <c r="CX23" s="13"/>
       <c r="CY23" s="13"/>
-      <c r="CZ23" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CZ23" s="13"/>
       <c r="DA23" s="13"/>
-      <c r="DB23" s="13"/>
+      <c r="DB23" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DC23" s="13"/>
       <c r="DD23" s="13"/>
       <c r="DE23" s="13"/>
@@ -4737,8 +4796,10 @@
       <c r="DO23" s="13"/>
       <c r="DP23" s="13"/>
       <c r="DQ23" s="13"/>
+      <c r="DR23" s="13"/>
+      <c r="DS23" s="13"/>
     </row>
-    <row r="24" spans="1:121" ht="120">
+    <row r="24" spans="1:123" ht="120">
       <c r="A24" s="16" t="s">
         <v>138</v>
       </c>
@@ -4789,10 +4850,10 @@
       <c r="AS24" s="13"/>
       <c r="AT24" s="13"/>
       <c r="AU24" s="13"/>
-      <c r="AV24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AX24" s="13"/>
       <c r="AY24" s="13"/>
       <c r="AZ24" s="13"/>
@@ -4847,11 +4908,11 @@
       <c r="CW24" s="13"/>
       <c r="CX24" s="13"/>
       <c r="CY24" s="13"/>
-      <c r="CZ24" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CZ24" s="13"/>
       <c r="DA24" s="13"/>
-      <c r="DB24" s="13"/>
+      <c r="DB24" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DC24" s="13"/>
       <c r="DD24" s="13"/>
       <c r="DE24" s="13"/>
@@ -4864,13 +4925,15 @@
       <c r="DL24" s="13"/>
       <c r="DM24" s="13"/>
       <c r="DN24" s="13"/>
-      <c r="DO24" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO24" s="13"/>
       <c r="DP24" s="13"/>
-      <c r="DQ24" s="13"/>
+      <c r="DQ24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR24" s="13"/>
+      <c r="DS24" s="13"/>
     </row>
-    <row r="25" spans="1:121" ht="75">
+    <row r="25" spans="1:123" ht="75">
       <c r="A25" s="16" t="s">
         <v>140</v>
       </c>
@@ -4921,10 +4984,10 @@
       <c r="AS25" s="13"/>
       <c r="AT25" s="13"/>
       <c r="AU25" s="13"/>
-      <c r="AV25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW25" s="13"/>
+      <c r="AV25" s="13"/>
+      <c r="AW25" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AX25" s="13"/>
       <c r="AY25" s="13"/>
       <c r="AZ25" s="13"/>
@@ -4946,11 +5009,11 @@
       <c r="BP25" s="13"/>
       <c r="BQ25" s="13"/>
       <c r="BR25" s="13"/>
-      <c r="BS25" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BS25" s="13"/>
       <c r="BT25" s="13"/>
-      <c r="BU25" s="13"/>
+      <c r="BU25" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BV25" s="13"/>
       <c r="BW25" s="13"/>
       <c r="BX25" s="13"/>
@@ -4976,11 +5039,11 @@
       <c r="CR25" s="13"/>
       <c r="CS25" s="13"/>
       <c r="CT25" s="13"/>
-      <c r="CU25" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CU25" s="13"/>
       <c r="CV25" s="13"/>
-      <c r="CW25" s="13"/>
+      <c r="CW25" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CX25" s="13"/>
       <c r="CY25" s="13"/>
       <c r="CZ25" s="13"/>
@@ -4998,13 +5061,15 @@
       <c r="DL25" s="13"/>
       <c r="DM25" s="13"/>
       <c r="DN25" s="13"/>
-      <c r="DO25" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO25" s="13"/>
       <c r="DP25" s="13"/>
-      <c r="DQ25" s="13"/>
+      <c r="DQ25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR25" s="13"/>
+      <c r="DS25" s="13"/>
     </row>
-    <row r="26" spans="1:121" ht="240">
+    <row r="26" spans="1:123" ht="240">
       <c r="A26" s="16" t="s">
         <v>142</v>
       </c>
@@ -5051,10 +5116,10 @@
       <c r="AO26" s="13"/>
       <c r="AP26" s="13"/>
       <c r="AQ26" s="13"/>
-      <c r="AR26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AT26" s="13"/>
       <c r="AU26" s="13"/>
       <c r="AV26" s="13"/>
@@ -5078,17 +5143,17 @@
       <c r="BN26" s="13"/>
       <c r="BO26" s="13"/>
       <c r="BP26" s="13"/>
-      <c r="BQ26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BR26" s="13"/>
+      <c r="BQ26" s="13"/>
+      <c r="BR26" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BS26" s="13"/>
       <c r="BT26" s="13"/>
-      <c r="BU26" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BU26" s="13"/>
       <c r="BV26" s="13"/>
-      <c r="BW26" s="13"/>
+      <c r="BW26" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BX26" s="13"/>
       <c r="BY26" s="13"/>
       <c r="BZ26" s="13"/>
@@ -5104,30 +5169,30 @@
       <c r="CJ26" s="13"/>
       <c r="CK26" s="13"/>
       <c r="CL26" s="13"/>
-      <c r="CM26" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CM26" s="13"/>
       <c r="CN26" s="13"/>
-      <c r="CO26" s="13"/>
+      <c r="CO26" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CP26" s="13"/>
       <c r="CQ26" s="13"/>
       <c r="CR26" s="13"/>
       <c r="CS26" s="13"/>
       <c r="CT26" s="13"/>
       <c r="CU26" s="13"/>
-      <c r="CV26" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CV26" s="13"/>
       <c r="CW26" s="13"/>
-      <c r="CX26" s="13"/>
+      <c r="CX26" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CY26" s="13"/>
       <c r="CZ26" s="13"/>
       <c r="DA26" s="13"/>
-      <c r="DB26" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DB26" s="13"/>
       <c r="DC26" s="13"/>
-      <c r="DD26" s="13"/>
+      <c r="DD26" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DE26" s="13"/>
       <c r="DF26" s="13"/>
       <c r="DG26" s="13"/>
@@ -5138,13 +5203,15 @@
       <c r="DL26" s="13"/>
       <c r="DM26" s="13"/>
       <c r="DN26" s="13"/>
-      <c r="DO26" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO26" s="13"/>
       <c r="DP26" s="13"/>
-      <c r="DQ26" s="13"/>
+      <c r="DQ26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR26" s="13"/>
+      <c r="DS26" s="13"/>
     </row>
-    <row r="27" spans="1:121" ht="330">
+    <row r="27" spans="1:123" ht="330">
       <c r="A27" s="16" t="s">
         <v>144</v>
       </c>
@@ -5224,11 +5291,11 @@
       <c r="BV27" s="13"/>
       <c r="BW27" s="13"/>
       <c r="BX27" s="13"/>
-      <c r="BY27" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BY27" s="13"/>
       <c r="BZ27" s="13"/>
-      <c r="CA27" s="13"/>
+      <c r="CA27" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CB27" s="13"/>
       <c r="CC27" s="13"/>
       <c r="CD27" s="13"/>
@@ -5238,11 +5305,11 @@
       <c r="CH27" s="13"/>
       <c r="CI27" s="13"/>
       <c r="CJ27" s="13"/>
-      <c r="CK27" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CK27" s="13"/>
       <c r="CL27" s="13"/>
-      <c r="CM27" s="13"/>
+      <c r="CM27" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CN27" s="13"/>
       <c r="CO27" s="13"/>
       <c r="CP27" s="13"/>
@@ -5267,18 +5334,20 @@
       <c r="DI27" s="13"/>
       <c r="DJ27" s="13"/>
       <c r="DK27" s="13"/>
-      <c r="DL27" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DL27" s="13"/>
       <c r="DM27" s="13"/>
-      <c r="DN27" s="13"/>
-      <c r="DO27" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DN27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DO27" s="13"/>
       <c r="DP27" s="13"/>
-      <c r="DQ27" s="13"/>
+      <c r="DQ27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR27" s="13"/>
+      <c r="DS27" s="13"/>
     </row>
-    <row r="28" spans="1:121" ht="409">
+    <row r="28" spans="1:123" ht="409">
       <c r="A28" s="16" t="s">
         <v>147</v>
       </c>
@@ -5341,10 +5410,10 @@
       <c r="AW28" s="13"/>
       <c r="AX28" s="13"/>
       <c r="AY28" s="13"/>
-      <c r="AZ28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BA28" s="13"/>
+      <c r="AZ28" s="13"/>
+      <c r="BA28" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BB28" s="13"/>
       <c r="BC28" s="13"/>
       <c r="BD28" s="13"/>
@@ -5360,10 +5429,10 @@
       <c r="BN28" s="13"/>
       <c r="BO28" s="13"/>
       <c r="BP28" s="13"/>
-      <c r="BQ28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BR28" s="13"/>
+      <c r="BQ28" s="13"/>
+      <c r="BR28" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BS28" s="13"/>
       <c r="BT28" s="13"/>
       <c r="BU28" s="13"/>
@@ -5380,19 +5449,19 @@
       <c r="CF28" s="13"/>
       <c r="CG28" s="13"/>
       <c r="CH28" s="13"/>
-      <c r="CI28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="CJ28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="CK28" s="13"/>
-      <c r="CL28" s="13"/>
-      <c r="CM28" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CI28" s="13"/>
+      <c r="CJ28" s="13"/>
+      <c r="CK28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CL28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CM28" s="13"/>
       <c r="CN28" s="13"/>
-      <c r="CO28" s="13"/>
+      <c r="CO28" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CP28" s="13"/>
       <c r="CQ28" s="13"/>
       <c r="CR28" s="13"/>
@@ -5411,11 +5480,11 @@
       <c r="DE28" s="13"/>
       <c r="DF28" s="13"/>
       <c r="DG28" s="13"/>
-      <c r="DH28" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DH28" s="13"/>
       <c r="DI28" s="13"/>
-      <c r="DJ28" s="13"/>
+      <c r="DJ28" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DK28" s="13"/>
       <c r="DL28" s="13"/>
       <c r="DM28" s="13"/>
@@ -5423,8 +5492,10 @@
       <c r="DO28" s="13"/>
       <c r="DP28" s="13"/>
       <c r="DQ28" s="13"/>
+      <c r="DR28" s="13"/>
+      <c r="DS28" s="13"/>
     </row>
-    <row r="29" spans="1:121" ht="72" customHeight="1">
+    <row r="29" spans="1:123" ht="72" customHeight="1">
       <c r="A29" s="16" t="s">
         <v>163</v>
       </c>
@@ -5479,10 +5550,10 @@
       <c r="AU29" s="13"/>
       <c r="AV29" s="13"/>
       <c r="AW29" s="13"/>
-      <c r="AX29" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AZ29" s="13"/>
       <c r="BA29" s="13"/>
       <c r="BB29" s="13"/>
@@ -5516,11 +5587,11 @@
       <c r="CD29" s="13"/>
       <c r="CE29" s="13"/>
       <c r="CF29" s="13"/>
-      <c r="CG29" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CG29" s="13"/>
       <c r="CH29" s="13"/>
-      <c r="CI29" s="13"/>
+      <c r="CI29" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CJ29" s="13"/>
       <c r="CK29" s="13"/>
       <c r="CL29" s="13"/>
@@ -5533,11 +5604,11 @@
       <c r="CS29" s="13"/>
       <c r="CT29" s="13"/>
       <c r="CU29" s="13"/>
-      <c r="CV29" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CV29" s="13"/>
       <c r="CW29" s="13"/>
-      <c r="CX29" s="13"/>
+      <c r="CX29" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CY29" s="13"/>
       <c r="CZ29" s="13"/>
       <c r="DA29" s="13"/>
@@ -5554,13 +5625,15 @@
       <c r="DL29" s="13"/>
       <c r="DM29" s="13"/>
       <c r="DN29" s="13"/>
-      <c r="DO29" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO29" s="13"/>
       <c r="DP29" s="13"/>
-      <c r="DQ29" s="13"/>
+      <c r="DQ29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR29" s="13"/>
+      <c r="DS29" s="13"/>
     </row>
-    <row r="30" spans="1:121" ht="105">
+    <row r="30" spans="1:123" ht="105">
       <c r="A30" s="16" t="s">
         <v>165</v>
       </c>
@@ -5607,10 +5680,10 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AT30" s="13"/>
       <c r="AU30" s="13"/>
       <c r="AV30" s="13"/>
@@ -5634,17 +5707,17 @@
       <c r="BN30" s="13"/>
       <c r="BO30" s="13"/>
       <c r="BP30" s="13"/>
-      <c r="BQ30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BR30" s="13"/>
+      <c r="BQ30" s="13"/>
+      <c r="BR30" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BS30" s="13"/>
       <c r="BT30" s="13"/>
-      <c r="BU30" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BU30" s="13"/>
       <c r="BV30" s="13"/>
-      <c r="BW30" s="13"/>
+      <c r="BW30" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BX30" s="13"/>
       <c r="BY30" s="13"/>
       <c r="BZ30" s="13"/>
@@ -5654,38 +5727,38 @@
       <c r="CD30" s="13"/>
       <c r="CE30" s="13"/>
       <c r="CF30" s="13"/>
-      <c r="CG30" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CG30" s="13"/>
       <c r="CH30" s="13"/>
-      <c r="CI30" s="13"/>
+      <c r="CI30" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CJ30" s="13"/>
       <c r="CK30" s="13"/>
       <c r="CL30" s="13"/>
-      <c r="CM30" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CM30" s="13"/>
       <c r="CN30" s="13"/>
-      <c r="CO30" s="13"/>
+      <c r="CO30" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CP30" s="13"/>
       <c r="CQ30" s="13"/>
       <c r="CR30" s="13"/>
       <c r="CS30" s="13"/>
       <c r="CT30" s="13"/>
       <c r="CU30" s="13"/>
-      <c r="CV30" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CV30" s="13"/>
       <c r="CW30" s="13"/>
-      <c r="CX30" s="13"/>
+      <c r="CX30" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CY30" s="13"/>
       <c r="CZ30" s="13"/>
       <c r="DA30" s="13"/>
-      <c r="DB30" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DB30" s="13"/>
       <c r="DC30" s="13"/>
-      <c r="DD30" s="13"/>
+      <c r="DD30" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DE30" s="13"/>
       <c r="DF30" s="13"/>
       <c r="DG30" s="13"/>
@@ -5696,13 +5769,15 @@
       <c r="DL30" s="13"/>
       <c r="DM30" s="13"/>
       <c r="DN30" s="13"/>
-      <c r="DO30" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO30" s="13"/>
       <c r="DP30" s="13"/>
-      <c r="DQ30" s="13"/>
+      <c r="DQ30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR30" s="13"/>
+      <c r="DS30" s="13"/>
     </row>
-    <row r="31" spans="1:121" ht="165">
+    <row r="31" spans="1:123" ht="165">
       <c r="A31" s="16" t="s">
         <v>168</v>
       </c>
@@ -5758,10 +5833,10 @@
       <c r="AN31" s="13"/>
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
-      <c r="AQ31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR31" s="13"/>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AS31" s="13"/>
       <c r="AT31" s="13"/>
       <c r="AU31" s="13"/>
@@ -5772,10 +5847,10 @@
       <c r="AZ31" s="13"/>
       <c r="BA31" s="13"/>
       <c r="BB31" s="13"/>
-      <c r="BC31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD31" s="13"/>
+      <c r="BC31" s="13"/>
+      <c r="BD31" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BE31" s="13"/>
       <c r="BF31" s="13"/>
       <c r="BG31" s="13"/>
@@ -5788,35 +5863,35 @@
       <c r="BN31" s="13"/>
       <c r="BO31" s="13"/>
       <c r="BP31" s="13"/>
-      <c r="BQ31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BR31" s="13"/>
+      <c r="BQ31" s="13"/>
+      <c r="BR31" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BS31" s="13"/>
       <c r="BT31" s="13"/>
       <c r="BU31" s="13"/>
       <c r="BV31" s="13"/>
       <c r="BW31" s="13"/>
-      <c r="BX31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BY31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BZ31" s="13"/>
-      <c r="CA31" s="13"/>
+      <c r="BX31" s="13"/>
+      <c r="BY31" s="13"/>
+      <c r="BZ31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA31" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CB31" s="13"/>
       <c r="CC31" s="13"/>
       <c r="CD31" s="13"/>
       <c r="CE31" s="13"/>
-      <c r="CF31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="CG31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="CH31" s="13"/>
-      <c r="CI31" s="13"/>
+      <c r="CF31" s="13"/>
+      <c r="CG31" s="13"/>
+      <c r="CH31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CI31" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CJ31" s="13"/>
       <c r="CK31" s="13"/>
       <c r="CL31" s="13"/>
@@ -5833,34 +5908,36 @@
       <c r="CW31" s="13"/>
       <c r="CX31" s="13"/>
       <c r="CY31" s="13"/>
-      <c r="CZ31" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CZ31" s="13"/>
       <c r="DA31" s="13"/>
       <c r="DB31" s="13" t="s">
         <v>27</v>
       </c>
       <c r="DC31" s="13"/>
-      <c r="DD31" s="13"/>
+      <c r="DD31" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DE31" s="13"/>
       <c r="DF31" s="13"/>
       <c r="DG31" s="13"/>
       <c r="DH31" s="13"/>
-      <c r="DI31" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DI31" s="13"/>
       <c r="DJ31" s="13"/>
-      <c r="DK31" s="13"/>
+      <c r="DK31" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DL31" s="13"/>
       <c r="DM31" s="13"/>
       <c r="DN31" s="13"/>
-      <c r="DO31" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO31" s="13"/>
       <c r="DP31" s="13"/>
-      <c r="DQ31" s="13"/>
+      <c r="DQ31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR31" s="13"/>
+      <c r="DS31" s="13"/>
     </row>
-    <row r="32" spans="1:121" ht="72" customHeight="1">
+    <row r="32" spans="1:123" ht="72" customHeight="1">
       <c r="A32" s="16" t="s">
         <v>169</v>
       </c>
@@ -5938,11 +6015,11 @@
       <c r="BP32" s="13"/>
       <c r="BQ32" s="13"/>
       <c r="BR32" s="13"/>
-      <c r="BS32" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BS32" s="13"/>
       <c r="BT32" s="13"/>
-      <c r="BU32" s="13"/>
+      <c r="BU32" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BV32" s="13"/>
       <c r="BW32" s="13"/>
       <c r="BX32" s="13"/>
@@ -5957,11 +6034,11 @@
       <c r="CG32" s="13"/>
       <c r="CH32" s="13"/>
       <c r="CI32" s="13"/>
-      <c r="CJ32" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CJ32" s="13"/>
       <c r="CK32" s="13"/>
-      <c r="CL32" s="13"/>
+      <c r="CL32" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CM32" s="13"/>
       <c r="CN32" s="13"/>
       <c r="CO32" s="13"/>
@@ -5990,13 +6067,15 @@
       <c r="DL32" s="13"/>
       <c r="DM32" s="13"/>
       <c r="DN32" s="13"/>
-      <c r="DO32" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO32" s="13"/>
       <c r="DP32" s="13"/>
-      <c r="DQ32" s="13"/>
+      <c r="DQ32" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR32" s="13"/>
+      <c r="DS32" s="13"/>
     </row>
-    <row r="33" spans="1:121" ht="72" customHeight="1">
+    <row r="33" spans="1:123" ht="72" customHeight="1">
       <c r="A33" s="22" t="s">
         <v>171</v>
       </c>
@@ -6065,13 +6144,13 @@
       <c r="BI33" s="13"/>
       <c r="BJ33" s="13"/>
       <c r="BK33" s="13"/>
-      <c r="BL33" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BL33" s="13"/>
       <c r="BM33" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="BN33" s="13"/>
+      <c r="BN33" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BO33" s="13"/>
       <c r="BP33" s="13"/>
       <c r="BQ33" s="13"/>
@@ -6105,11 +6184,11 @@
       <c r="CS33" s="13"/>
       <c r="CT33" s="13"/>
       <c r="CU33" s="13"/>
-      <c r="CV33" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CV33" s="13"/>
       <c r="CW33" s="13"/>
-      <c r="CX33" s="13"/>
+      <c r="CX33" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CY33" s="13"/>
       <c r="CZ33" s="13"/>
       <c r="DA33" s="13"/>
@@ -6129,8 +6208,10 @@
       <c r="DO33" s="13"/>
       <c r="DP33" s="13"/>
       <c r="DQ33" s="13"/>
+      <c r="DR33" s="13"/>
+      <c r="DS33" s="13"/>
     </row>
-    <row r="34" spans="1:121" ht="72" customHeight="1">
+    <row r="34" spans="1:123" ht="72" customHeight="1">
       <c r="A34" s="16" t="s">
         <v>173</v>
       </c>
@@ -6198,10 +6279,10 @@
       <c r="BH34" s="13"/>
       <c r="BI34" s="13"/>
       <c r="BJ34" s="13"/>
-      <c r="BK34" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BL34" s="13"/>
+      <c r="BK34" s="13"/>
+      <c r="BL34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BM34" s="13"/>
       <c r="BN34" s="13"/>
       <c r="BO34" s="13"/>
@@ -6214,48 +6295,48 @@
       <c r="BV34" s="13"/>
       <c r="BW34" s="13"/>
       <c r="BX34" s="13"/>
-      <c r="BY34" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BY34" s="13"/>
       <c r="BZ34" s="13"/>
-      <c r="CA34" s="13"/>
+      <c r="CA34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CB34" s="13"/>
       <c r="CC34" s="13"/>
       <c r="CD34" s="13"/>
       <c r="CE34" s="13"/>
       <c r="CF34" s="13"/>
-      <c r="CG34" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CG34" s="13"/>
       <c r="CH34" s="13"/>
-      <c r="CI34" s="13"/>
+      <c r="CI34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CJ34" s="13"/>
-      <c r="CK34" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CK34" s="13"/>
       <c r="CL34" s="13"/>
-      <c r="CM34" s="13"/>
+      <c r="CM34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CN34" s="13"/>
       <c r="CO34" s="13"/>
       <c r="CP34" s="13"/>
       <c r="CQ34" s="13"/>
-      <c r="CR34" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CR34" s="13"/>
       <c r="CS34" s="13"/>
-      <c r="CT34" s="13"/>
+      <c r="CT34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CU34" s="13"/>
-      <c r="CV34" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CV34" s="13"/>
       <c r="CW34" s="13"/>
-      <c r="CX34" s="13"/>
+      <c r="CX34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CY34" s="13"/>
-      <c r="CZ34" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CZ34" s="13"/>
       <c r="DA34" s="13"/>
-      <c r="DB34" s="13"/>
+      <c r="DB34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DC34" s="13"/>
       <c r="DD34" s="13"/>
       <c r="DE34" s="13"/>
@@ -6271,8 +6352,10 @@
       <c r="DO34" s="13"/>
       <c r="DP34" s="13"/>
       <c r="DQ34" s="13"/>
+      <c r="DR34" s="13"/>
+      <c r="DS34" s="13"/>
     </row>
-    <row r="35" spans="1:121" ht="72" customHeight="1">
+    <row r="35" spans="1:123" ht="72" customHeight="1">
       <c r="A35" s="16" t="s">
         <v>175</v>
       </c>
@@ -6322,26 +6405,26 @@
       <c r="AN35" s="13"/>
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
-      <c r="AQ35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AS35" s="13"/>
       <c r="AT35" s="13"/>
-      <c r="AU35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV35" s="13"/>
+      <c r="AU35" s="13"/>
+      <c r="AV35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AW35" s="13"/>
       <c r="AX35" s="13"/>
       <c r="AY35" s="13"/>
       <c r="AZ35" s="13"/>
       <c r="BA35" s="13"/>
       <c r="BB35" s="13"/>
-      <c r="BC35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD35" s="13"/>
+      <c r="BC35" s="13"/>
+      <c r="BD35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BE35" s="13"/>
       <c r="BF35" s="13"/>
       <c r="BG35" s="13"/>
@@ -6354,48 +6437,48 @@
       <c r="BN35" s="13"/>
       <c r="BO35" s="13"/>
       <c r="BP35" s="13"/>
-      <c r="BQ35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BR35" s="13"/>
+      <c r="BQ35" s="13"/>
+      <c r="BR35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BS35" s="13"/>
       <c r="BT35" s="13"/>
       <c r="BU35" s="13"/>
       <c r="BV35" s="13"/>
-      <c r="BW35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BX35" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BW35" s="13"/>
+      <c r="BX35" s="13"/>
       <c r="BY35" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="BZ35" s="13"/>
-      <c r="CA35" s="13"/>
+      <c r="BZ35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CB35" s="13"/>
       <c r="CC35" s="13"/>
       <c r="CD35" s="13"/>
       <c r="CE35" s="13"/>
-      <c r="CF35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="CG35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="CH35" s="13"/>
-      <c r="CI35" s="13"/>
+      <c r="CF35" s="13"/>
+      <c r="CG35" s="13"/>
+      <c r="CH35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CI35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CJ35" s="13"/>
       <c r="CK35" s="13"/>
       <c r="CL35" s="13"/>
       <c r="CM35" s="13"/>
       <c r="CN35" s="13"/>
       <c r="CO35" s="13"/>
-      <c r="CP35" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CP35" s="13"/>
       <c r="CQ35" s="13"/>
-      <c r="CR35" s="13"/>
+      <c r="CR35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CS35" s="13"/>
       <c r="CT35" s="13"/>
       <c r="CU35" s="13"/>
@@ -6403,15 +6486,15 @@
       <c r="CW35" s="13"/>
       <c r="CX35" s="13"/>
       <c r="CY35" s="13"/>
-      <c r="CZ35" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CZ35" s="13"/>
       <c r="DA35" s="13"/>
       <c r="DB35" s="13" t="s">
         <v>27</v>
       </c>
       <c r="DC35" s="13"/>
-      <c r="DD35" s="13"/>
+      <c r="DD35" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DE35" s="13"/>
       <c r="DF35" s="13"/>
       <c r="DG35" s="13"/>
@@ -6422,13 +6505,15 @@
       <c r="DL35" s="13"/>
       <c r="DM35" s="13"/>
       <c r="DN35" s="13"/>
-      <c r="DO35" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO35" s="13"/>
       <c r="DP35" s="13"/>
-      <c r="DQ35" s="13"/>
+      <c r="DQ35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR35" s="13"/>
+      <c r="DS35" s="13"/>
     </row>
-    <row r="36" spans="1:121" ht="72" customHeight="1">
+    <row r="36" spans="1:123" ht="72" customHeight="1">
       <c r="A36" s="16" t="s">
         <v>178</v>
       </c>
@@ -6481,10 +6566,10 @@
       <c r="AS36" s="13"/>
       <c r="AT36" s="13"/>
       <c r="AU36" s="13"/>
-      <c r="AV36" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW36" s="13"/>
+      <c r="AV36" s="13"/>
+      <c r="AW36" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AX36" s="13"/>
       <c r="AY36" s="13"/>
       <c r="AZ36" s="13"/>
@@ -6499,13 +6584,13 @@
       <c r="BI36" s="13"/>
       <c r="BJ36" s="13"/>
       <c r="BK36" s="13"/>
-      <c r="BL36" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BL36" s="13"/>
       <c r="BM36" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="BN36" s="13"/>
+      <c r="BN36" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BO36" s="13"/>
       <c r="BP36" s="13"/>
       <c r="BQ36" s="13"/>
@@ -6515,17 +6600,17 @@
       <c r="BU36" s="13"/>
       <c r="BV36" s="13"/>
       <c r="BW36" s="13"/>
-      <c r="BX36" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BX36" s="13"/>
       <c r="BY36" s="13"/>
-      <c r="BZ36" s="13"/>
+      <c r="BZ36" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CA36" s="13"/>
-      <c r="CB36" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CB36" s="13"/>
       <c r="CC36" s="13"/>
-      <c r="CD36" s="13"/>
+      <c r="CD36" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CE36" s="13"/>
       <c r="CF36" s="13"/>
       <c r="CG36" s="13"/>
@@ -6543,11 +6628,11 @@
       <c r="CS36" s="13"/>
       <c r="CT36" s="13"/>
       <c r="CU36" s="13"/>
-      <c r="CV36" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CV36" s="13"/>
       <c r="CW36" s="13"/>
-      <c r="CX36" s="13"/>
+      <c r="CX36" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CY36" s="13"/>
       <c r="CZ36" s="13"/>
       <c r="DA36" s="13"/>
@@ -6564,13 +6649,15 @@
       <c r="DL36" s="13"/>
       <c r="DM36" s="13"/>
       <c r="DN36" s="13"/>
-      <c r="DO36" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO36" s="13"/>
       <c r="DP36" s="13"/>
-      <c r="DQ36" s="13"/>
+      <c r="DQ36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR36" s="13"/>
+      <c r="DS36" s="13"/>
     </row>
-    <row r="37" spans="1:121" ht="72" customHeight="1">
+    <row r="37" spans="1:123" ht="72" customHeight="1">
       <c r="A37" s="16" t="s">
         <v>179</v>
       </c>
@@ -6638,10 +6725,10 @@
       <c r="AZ37" s="13"/>
       <c r="BA37" s="13"/>
       <c r="BB37" s="13"/>
-      <c r="BC37" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD37" s="13"/>
+      <c r="BC37" s="13"/>
+      <c r="BD37" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BE37" s="13"/>
       <c r="BF37" s="13"/>
       <c r="BG37" s="13"/>
@@ -6662,11 +6749,11 @@
       <c r="BV37" s="13"/>
       <c r="BW37" s="13"/>
       <c r="BX37" s="13"/>
-      <c r="BY37" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="BY37" s="13"/>
       <c r="BZ37" s="13"/>
-      <c r="CA37" s="13"/>
+      <c r="CA37" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CB37" s="13"/>
       <c r="CC37" s="13"/>
       <c r="CD37" s="13"/>
@@ -6697,26 +6784,28 @@
       <c r="DC37" s="13"/>
       <c r="DD37" s="13"/>
       <c r="DE37" s="13"/>
-      <c r="DF37" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DF37" s="13"/>
       <c r="DG37" s="13"/>
       <c r="DH37" s="13" t="s">
         <v>27</v>
       </c>
       <c r="DI37" s="13"/>
-      <c r="DJ37" s="13"/>
+      <c r="DJ37" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DK37" s="13"/>
       <c r="DL37" s="13"/>
       <c r="DM37" s="13"/>
       <c r="DN37" s="13"/>
-      <c r="DO37" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO37" s="13"/>
       <c r="DP37" s="13"/>
-      <c r="DQ37" s="13"/>
+      <c r="DQ37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR37" s="13"/>
+      <c r="DS37" s="13"/>
     </row>
-    <row r="38" spans="1:121" ht="72" customHeight="1">
+    <row r="38" spans="1:123" ht="72" customHeight="1">
       <c r="A38" s="22" t="s">
         <v>184</v>
       </c>
@@ -6767,10 +6856,10 @@
       <c r="AS38" s="13"/>
       <c r="AT38" s="13"/>
       <c r="AU38" s="13"/>
-      <c r="AV38" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW38" s="13"/>
+      <c r="AV38" s="13"/>
+      <c r="AW38" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AX38" s="13"/>
       <c r="AY38" s="13"/>
       <c r="AZ38" s="13"/>
@@ -6780,10 +6869,10 @@
       <c r="BD38" s="13"/>
       <c r="BE38" s="13"/>
       <c r="BF38" s="13"/>
-      <c r="BG38" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BH38" s="13"/>
+      <c r="BG38" s="13"/>
+      <c r="BH38" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BI38" s="13"/>
       <c r="BJ38" s="13"/>
       <c r="BK38" s="13"/>
@@ -6815,21 +6904,21 @@
       <c r="CK38" s="13"/>
       <c r="CL38" s="13"/>
       <c r="CM38" s="13"/>
-      <c r="CN38" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CN38" s="13"/>
       <c r="CO38" s="13"/>
-      <c r="CP38" s="13"/>
+      <c r="CP38" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CQ38" s="13"/>
       <c r="CR38" s="13"/>
       <c r="CS38" s="13"/>
       <c r="CT38" s="13"/>
       <c r="CU38" s="13"/>
-      <c r="CV38" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CV38" s="13"/>
       <c r="CW38" s="13"/>
-      <c r="CX38" s="13"/>
+      <c r="CX38" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CY38" s="13"/>
       <c r="CZ38" s="13"/>
       <c r="DA38" s="13"/>
@@ -6846,15 +6935,21 @@
       <c r="DL38" s="13"/>
       <c r="DM38" s="13"/>
       <c r="DN38" s="13"/>
-      <c r="DO38" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="DO38" s="13"/>
       <c r="DP38" s="13"/>
-      <c r="DQ38" s="13"/>
+      <c r="DQ38" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR38" s="13"/>
+      <c r="DS38" s="13"/>
     </row>
-    <row r="39" spans="1:121" ht="72" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="24"/>
+    <row r="39" spans="1:123" ht="72" customHeight="1">
+      <c r="A39" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>187</v>
+      </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="13"/>
@@ -6889,7 +6984,9 @@
       <c r="AI39" s="13"/>
       <c r="AJ39" s="13"/>
       <c r="AK39" s="13"/>
-      <c r="AL39" s="13"/>
+      <c r="AL39" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AM39" s="13"/>
       <c r="AN39" s="13"/>
       <c r="AO39" s="13"/>
@@ -6900,7 +6997,9 @@
       <c r="AT39" s="13"/>
       <c r="AU39" s="13"/>
       <c r="AV39" s="13"/>
-      <c r="AW39" s="13"/>
+      <c r="AW39" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AX39" s="13"/>
       <c r="AY39" s="13"/>
       <c r="AZ39" s="13"/>
@@ -6938,7 +7037,9 @@
       <c r="CF39" s="13"/>
       <c r="CG39" s="13"/>
       <c r="CH39" s="13"/>
-      <c r="CI39" s="13"/>
+      <c r="CI39" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CJ39" s="13"/>
       <c r="CK39" s="13"/>
       <c r="CL39" s="13"/>
@@ -6953,7 +7054,9 @@
       <c r="CU39" s="13"/>
       <c r="CV39" s="13"/>
       <c r="CW39" s="13"/>
-      <c r="CX39" s="13"/>
+      <c r="CX39" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CY39" s="13"/>
       <c r="CZ39" s="13"/>
       <c r="DA39" s="13"/>
@@ -6972,9 +7075,13 @@
       <c r="DN39" s="13"/>
       <c r="DO39" s="13"/>
       <c r="DP39" s="13"/>
-      <c r="DQ39" s="13"/>
+      <c r="DQ39" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR39" s="13"/>
+      <c r="DS39" s="13"/>
     </row>
-    <row r="40" spans="1:121" ht="72" customHeight="1">
+    <row r="40" spans="1:123" ht="72" customHeight="1">
       <c r="A40" s="16"/>
       <c r="B40" s="24"/>
       <c r="D40" s="18"/>
@@ -7095,8 +7202,10 @@
       <c r="DO40" s="13"/>
       <c r="DP40" s="13"/>
       <c r="DQ40" s="13"/>
+      <c r="DR40" s="13"/>
+      <c r="DS40" s="13"/>
     </row>
-    <row r="41" spans="1:121" ht="72" customHeight="1">
+    <row r="41" spans="1:123" ht="72" customHeight="1">
       <c r="A41" s="16"/>
       <c r="B41" s="24"/>
       <c r="D41" s="18"/>
@@ -7217,8 +7326,10 @@
       <c r="DO41" s="13"/>
       <c r="DP41" s="13"/>
       <c r="DQ41" s="13"/>
+      <c r="DR41" s="13"/>
+      <c r="DS41" s="13"/>
     </row>
-    <row r="42" spans="1:121" ht="72" customHeight="1">
+    <row r="42" spans="1:123" ht="72" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="24"/>
       <c r="D42" s="18"/>
@@ -7339,8 +7450,10 @@
       <c r="DO42" s="13"/>
       <c r="DP42" s="13"/>
       <c r="DQ42" s="13"/>
+      <c r="DR42" s="13"/>
+      <c r="DS42" s="13"/>
     </row>
-    <row r="43" spans="1:121" ht="72" customHeight="1">
+    <row r="43" spans="1:123" ht="72" customHeight="1">
       <c r="A43" s="16"/>
       <c r="B43" s="24"/>
       <c r="D43" s="18"/>
@@ -7461,8 +7574,10 @@
       <c r="DO43" s="13"/>
       <c r="DP43" s="13"/>
       <c r="DQ43" s="13"/>
+      <c r="DR43" s="13"/>
+      <c r="DS43" s="13"/>
     </row>
-    <row r="44" spans="1:121" ht="72" customHeight="1">
+    <row r="44" spans="1:123" ht="72" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="24"/>
       <c r="D44" s="18"/>
@@ -7583,8 +7698,10 @@
       <c r="DO44" s="13"/>
       <c r="DP44" s="13"/>
       <c r="DQ44" s="13"/>
+      <c r="DR44" s="13"/>
+      <c r="DS44" s="13"/>
     </row>
-    <row r="45" spans="1:121" ht="72" customHeight="1">
+    <row r="45" spans="1:123" ht="72" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="24"/>
       <c r="D45" s="18"/>
@@ -7705,8 +7822,10 @@
       <c r="DO45" s="13"/>
       <c r="DP45" s="13"/>
       <c r="DQ45" s="13"/>
+      <c r="DR45" s="13"/>
+      <c r="DS45" s="13"/>
     </row>
-    <row r="46" spans="1:121" ht="72" customHeight="1">
+    <row r="46" spans="1:123" ht="72" customHeight="1">
       <c r="A46" s="16"/>
       <c r="B46" s="24"/>
       <c r="D46" s="18"/>
@@ -7827,8 +7946,10 @@
       <c r="DO46" s="13"/>
       <c r="DP46" s="13"/>
       <c r="DQ46" s="13"/>
+      <c r="DR46" s="13"/>
+      <c r="DS46" s="13"/>
     </row>
-    <row r="47" spans="1:121" ht="72" customHeight="1">
+    <row r="47" spans="1:123" ht="72" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="24"/>
       <c r="D47" s="18"/>
@@ -7949,8 +8070,10 @@
       <c r="DO47" s="13"/>
       <c r="DP47" s="13"/>
       <c r="DQ47" s="13"/>
+      <c r="DR47" s="13"/>
+      <c r="DS47" s="13"/>
     </row>
-    <row r="48" spans="1:121" ht="72" customHeight="1">
+    <row r="48" spans="1:123" ht="72" customHeight="1">
       <c r="A48" s="16"/>
       <c r="B48" s="24"/>
       <c r="D48" s="18"/>
@@ -8071,8 +8194,10 @@
       <c r="DO48" s="13"/>
       <c r="DP48" s="13"/>
       <c r="DQ48" s="13"/>
+      <c r="DR48" s="13"/>
+      <c r="DS48" s="13"/>
     </row>
-    <row r="49" spans="1:121" ht="72" customHeight="1">
+    <row r="49" spans="1:123" ht="72" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="24"/>
       <c r="D49" s="18"/>
@@ -8193,8 +8318,10 @@
       <c r="DO49" s="13"/>
       <c r="DP49" s="13"/>
       <c r="DQ49" s="13"/>
+      <c r="DR49" s="13"/>
+      <c r="DS49" s="13"/>
     </row>
-    <row r="50" spans="1:121" ht="72" customHeight="1">
+    <row r="50" spans="1:123" ht="72" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="24"/>
       <c r="D50" s="18"/>
@@ -8315,8 +8442,10 @@
       <c r="DO50" s="13"/>
       <c r="DP50" s="13"/>
       <c r="DQ50" s="13"/>
+      <c r="DR50" s="13"/>
+      <c r="DS50" s="13"/>
     </row>
-    <row r="51" spans="1:121" ht="72" customHeight="1">
+    <row r="51" spans="1:123" ht="72" customHeight="1">
       <c r="A51" s="16"/>
       <c r="B51" s="24"/>
       <c r="D51" s="18"/>
@@ -8437,8 +8566,10 @@
       <c r="DO51" s="13"/>
       <c r="DP51" s="13"/>
       <c r="DQ51" s="13"/>
+      <c r="DR51" s="13"/>
+      <c r="DS51" s="13"/>
     </row>
-    <row r="52" spans="1:121" ht="72" customHeight="1">
+    <row r="52" spans="1:123" ht="72" customHeight="1">
       <c r="A52" s="16"/>
       <c r="B52" s="24"/>
       <c r="D52" s="18"/>
@@ -8559,8 +8690,10 @@
       <c r="DO52" s="13"/>
       <c r="DP52" s="13"/>
       <c r="DQ52" s="13"/>
+      <c r="DR52" s="13"/>
+      <c r="DS52" s="13"/>
     </row>
-    <row r="53" spans="1:121" ht="72" customHeight="1">
+    <row r="53" spans="1:123" ht="72" customHeight="1">
       <c r="A53" s="16"/>
       <c r="B53" s="24"/>
       <c r="D53" s="18"/>
@@ -8681,8 +8814,10 @@
       <c r="DO53" s="13"/>
       <c r="DP53" s="13"/>
       <c r="DQ53" s="13"/>
+      <c r="DR53" s="13"/>
+      <c r="DS53" s="13"/>
     </row>
-    <row r="54" spans="1:121" ht="72" customHeight="1">
+    <row r="54" spans="1:123" ht="72" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="24"/>
       <c r="D54" s="18"/>
@@ -8803,8 +8938,10 @@
       <c r="DO54" s="13"/>
       <c r="DP54" s="13"/>
       <c r="DQ54" s="13"/>
+      <c r="DR54" s="13"/>
+      <c r="DS54" s="13"/>
     </row>
-    <row r="55" spans="1:121" ht="72" customHeight="1">
+    <row r="55" spans="1:123" ht="72" customHeight="1">
       <c r="A55" s="16"/>
       <c r="B55" s="24"/>
       <c r="D55" s="18"/>
@@ -8925,8 +9062,10 @@
       <c r="DO55" s="13"/>
       <c r="DP55" s="13"/>
       <c r="DQ55" s="13"/>
+      <c r="DR55" s="13"/>
+      <c r="DS55" s="13"/>
     </row>
-    <row r="56" spans="1:121" ht="72" customHeight="1">
+    <row r="56" spans="1:123" ht="72" customHeight="1">
       <c r="A56" s="16"/>
       <c r="B56" s="24"/>
       <c r="D56" s="18"/>
@@ -9047,8 +9186,10 @@
       <c r="DO56" s="13"/>
       <c r="DP56" s="13"/>
       <c r="DQ56" s="13"/>
+      <c r="DR56" s="13"/>
+      <c r="DS56" s="13"/>
     </row>
-    <row r="57" spans="1:121" ht="72" customHeight="1">
+    <row r="57" spans="1:123" ht="72" customHeight="1">
       <c r="A57" s="16"/>
       <c r="B57" s="24"/>
       <c r="D57" s="18"/>
@@ -9169,8 +9310,10 @@
       <c r="DO57" s="13"/>
       <c r="DP57" s="13"/>
       <c r="DQ57" s="13"/>
+      <c r="DR57" s="13"/>
+      <c r="DS57" s="13"/>
     </row>
-    <row r="58" spans="1:121" ht="72" customHeight="1">
+    <row r="58" spans="1:123" ht="72" customHeight="1">
       <c r="A58" s="16"/>
       <c r="B58" s="24"/>
       <c r="D58" s="18"/>
@@ -9291,8 +9434,10 @@
       <c r="DO58" s="13"/>
       <c r="DP58" s="13"/>
       <c r="DQ58" s="13"/>
+      <c r="DR58" s="13"/>
+      <c r="DS58" s="13"/>
     </row>
-    <row r="59" spans="1:121" ht="72" customHeight="1">
+    <row r="59" spans="1:123" ht="72" customHeight="1">
       <c r="A59" s="16"/>
       <c r="B59" s="24"/>
       <c r="D59" s="18"/>
@@ -9413,8 +9558,10 @@
       <c r="DO59" s="13"/>
       <c r="DP59" s="13"/>
       <c r="DQ59" s="13"/>
+      <c r="DR59" s="13"/>
+      <c r="DS59" s="13"/>
     </row>
-    <row r="60" spans="1:121" ht="72" customHeight="1">
+    <row r="60" spans="1:123" ht="72" customHeight="1">
       <c r="A60" s="16"/>
       <c r="B60" s="24"/>
       <c r="D60" s="18"/>
@@ -9535,8 +9682,10 @@
       <c r="DO60" s="13"/>
       <c r="DP60" s="13"/>
       <c r="DQ60" s="13"/>
+      <c r="DR60" s="13"/>
+      <c r="DS60" s="13"/>
     </row>
-    <row r="61" spans="1:121" ht="72" customHeight="1">
+    <row r="61" spans="1:123" ht="72" customHeight="1">
       <c r="A61" s="16"/>
       <c r="B61" s="24"/>
       <c r="D61" s="18"/>
@@ -9657,8 +9806,10 @@
       <c r="DO61" s="13"/>
       <c r="DP61" s="13"/>
       <c r="DQ61" s="13"/>
+      <c r="DR61" s="13"/>
+      <c r="DS61" s="13"/>
     </row>
-    <row r="62" spans="1:121" ht="72" customHeight="1">
+    <row r="62" spans="1:123" ht="72" customHeight="1">
       <c r="A62" s="16"/>
       <c r="B62" s="24"/>
       <c r="D62" s="18"/>
@@ -9779,8 +9930,10 @@
       <c r="DO62" s="13"/>
       <c r="DP62" s="13"/>
       <c r="DQ62" s="13"/>
+      <c r="DR62" s="13"/>
+      <c r="DS62" s="13"/>
     </row>
-    <row r="63" spans="1:121" ht="72" customHeight="1">
+    <row r="63" spans="1:123" ht="72" customHeight="1">
       <c r="A63" s="16"/>
       <c r="B63" s="24"/>
       <c r="D63" s="18"/>
@@ -9901,8 +10054,10 @@
       <c r="DO63" s="13"/>
       <c r="DP63" s="13"/>
       <c r="DQ63" s="13"/>
+      <c r="DR63" s="13"/>
+      <c r="DS63" s="13"/>
     </row>
-    <row r="64" spans="1:121" ht="72" customHeight="1">
+    <row r="64" spans="1:123" ht="72" customHeight="1">
       <c r="A64" s="16"/>
       <c r="B64" s="24"/>
       <c r="D64" s="18"/>
@@ -10023,8 +10178,10 @@
       <c r="DO64" s="13"/>
       <c r="DP64" s="13"/>
       <c r="DQ64" s="13"/>
+      <c r="DR64" s="13"/>
+      <c r="DS64" s="13"/>
     </row>
-    <row r="65" spans="1:121" ht="72" customHeight="1">
+    <row r="65" spans="1:123" ht="72" customHeight="1">
       <c r="A65" s="16"/>
       <c r="B65" s="24"/>
       <c r="D65" s="18"/>
@@ -10145,8 +10302,10 @@
       <c r="DO65" s="13"/>
       <c r="DP65" s="13"/>
       <c r="DQ65" s="13"/>
+      <c r="DR65" s="13"/>
+      <c r="DS65" s="13"/>
     </row>
-    <row r="66" spans="1:121" ht="72" customHeight="1">
+    <row r="66" spans="1:123" ht="72" customHeight="1">
       <c r="A66" s="16"/>
       <c r="B66" s="24"/>
       <c r="D66" s="18"/>
@@ -10267,8 +10426,10 @@
       <c r="DO66" s="13"/>
       <c r="DP66" s="13"/>
       <c r="DQ66" s="13"/>
+      <c r="DR66" s="13"/>
+      <c r="DS66" s="13"/>
     </row>
-    <row r="67" spans="1:121" ht="72" customHeight="1">
+    <row r="67" spans="1:123" ht="72" customHeight="1">
       <c r="A67" s="16"/>
       <c r="B67" s="24"/>
       <c r="D67" s="18"/>
@@ -10389,8 +10550,10 @@
       <c r="DO67" s="13"/>
       <c r="DP67" s="13"/>
       <c r="DQ67" s="13"/>
+      <c r="DR67" s="13"/>
+      <c r="DS67" s="13"/>
     </row>
-    <row r="68" spans="1:121" ht="72" customHeight="1">
+    <row r="68" spans="1:123" ht="72" customHeight="1">
       <c r="A68" s="16"/>
       <c r="B68" s="24"/>
       <c r="D68" s="18"/>
@@ -10511,8 +10674,10 @@
       <c r="DO68" s="13"/>
       <c r="DP68" s="13"/>
       <c r="DQ68" s="13"/>
+      <c r="DR68" s="13"/>
+      <c r="DS68" s="13"/>
     </row>
-    <row r="69" spans="1:121" ht="72" customHeight="1">
+    <row r="69" spans="1:123" ht="72" customHeight="1">
       <c r="A69" s="16"/>
       <c r="B69" s="24"/>
       <c r="D69" s="18"/>
@@ -10633,8 +10798,10 @@
       <c r="DO69" s="13"/>
       <c r="DP69" s="13"/>
       <c r="DQ69" s="13"/>
+      <c r="DR69" s="13"/>
+      <c r="DS69" s="13"/>
     </row>
-    <row r="70" spans="1:121" ht="72" customHeight="1">
+    <row r="70" spans="1:123" ht="72" customHeight="1">
       <c r="A70" s="16"/>
       <c r="B70" s="24"/>
       <c r="D70" s="18"/>
@@ -10755,8 +10922,10 @@
       <c r="DO70" s="13"/>
       <c r="DP70" s="13"/>
       <c r="DQ70" s="13"/>
+      <c r="DR70" s="13"/>
+      <c r="DS70" s="13"/>
     </row>
-    <row r="71" spans="1:121" ht="72" customHeight="1">
+    <row r="71" spans="1:123" ht="72" customHeight="1">
       <c r="A71" s="16"/>
       <c r="B71" s="24"/>
       <c r="D71" s="18"/>
@@ -10877,8 +11046,10 @@
       <c r="DO71" s="13"/>
       <c r="DP71" s="13"/>
       <c r="DQ71" s="13"/>
+      <c r="DR71" s="13"/>
+      <c r="DS71" s="13"/>
     </row>
-    <row r="72" spans="1:121" ht="72" customHeight="1">
+    <row r="72" spans="1:123" ht="72" customHeight="1">
       <c r="A72" s="16"/>
       <c r="B72" s="24"/>
       <c r="D72" s="18"/>
@@ -10999,8 +11170,10 @@
       <c r="DO72" s="13"/>
       <c r="DP72" s="13"/>
       <c r="DQ72" s="13"/>
+      <c r="DR72" s="13"/>
+      <c r="DS72" s="13"/>
     </row>
-    <row r="73" spans="1:121" ht="72" customHeight="1">
+    <row r="73" spans="1:123" ht="72" customHeight="1">
       <c r="A73" s="16"/>
       <c r="B73" s="24"/>
       <c r="D73" s="18"/>
@@ -11121,8 +11294,10 @@
       <c r="DO73" s="13"/>
       <c r="DP73" s="13"/>
       <c r="DQ73" s="13"/>
+      <c r="DR73" s="13"/>
+      <c r="DS73" s="13"/>
     </row>
-    <row r="74" spans="1:121" ht="72" customHeight="1">
+    <row r="74" spans="1:123" ht="72" customHeight="1">
       <c r="A74" s="16"/>
       <c r="B74" s="24"/>
       <c r="D74" s="18"/>
@@ -11243,8 +11418,10 @@
       <c r="DO74" s="13"/>
       <c r="DP74" s="13"/>
       <c r="DQ74" s="13"/>
+      <c r="DR74" s="13"/>
+      <c r="DS74" s="13"/>
     </row>
-    <row r="75" spans="1:121" ht="72" customHeight="1">
+    <row r="75" spans="1:123" ht="72" customHeight="1">
       <c r="A75" s="16"/>
       <c r="B75" s="24"/>
       <c r="D75" s="18"/>
@@ -11365,8 +11542,10 @@
       <c r="DO75" s="13"/>
       <c r="DP75" s="13"/>
       <c r="DQ75" s="13"/>
+      <c r="DR75" s="13"/>
+      <c r="DS75" s="13"/>
     </row>
-    <row r="76" spans="1:121" ht="72" customHeight="1">
+    <row r="76" spans="1:123" ht="72" customHeight="1">
       <c r="A76" s="16"/>
       <c r="B76" s="24"/>
       <c r="D76" s="18"/>
@@ -11487,8 +11666,10 @@
       <c r="DO76" s="13"/>
       <c r="DP76" s="13"/>
       <c r="DQ76" s="13"/>
+      <c r="DR76" s="13"/>
+      <c r="DS76" s="13"/>
     </row>
-    <row r="77" spans="1:121" ht="72" customHeight="1">
+    <row r="77" spans="1:123" ht="72" customHeight="1">
       <c r="A77" s="16"/>
       <c r="B77" s="24"/>
       <c r="D77" s="18"/>
@@ -11609,8 +11790,10 @@
       <c r="DO77" s="13"/>
       <c r="DP77" s="13"/>
       <c r="DQ77" s="13"/>
+      <c r="DR77" s="13"/>
+      <c r="DS77" s="13"/>
     </row>
-    <row r="78" spans="1:121" ht="72" customHeight="1">
+    <row r="78" spans="1:123" ht="72" customHeight="1">
       <c r="A78" s="16"/>
       <c r="B78" s="24"/>
       <c r="D78" s="18"/>
@@ -11731,8 +11914,10 @@
       <c r="DO78" s="13"/>
       <c r="DP78" s="13"/>
       <c r="DQ78" s="13"/>
+      <c r="DR78" s="13"/>
+      <c r="DS78" s="13"/>
     </row>
-    <row r="79" spans="1:121" ht="72" customHeight="1">
+    <row r="79" spans="1:123" ht="72" customHeight="1">
       <c r="A79" s="16"/>
       <c r="B79" s="24"/>
       <c r="D79" s="18"/>
@@ -11853,8 +12038,10 @@
       <c r="DO79" s="13"/>
       <c r="DP79" s="13"/>
       <c r="DQ79" s="13"/>
+      <c r="DR79" s="13"/>
+      <c r="DS79" s="13"/>
     </row>
-    <row r="80" spans="1:121" ht="72" customHeight="1">
+    <row r="80" spans="1:123" ht="72" customHeight="1">
       <c r="A80" s="16"/>
       <c r="B80" s="24"/>
       <c r="D80" s="18"/>
@@ -11975,8 +12162,10 @@
       <c r="DO80" s="13"/>
       <c r="DP80" s="13"/>
       <c r="DQ80" s="13"/>
+      <c r="DR80" s="13"/>
+      <c r="DS80" s="13"/>
     </row>
-    <row r="81" spans="1:121" ht="72" customHeight="1">
+    <row r="81" spans="1:123" ht="72" customHeight="1">
       <c r="A81" s="16"/>
       <c r="B81" s="24"/>
       <c r="D81" s="18"/>
@@ -12097,8 +12286,10 @@
       <c r="DO81" s="13"/>
       <c r="DP81" s="13"/>
       <c r="DQ81" s="13"/>
+      <c r="DR81" s="13"/>
+      <c r="DS81" s="13"/>
     </row>
-    <row r="82" spans="1:121" ht="72" customHeight="1">
+    <row r="82" spans="1:123" ht="72" customHeight="1">
       <c r="A82" s="16"/>
       <c r="B82" s="24"/>
       <c r="D82" s="18"/>
@@ -12219,8 +12410,10 @@
       <c r="DO82" s="13"/>
       <c r="DP82" s="13"/>
       <c r="DQ82" s="13"/>
+      <c r="DR82" s="13"/>
+      <c r="DS82" s="13"/>
     </row>
-    <row r="83" spans="1:121" ht="72" customHeight="1">
+    <row r="83" spans="1:123" ht="72" customHeight="1">
       <c r="A83" s="16"/>
       <c r="B83" s="24"/>
       <c r="D83" s="18"/>
@@ -12341,8 +12534,10 @@
       <c r="DO83" s="13"/>
       <c r="DP83" s="13"/>
       <c r="DQ83" s="13"/>
+      <c r="DR83" s="13"/>
+      <c r="DS83" s="13"/>
     </row>
-    <row r="84" spans="1:121" ht="72" customHeight="1">
+    <row r="84" spans="1:123" ht="72" customHeight="1">
       <c r="A84" s="16"/>
       <c r="B84" s="24"/>
       <c r="D84" s="18"/>
@@ -12463,8 +12658,10 @@
       <c r="DO84" s="13"/>
       <c r="DP84" s="13"/>
       <c r="DQ84" s="13"/>
+      <c r="DR84" s="13"/>
+      <c r="DS84" s="13"/>
     </row>
-    <row r="85" spans="1:121" ht="72" customHeight="1">
+    <row r="85" spans="1:123" ht="72" customHeight="1">
       <c r="A85" s="16"/>
       <c r="B85" s="24"/>
       <c r="D85" s="18"/>
@@ -12585,8 +12782,10 @@
       <c r="DO85" s="13"/>
       <c r="DP85" s="13"/>
       <c r="DQ85" s="13"/>
+      <c r="DR85" s="13"/>
+      <c r="DS85" s="13"/>
     </row>
-    <row r="86" spans="1:121" ht="72" customHeight="1">
+    <row r="86" spans="1:123" ht="72" customHeight="1">
       <c r="A86" s="16"/>
       <c r="B86" s="24"/>
       <c r="D86" s="18"/>
@@ -12707,8 +12906,10 @@
       <c r="DO86" s="13"/>
       <c r="DP86" s="13"/>
       <c r="DQ86" s="13"/>
+      <c r="DR86" s="13"/>
+      <c r="DS86" s="13"/>
     </row>
-    <row r="87" spans="1:121" ht="72" customHeight="1">
+    <row r="87" spans="1:123" ht="72" customHeight="1">
       <c r="A87" s="16"/>
       <c r="B87" s="24"/>
       <c r="D87" s="18"/>
@@ -12829,8 +13030,10 @@
       <c r="DO87" s="13"/>
       <c r="DP87" s="13"/>
       <c r="DQ87" s="13"/>
+      <c r="DR87" s="13"/>
+      <c r="DS87" s="13"/>
     </row>
-    <row r="88" spans="1:121" ht="72" customHeight="1">
+    <row r="88" spans="1:123" ht="72" customHeight="1">
       <c r="A88" s="16"/>
       <c r="B88" s="24"/>
       <c r="D88" s="18"/>
@@ -12951,8 +13154,10 @@
       <c r="DO88" s="13"/>
       <c r="DP88" s="13"/>
       <c r="DQ88" s="13"/>
+      <c r="DR88" s="13"/>
+      <c r="DS88" s="13"/>
     </row>
-    <row r="89" spans="1:121" ht="72" customHeight="1">
+    <row r="89" spans="1:123" ht="72" customHeight="1">
       <c r="A89" s="16"/>
       <c r="B89" s="24"/>
       <c r="D89" s="18"/>
@@ -13073,8 +13278,10 @@
       <c r="DO89" s="13"/>
       <c r="DP89" s="13"/>
       <c r="DQ89" s="13"/>
+      <c r="DR89" s="13"/>
+      <c r="DS89" s="13"/>
     </row>
-    <row r="90" spans="1:121" ht="72" customHeight="1">
+    <row r="90" spans="1:123" ht="72" customHeight="1">
       <c r="A90" s="16"/>
       <c r="B90" s="24"/>
       <c r="D90" s="18"/>
@@ -13195,8 +13402,10 @@
       <c r="DO90" s="13"/>
       <c r="DP90" s="13"/>
       <c r="DQ90" s="13"/>
+      <c r="DR90" s="13"/>
+      <c r="DS90" s="13"/>
     </row>
-    <row r="91" spans="1:121" ht="72" customHeight="1">
+    <row r="91" spans="1:123" ht="72" customHeight="1">
       <c r="A91" s="16"/>
       <c r="B91" s="24"/>
       <c r="D91" s="18"/>
@@ -13317,8 +13526,10 @@
       <c r="DO91" s="13"/>
       <c r="DP91" s="13"/>
       <c r="DQ91" s="13"/>
+      <c r="DR91" s="13"/>
+      <c r="DS91" s="13"/>
     </row>
-    <row r="92" spans="1:121" ht="72" customHeight="1">
+    <row r="92" spans="1:123" ht="72" customHeight="1">
       <c r="A92" s="16"/>
       <c r="B92" s="24"/>
       <c r="D92" s="18"/>
@@ -13439,8 +13650,10 @@
       <c r="DO92" s="13"/>
       <c r="DP92" s="13"/>
       <c r="DQ92" s="13"/>
+      <c r="DR92" s="13"/>
+      <c r="DS92" s="13"/>
     </row>
-    <row r="93" spans="1:121" ht="72" customHeight="1">
+    <row r="93" spans="1:123" ht="72" customHeight="1">
       <c r="A93" s="16"/>
       <c r="B93" s="24"/>
       <c r="D93" s="18"/>
@@ -13561,8 +13774,10 @@
       <c r="DO93" s="13"/>
       <c r="DP93" s="13"/>
       <c r="DQ93" s="13"/>
+      <c r="DR93" s="13"/>
+      <c r="DS93" s="13"/>
     </row>
-    <row r="94" spans="1:121" ht="72" customHeight="1">
+    <row r="94" spans="1:123" ht="72" customHeight="1">
       <c r="A94" s="16"/>
       <c r="B94" s="24"/>
       <c r="D94" s="18"/>
@@ -13683,8 +13898,10 @@
       <c r="DO94" s="13"/>
       <c r="DP94" s="13"/>
       <c r="DQ94" s="13"/>
+      <c r="DR94" s="13"/>
+      <c r="DS94" s="13"/>
     </row>
-    <row r="95" spans="1:121" ht="72" customHeight="1">
+    <row r="95" spans="1:123" ht="72" customHeight="1">
       <c r="A95" s="16"/>
       <c r="B95" s="24"/>
       <c r="D95" s="18"/>
@@ -13805,8 +14022,10 @@
       <c r="DO95" s="13"/>
       <c r="DP95" s="13"/>
       <c r="DQ95" s="13"/>
+      <c r="DR95" s="13"/>
+      <c r="DS95" s="13"/>
     </row>
-    <row r="96" spans="1:121" ht="72" customHeight="1">
+    <row r="96" spans="1:123" ht="72" customHeight="1">
       <c r="A96" s="16"/>
       <c r="B96" s="24"/>
       <c r="D96" s="18"/>
@@ -13927,8 +14146,10 @@
       <c r="DO96" s="13"/>
       <c r="DP96" s="13"/>
       <c r="DQ96" s="13"/>
+      <c r="DR96" s="13"/>
+      <c r="DS96" s="13"/>
     </row>
-    <row r="97" spans="1:121" ht="72" customHeight="1">
+    <row r="97" spans="1:123" ht="72" customHeight="1">
       <c r="A97" s="16"/>
       <c r="B97" s="24"/>
       <c r="D97" s="18"/>
@@ -14049,8 +14270,10 @@
       <c r="DO97" s="13"/>
       <c r="DP97" s="13"/>
       <c r="DQ97" s="13"/>
+      <c r="DR97" s="13"/>
+      <c r="DS97" s="13"/>
     </row>
-    <row r="98" spans="1:121" ht="72" customHeight="1">
+    <row r="98" spans="1:123" ht="72" customHeight="1">
       <c r="A98" s="16"/>
       <c r="B98" s="24"/>
       <c r="D98" s="18"/>
@@ -14171,8 +14394,10 @@
       <c r="DO98" s="13"/>
       <c r="DP98" s="13"/>
       <c r="DQ98" s="13"/>
+      <c r="DR98" s="13"/>
+      <c r="DS98" s="13"/>
     </row>
-    <row r="99" spans="1:121" ht="72" customHeight="1">
+    <row r="99" spans="1:123" ht="72" customHeight="1">
       <c r="A99" s="16"/>
       <c r="B99" s="24"/>
       <c r="D99" s="18"/>
@@ -14293,8 +14518,10 @@
       <c r="DO99" s="13"/>
       <c r="DP99" s="13"/>
       <c r="DQ99" s="13"/>
+      <c r="DR99" s="13"/>
+      <c r="DS99" s="13"/>
     </row>
-    <row r="100" spans="1:121" ht="72" customHeight="1">
+    <row r="100" spans="1:123" ht="72" customHeight="1">
       <c r="A100" s="16"/>
       <c r="B100" s="24"/>
       <c r="D100" s="18"/>
@@ -14415,8 +14642,10 @@
       <c r="DO100" s="13"/>
       <c r="DP100" s="13"/>
       <c r="DQ100" s="13"/>
+      <c r="DR100" s="13"/>
+      <c r="DS100" s="13"/>
     </row>
-    <row r="101" spans="1:121" ht="72" customHeight="1">
+    <row r="101" spans="1:123" ht="72" customHeight="1">
       <c r="A101" s="16"/>
       <c r="B101" s="24"/>
       <c r="D101" s="18"/>
@@ -14537,8 +14766,10 @@
       <c r="DO101" s="13"/>
       <c r="DP101" s="13"/>
       <c r="DQ101" s="13"/>
+      <c r="DR101" s="13"/>
+      <c r="DS101" s="13"/>
     </row>
-    <row r="102" spans="1:121" ht="72" customHeight="1">
+    <row r="102" spans="1:123" ht="72" customHeight="1">
       <c r="A102" s="16"/>
       <c r="B102" s="24"/>
       <c r="D102" s="18"/>
@@ -14659,8 +14890,10 @@
       <c r="DO102" s="13"/>
       <c r="DP102" s="13"/>
       <c r="DQ102" s="13"/>
+      <c r="DR102" s="13"/>
+      <c r="DS102" s="13"/>
     </row>
-    <row r="103" spans="1:121" ht="72" customHeight="1">
+    <row r="103" spans="1:123" ht="72" customHeight="1">
       <c r="A103" s="16"/>
       <c r="B103" s="24"/>
       <c r="D103" s="18"/>
@@ -14781,8 +15014,10 @@
       <c r="DO103" s="13"/>
       <c r="DP103" s="13"/>
       <c r="DQ103" s="13"/>
+      <c r="DR103" s="13"/>
+      <c r="DS103" s="13"/>
     </row>
-    <row r="104" spans="1:121" ht="72" customHeight="1">
+    <row r="104" spans="1:123" ht="72" customHeight="1">
       <c r="A104" s="16"/>
       <c r="B104" s="24"/>
       <c r="D104" s="18"/>
@@ -14903,8 +15138,10 @@
       <c r="DO104" s="13"/>
       <c r="DP104" s="13"/>
       <c r="DQ104" s="13"/>
+      <c r="DR104" s="13"/>
+      <c r="DS104" s="13"/>
     </row>
-    <row r="105" spans="1:121" ht="72" customHeight="1">
+    <row r="105" spans="1:123" ht="72" customHeight="1">
       <c r="A105" s="16"/>
       <c r="B105" s="24"/>
       <c r="D105" s="18"/>
@@ -15025,8 +15262,10 @@
       <c r="DO105" s="13"/>
       <c r="DP105" s="13"/>
       <c r="DQ105" s="13"/>
+      <c r="DR105" s="13"/>
+      <c r="DS105" s="13"/>
     </row>
-    <row r="106" spans="1:121" ht="72" customHeight="1">
+    <row r="106" spans="1:123" ht="72" customHeight="1">
       <c r="A106" s="16"/>
       <c r="B106" s="24"/>
       <c r="D106" s="18"/>
@@ -15147,8 +15386,10 @@
       <c r="DO106" s="13"/>
       <c r="DP106" s="13"/>
       <c r="DQ106" s="13"/>
+      <c r="DR106" s="13"/>
+      <c r="DS106" s="13"/>
     </row>
-    <row r="107" spans="1:121" ht="72" customHeight="1">
+    <row r="107" spans="1:123" ht="72" customHeight="1">
       <c r="A107" s="16"/>
       <c r="B107" s="24"/>
       <c r="D107" s="18"/>
@@ -15269,8 +15510,10 @@
       <c r="DO107" s="13"/>
       <c r="DP107" s="13"/>
       <c r="DQ107" s="13"/>
+      <c r="DR107" s="13"/>
+      <c r="DS107" s="13"/>
     </row>
-    <row r="108" spans="1:121" ht="72" customHeight="1">
+    <row r="108" spans="1:123" ht="72" customHeight="1">
       <c r="A108" s="16"/>
       <c r="B108" s="24"/>
       <c r="D108" s="18"/>
@@ -15391,8 +15634,10 @@
       <c r="DO108" s="13"/>
       <c r="DP108" s="13"/>
       <c r="DQ108" s="13"/>
+      <c r="DR108" s="13"/>
+      <c r="DS108" s="13"/>
     </row>
-    <row r="109" spans="1:121" ht="72" customHeight="1">
+    <row r="109" spans="1:123" ht="72" customHeight="1">
       <c r="A109" s="16"/>
       <c r="B109" s="24"/>
       <c r="D109" s="18"/>
@@ -15513,8 +15758,10 @@
       <c r="DO109" s="13"/>
       <c r="DP109" s="13"/>
       <c r="DQ109" s="13"/>
+      <c r="DR109" s="13"/>
+      <c r="DS109" s="13"/>
     </row>
-    <row r="110" spans="1:121" ht="72" customHeight="1">
+    <row r="110" spans="1:123" ht="72" customHeight="1">
       <c r="A110" s="16"/>
       <c r="B110" s="24"/>
       <c r="D110" s="18"/>
@@ -15635,8 +15882,10 @@
       <c r="DO110" s="13"/>
       <c r="DP110" s="13"/>
       <c r="DQ110" s="13"/>
+      <c r="DR110" s="13"/>
+      <c r="DS110" s="13"/>
     </row>
-    <row r="111" spans="1:121" ht="72" customHeight="1">
+    <row r="111" spans="1:123" ht="72" customHeight="1">
       <c r="A111" s="16"/>
       <c r="B111" s="24"/>
       <c r="D111" s="18"/>
@@ -15757,8 +16006,10 @@
       <c r="DO111" s="13"/>
       <c r="DP111" s="13"/>
       <c r="DQ111" s="13"/>
+      <c r="DR111" s="13"/>
+      <c r="DS111" s="13"/>
     </row>
-    <row r="112" spans="1:121" ht="72" customHeight="1">
+    <row r="112" spans="1:123" ht="72" customHeight="1">
       <c r="A112" s="16"/>
       <c r="B112" s="24"/>
       <c r="D112" s="18"/>
@@ -15879,8 +16130,10 @@
       <c r="DO112" s="13"/>
       <c r="DP112" s="13"/>
       <c r="DQ112" s="13"/>
+      <c r="DR112" s="13"/>
+      <c r="DS112" s="13"/>
     </row>
-    <row r="113" spans="1:121" ht="72" customHeight="1">
+    <row r="113" spans="1:123" ht="72" customHeight="1">
       <c r="A113" s="16"/>
       <c r="B113" s="24"/>
       <c r="D113" s="18"/>
@@ -16001,8 +16254,10 @@
       <c r="DO113" s="13"/>
       <c r="DP113" s="13"/>
       <c r="DQ113" s="13"/>
+      <c r="DR113" s="13"/>
+      <c r="DS113" s="13"/>
     </row>
-    <row r="114" spans="1:121" ht="72" customHeight="1">
+    <row r="114" spans="1:123" ht="72" customHeight="1">
       <c r="A114" s="16"/>
       <c r="B114" s="24"/>
       <c r="D114" s="18"/>
@@ -16123,8 +16378,10 @@
       <c r="DO114" s="13"/>
       <c r="DP114" s="13"/>
       <c r="DQ114" s="13"/>
+      <c r="DR114" s="13"/>
+      <c r="DS114" s="13"/>
     </row>
-    <row r="115" spans="1:121" ht="72" customHeight="1">
+    <row r="115" spans="1:123" ht="72" customHeight="1">
       <c r="A115" s="16"/>
       <c r="B115" s="24"/>
       <c r="D115" s="18"/>
@@ -16245,8 +16502,10 @@
       <c r="DO115" s="13"/>
       <c r="DP115" s="13"/>
       <c r="DQ115" s="13"/>
+      <c r="DR115" s="13"/>
+      <c r="DS115" s="13"/>
     </row>
-    <row r="116" spans="1:121" ht="72" customHeight="1">
+    <row r="116" spans="1:123" ht="72" customHeight="1">
       <c r="A116" s="16"/>
       <c r="B116" s="24"/>
       <c r="D116" s="18"/>
@@ -16367,8 +16626,10 @@
       <c r="DO116" s="13"/>
       <c r="DP116" s="13"/>
       <c r="DQ116" s="13"/>
+      <c r="DR116" s="13"/>
+      <c r="DS116" s="13"/>
     </row>
-    <row r="117" spans="1:121" ht="72" customHeight="1">
+    <row r="117" spans="1:123" ht="72" customHeight="1">
       <c r="B117" s="25"/>
       <c r="D117" s="10"/>
       <c r="E117" s="21"/>
@@ -16404,22 +16665,22 @@
       <c r="AI117" s="10"/>
       <c r="AJ117" s="10"/>
       <c r="AK117" s="10"/>
-      <c r="AL117" s="10"/>
+      <c r="AL117" s="27"/>
       <c r="AM117" s="10"/>
-      <c r="AN117" s="21"/>
-      <c r="AO117" s="10"/>
+      <c r="AN117" s="10"/>
+      <c r="AO117" s="21"/>
       <c r="AP117" s="10"/>
       <c r="AQ117" s="10"/>
       <c r="AR117" s="10"/>
       <c r="AS117" s="10"/>
       <c r="AT117" s="10"/>
-      <c r="AU117" s="21"/>
-      <c r="AV117" s="10"/>
+      <c r="AU117" s="10"/>
+      <c r="AV117" s="21"/>
       <c r="AW117" s="10"/>
       <c r="AX117" s="10"/>
       <c r="AY117" s="10"/>
-      <c r="AZ117" s="21"/>
-      <c r="BA117" s="10"/>
+      <c r="AZ117" s="10"/>
+      <c r="BA117" s="21"/>
       <c r="BB117" s="10"/>
       <c r="BC117" s="10"/>
       <c r="BD117" s="10"/>
@@ -16437,11 +16698,13 @@
       <c r="BP117" s="10"/>
       <c r="BQ117" s="10"/>
       <c r="BR117" s="10"/>
-      <c r="BS117" s="10"/>
+      <c r="BS117" s="27"/>
       <c r="BT117" s="10"/>
       <c r="BU117" s="10"/>
+      <c r="BV117" s="10"/>
+      <c r="BW117" s="10"/>
     </row>
-    <row r="118" spans="1:121" ht="72" customHeight="1">
+    <row r="118" spans="1:123" ht="72" customHeight="1">
       <c r="B118" s="25"/>
       <c r="D118" s="10"/>
       <c r="E118" s="21"/>
@@ -16477,22 +16740,22 @@
       <c r="AI118" s="10"/>
       <c r="AJ118" s="10"/>
       <c r="AK118" s="10"/>
-      <c r="AL118" s="10"/>
+      <c r="AL118" s="27"/>
       <c r="AM118" s="10"/>
-      <c r="AN118" s="21"/>
-      <c r="AO118" s="10"/>
+      <c r="AN118" s="10"/>
+      <c r="AO118" s="21"/>
       <c r="AP118" s="10"/>
       <c r="AQ118" s="10"/>
       <c r="AR118" s="10"/>
       <c r="AS118" s="10"/>
       <c r="AT118" s="10"/>
-      <c r="AU118" s="21"/>
-      <c r="AV118" s="10"/>
+      <c r="AU118" s="10"/>
+      <c r="AV118" s="21"/>
       <c r="AW118" s="10"/>
       <c r="AX118" s="10"/>
       <c r="AY118" s="10"/>
-      <c r="AZ118" s="21"/>
-      <c r="BA118" s="10"/>
+      <c r="AZ118" s="10"/>
+      <c r="BA118" s="21"/>
       <c r="BB118" s="10"/>
       <c r="BC118" s="10"/>
       <c r="BD118" s="10"/>
@@ -16510,11 +16773,13 @@
       <c r="BP118" s="10"/>
       <c r="BQ118" s="10"/>
       <c r="BR118" s="10"/>
-      <c r="BS118" s="10"/>
+      <c r="BS118" s="27"/>
       <c r="BT118" s="10"/>
       <c r="BU118" s="10"/>
+      <c r="BV118" s="10"/>
+      <c r="BW118" s="10"/>
     </row>
-    <row r="119" spans="1:121">
+    <row r="119" spans="1:123">
       <c r="B119" s="25"/>
       <c r="D119" s="10"/>
       <c r="E119" s="21"/>
@@ -16550,22 +16815,22 @@
       <c r="AI119" s="10"/>
       <c r="AJ119" s="10"/>
       <c r="AK119" s="10"/>
-      <c r="AL119" s="10"/>
+      <c r="AL119" s="27"/>
       <c r="AM119" s="10"/>
-      <c r="AN119" s="21"/>
-      <c r="AO119" s="10"/>
+      <c r="AN119" s="10"/>
+      <c r="AO119" s="21"/>
       <c r="AP119" s="10"/>
       <c r="AQ119" s="10"/>
       <c r="AR119" s="10"/>
       <c r="AS119" s="10"/>
       <c r="AT119" s="10"/>
-      <c r="AU119" s="21"/>
-      <c r="AV119" s="10"/>
+      <c r="AU119" s="10"/>
+      <c r="AV119" s="21"/>
       <c r="AW119" s="10"/>
       <c r="AX119" s="10"/>
       <c r="AY119" s="10"/>
-      <c r="AZ119" s="21"/>
-      <c r="BA119" s="10"/>
+      <c r="AZ119" s="10"/>
+      <c r="BA119" s="21"/>
       <c r="BB119" s="10"/>
       <c r="BC119" s="10"/>
       <c r="BD119" s="10"/>
@@ -16583,11 +16848,13 @@
       <c r="BP119" s="10"/>
       <c r="BQ119" s="10"/>
       <c r="BR119" s="10"/>
-      <c r="BS119" s="10"/>
+      <c r="BS119" s="27"/>
       <c r="BT119" s="10"/>
       <c r="BU119" s="10"/>
+      <c r="BV119" s="10"/>
+      <c r="BW119" s="10"/>
     </row>
-    <row r="120" spans="1:121">
+    <row r="120" spans="1:123">
       <c r="B120" s="25"/>
       <c r="D120" s="10"/>
       <c r="E120" s="21"/>
@@ -16623,22 +16890,22 @@
       <c r="AI120" s="10"/>
       <c r="AJ120" s="10"/>
       <c r="AK120" s="10"/>
-      <c r="AL120" s="10"/>
+      <c r="AL120" s="27"/>
       <c r="AM120" s="10"/>
-      <c r="AN120" s="21"/>
-      <c r="AO120" s="10"/>
+      <c r="AN120" s="10"/>
+      <c r="AO120" s="21"/>
       <c r="AP120" s="10"/>
       <c r="AQ120" s="10"/>
       <c r="AR120" s="10"/>
       <c r="AS120" s="10"/>
       <c r="AT120" s="10"/>
-      <c r="AU120" s="21"/>
-      <c r="AV120" s="10"/>
+      <c r="AU120" s="10"/>
+      <c r="AV120" s="21"/>
       <c r="AW120" s="10"/>
       <c r="AX120" s="10"/>
       <c r="AY120" s="10"/>
-      <c r="AZ120" s="21"/>
-      <c r="BA120" s="10"/>
+      <c r="AZ120" s="10"/>
+      <c r="BA120" s="21"/>
       <c r="BB120" s="10"/>
       <c r="BC120" s="10"/>
       <c r="BD120" s="10"/>
@@ -16656,11 +16923,13 @@
       <c r="BP120" s="10"/>
       <c r="BQ120" s="10"/>
       <c r="BR120" s="10"/>
-      <c r="BS120" s="10"/>
+      <c r="BS120" s="27"/>
       <c r="BT120" s="10"/>
       <c r="BU120" s="10"/>
+      <c r="BV120" s="10"/>
+      <c r="BW120" s="10"/>
     </row>
-    <row r="121" spans="1:121">
+    <row r="121" spans="1:123">
       <c r="B121" s="25"/>
       <c r="D121" s="10"/>
       <c r="E121" s="21"/>
@@ -16696,22 +16965,22 @@
       <c r="AI121" s="10"/>
       <c r="AJ121" s="10"/>
       <c r="AK121" s="10"/>
-      <c r="AL121" s="10"/>
+      <c r="AL121" s="27"/>
       <c r="AM121" s="10"/>
-      <c r="AN121" s="21"/>
-      <c r="AO121" s="10"/>
+      <c r="AN121" s="10"/>
+      <c r="AO121" s="21"/>
       <c r="AP121" s="10"/>
       <c r="AQ121" s="10"/>
       <c r="AR121" s="10"/>
       <c r="AS121" s="10"/>
       <c r="AT121" s="10"/>
-      <c r="AU121" s="21"/>
-      <c r="AV121" s="10"/>
+      <c r="AU121" s="10"/>
+      <c r="AV121" s="21"/>
       <c r="AW121" s="10"/>
       <c r="AX121" s="10"/>
       <c r="AY121" s="10"/>
-      <c r="AZ121" s="21"/>
-      <c r="BA121" s="10"/>
+      <c r="AZ121" s="10"/>
+      <c r="BA121" s="21"/>
       <c r="BB121" s="10"/>
       <c r="BC121" s="10"/>
       <c r="BD121" s="10"/>
@@ -16729,11 +16998,13 @@
       <c r="BP121" s="10"/>
       <c r="BQ121" s="10"/>
       <c r="BR121" s="10"/>
-      <c r="BS121" s="10"/>
+      <c r="BS121" s="27"/>
       <c r="BT121" s="10"/>
       <c r="BU121" s="10"/>
+      <c r="BV121" s="10"/>
+      <c r="BW121" s="10"/>
     </row>
-    <row r="122" spans="1:121">
+    <row r="122" spans="1:123">
       <c r="B122" s="25"/>
       <c r="D122" s="10"/>
       <c r="E122" s="21"/>
@@ -16769,22 +17040,22 @@
       <c r="AI122" s="10"/>
       <c r="AJ122" s="10"/>
       <c r="AK122" s="10"/>
-      <c r="AL122" s="10"/>
+      <c r="AL122" s="27"/>
       <c r="AM122" s="10"/>
-      <c r="AN122" s="21"/>
-      <c r="AO122" s="10"/>
+      <c r="AN122" s="10"/>
+      <c r="AO122" s="21"/>
       <c r="AP122" s="10"/>
       <c r="AQ122" s="10"/>
       <c r="AR122" s="10"/>
       <c r="AS122" s="10"/>
       <c r="AT122" s="10"/>
-      <c r="AU122" s="21"/>
-      <c r="AV122" s="10"/>
+      <c r="AU122" s="10"/>
+      <c r="AV122" s="21"/>
       <c r="AW122" s="10"/>
       <c r="AX122" s="10"/>
       <c r="AY122" s="10"/>
-      <c r="AZ122" s="21"/>
-      <c r="BA122" s="10"/>
+      <c r="AZ122" s="10"/>
+      <c r="BA122" s="21"/>
       <c r="BB122" s="10"/>
       <c r="BC122" s="10"/>
       <c r="BD122" s="10"/>
@@ -16802,11 +17073,13 @@
       <c r="BP122" s="10"/>
       <c r="BQ122" s="10"/>
       <c r="BR122" s="10"/>
-      <c r="BS122" s="10"/>
+      <c r="BS122" s="27"/>
       <c r="BT122" s="10"/>
       <c r="BU122" s="10"/>
+      <c r="BV122" s="10"/>
+      <c r="BW122" s="10"/>
     </row>
-    <row r="123" spans="1:121">
+    <row r="123" spans="1:123">
       <c r="B123" s="25"/>
       <c r="D123" s="10"/>
       <c r="E123" s="21"/>
@@ -16842,22 +17115,22 @@
       <c r="AI123" s="10"/>
       <c r="AJ123" s="10"/>
       <c r="AK123" s="10"/>
-      <c r="AL123" s="10"/>
+      <c r="AL123" s="27"/>
       <c r="AM123" s="10"/>
-      <c r="AN123" s="21"/>
-      <c r="AO123" s="10"/>
+      <c r="AN123" s="10"/>
+      <c r="AO123" s="21"/>
       <c r="AP123" s="10"/>
       <c r="AQ123" s="10"/>
       <c r="AR123" s="10"/>
       <c r="AS123" s="10"/>
       <c r="AT123" s="10"/>
-      <c r="AU123" s="21"/>
-      <c r="AV123" s="10"/>
+      <c r="AU123" s="10"/>
+      <c r="AV123" s="21"/>
       <c r="AW123" s="10"/>
       <c r="AX123" s="10"/>
       <c r="AY123" s="10"/>
-      <c r="AZ123" s="21"/>
-      <c r="BA123" s="10"/>
+      <c r="AZ123" s="10"/>
+      <c r="BA123" s="21"/>
       <c r="BB123" s="10"/>
       <c r="BC123" s="10"/>
       <c r="BD123" s="10"/>
@@ -16875,11 +17148,13 @@
       <c r="BP123" s="10"/>
       <c r="BQ123" s="10"/>
       <c r="BR123" s="10"/>
-      <c r="BS123" s="10"/>
+      <c r="BS123" s="27"/>
       <c r="BT123" s="10"/>
       <c r="BU123" s="10"/>
+      <c r="BV123" s="10"/>
+      <c r="BW123" s="10"/>
     </row>
-    <row r="124" spans="1:121">
+    <row r="124" spans="1:123">
       <c r="B124" s="25"/>
       <c r="D124" s="10"/>
       <c r="E124" s="21"/>
@@ -16915,22 +17190,22 @@
       <c r="AI124" s="10"/>
       <c r="AJ124" s="10"/>
       <c r="AK124" s="10"/>
-      <c r="AL124" s="10"/>
+      <c r="AL124" s="27"/>
       <c r="AM124" s="10"/>
-      <c r="AN124" s="21"/>
-      <c r="AO124" s="10"/>
+      <c r="AN124" s="10"/>
+      <c r="AO124" s="21"/>
       <c r="AP124" s="10"/>
       <c r="AQ124" s="10"/>
       <c r="AR124" s="10"/>
       <c r="AS124" s="10"/>
       <c r="AT124" s="10"/>
-      <c r="AU124" s="21"/>
-      <c r="AV124" s="10"/>
+      <c r="AU124" s="10"/>
+      <c r="AV124" s="21"/>
       <c r="AW124" s="10"/>
       <c r="AX124" s="10"/>
       <c r="AY124" s="10"/>
-      <c r="AZ124" s="21"/>
-      <c r="BA124" s="10"/>
+      <c r="AZ124" s="10"/>
+      <c r="BA124" s="21"/>
       <c r="BB124" s="10"/>
       <c r="BC124" s="10"/>
       <c r="BD124" s="10"/>
@@ -16948,11 +17223,13 @@
       <c r="BP124" s="10"/>
       <c r="BQ124" s="10"/>
       <c r="BR124" s="10"/>
-      <c r="BS124" s="10"/>
+      <c r="BS124" s="27"/>
       <c r="BT124" s="10"/>
       <c r="BU124" s="10"/>
+      <c r="BV124" s="10"/>
+      <c r="BW124" s="10"/>
     </row>
-    <row r="125" spans="1:121">
+    <row r="125" spans="1:123">
       <c r="B125" s="25"/>
       <c r="D125" s="10"/>
       <c r="E125" s="21"/>
@@ -16988,22 +17265,22 @@
       <c r="AI125" s="10"/>
       <c r="AJ125" s="10"/>
       <c r="AK125" s="10"/>
-      <c r="AL125" s="10"/>
+      <c r="AL125" s="27"/>
       <c r="AM125" s="10"/>
-      <c r="AN125" s="21"/>
-      <c r="AO125" s="10"/>
+      <c r="AN125" s="10"/>
+      <c r="AO125" s="21"/>
       <c r="AP125" s="10"/>
       <c r="AQ125" s="10"/>
       <c r="AR125" s="10"/>
       <c r="AS125" s="10"/>
       <c r="AT125" s="10"/>
-      <c r="AU125" s="21"/>
-      <c r="AV125" s="10"/>
+      <c r="AU125" s="10"/>
+      <c r="AV125" s="21"/>
       <c r="AW125" s="10"/>
       <c r="AX125" s="10"/>
       <c r="AY125" s="10"/>
-      <c r="AZ125" s="21"/>
-      <c r="BA125" s="10"/>
+      <c r="AZ125" s="10"/>
+      <c r="BA125" s="21"/>
       <c r="BB125" s="10"/>
       <c r="BC125" s="10"/>
       <c r="BD125" s="10"/>
@@ -17021,11 +17298,13 @@
       <c r="BP125" s="10"/>
       <c r="BQ125" s="10"/>
       <c r="BR125" s="10"/>
-      <c r="BS125" s="10"/>
+      <c r="BS125" s="27"/>
       <c r="BT125" s="10"/>
       <c r="BU125" s="10"/>
+      <c r="BV125" s="10"/>
+      <c r="BW125" s="10"/>
     </row>
-    <row r="126" spans="1:121">
+    <row r="126" spans="1:123">
       <c r="B126" s="25"/>
       <c r="D126" s="10"/>
       <c r="E126" s="21"/>
@@ -17061,22 +17340,22 @@
       <c r="AI126" s="10"/>
       <c r="AJ126" s="10"/>
       <c r="AK126" s="10"/>
-      <c r="AL126" s="10"/>
+      <c r="AL126" s="27"/>
       <c r="AM126" s="10"/>
-      <c r="AN126" s="21"/>
-      <c r="AO126" s="10"/>
+      <c r="AN126" s="10"/>
+      <c r="AO126" s="21"/>
       <c r="AP126" s="10"/>
       <c r="AQ126" s="10"/>
       <c r="AR126" s="10"/>
       <c r="AS126" s="10"/>
       <c r="AT126" s="10"/>
-      <c r="AU126" s="21"/>
-      <c r="AV126" s="10"/>
+      <c r="AU126" s="10"/>
+      <c r="AV126" s="21"/>
       <c r="AW126" s="10"/>
       <c r="AX126" s="10"/>
       <c r="AY126" s="10"/>
-      <c r="AZ126" s="21"/>
-      <c r="BA126" s="10"/>
+      <c r="AZ126" s="10"/>
+      <c r="BA126" s="21"/>
       <c r="BB126" s="10"/>
       <c r="BC126" s="10"/>
       <c r="BD126" s="10"/>
@@ -17094,11 +17373,13 @@
       <c r="BP126" s="10"/>
       <c r="BQ126" s="10"/>
       <c r="BR126" s="10"/>
-      <c r="BS126" s="10"/>
+      <c r="BS126" s="27"/>
       <c r="BT126" s="10"/>
       <c r="BU126" s="10"/>
+      <c r="BV126" s="10"/>
+      <c r="BW126" s="10"/>
     </row>
-    <row r="127" spans="1:121">
+    <row r="127" spans="1:123">
       <c r="B127" s="25"/>
       <c r="D127" s="10"/>
       <c r="E127" s="21"/>
@@ -17134,22 +17415,22 @@
       <c r="AI127" s="10"/>
       <c r="AJ127" s="10"/>
       <c r="AK127" s="10"/>
-      <c r="AL127" s="10"/>
+      <c r="AL127" s="27"/>
       <c r="AM127" s="10"/>
-      <c r="AN127" s="21"/>
-      <c r="AO127" s="10"/>
+      <c r="AN127" s="10"/>
+      <c r="AO127" s="21"/>
       <c r="AP127" s="10"/>
       <c r="AQ127" s="10"/>
       <c r="AR127" s="10"/>
       <c r="AS127" s="10"/>
       <c r="AT127" s="10"/>
-      <c r="AU127" s="21"/>
-      <c r="AV127" s="10"/>
+      <c r="AU127" s="10"/>
+      <c r="AV127" s="21"/>
       <c r="AW127" s="10"/>
       <c r="AX127" s="10"/>
       <c r="AY127" s="10"/>
-      <c r="AZ127" s="21"/>
-      <c r="BA127" s="10"/>
+      <c r="AZ127" s="10"/>
+      <c r="BA127" s="21"/>
       <c r="BB127" s="10"/>
       <c r="BC127" s="10"/>
       <c r="BD127" s="10"/>
@@ -17167,11 +17448,13 @@
       <c r="BP127" s="10"/>
       <c r="BQ127" s="10"/>
       <c r="BR127" s="10"/>
-      <c r="BS127" s="10"/>
+      <c r="BS127" s="27"/>
       <c r="BT127" s="10"/>
       <c r="BU127" s="10"/>
+      <c r="BV127" s="10"/>
+      <c r="BW127" s="10"/>
     </row>
-    <row r="128" spans="1:121">
+    <row r="128" spans="1:123">
       <c r="B128" s="25"/>
       <c r="D128" s="10"/>
       <c r="E128" s="21"/>
@@ -17207,22 +17490,22 @@
       <c r="AI128" s="10"/>
       <c r="AJ128" s="10"/>
       <c r="AK128" s="10"/>
-      <c r="AL128" s="10"/>
+      <c r="AL128" s="27"/>
       <c r="AM128" s="10"/>
-      <c r="AN128" s="21"/>
-      <c r="AO128" s="10"/>
+      <c r="AN128" s="10"/>
+      <c r="AO128" s="21"/>
       <c r="AP128" s="10"/>
       <c r="AQ128" s="10"/>
       <c r="AR128" s="10"/>
       <c r="AS128" s="10"/>
       <c r="AT128" s="10"/>
-      <c r="AU128" s="21"/>
-      <c r="AV128" s="10"/>
+      <c r="AU128" s="10"/>
+      <c r="AV128" s="21"/>
       <c r="AW128" s="10"/>
       <c r="AX128" s="10"/>
       <c r="AY128" s="10"/>
-      <c r="AZ128" s="21"/>
-      <c r="BA128" s="10"/>
+      <c r="AZ128" s="10"/>
+      <c r="BA128" s="21"/>
       <c r="BB128" s="10"/>
       <c r="BC128" s="10"/>
       <c r="BD128" s="10"/>
@@ -17240,11 +17523,13 @@
       <c r="BP128" s="10"/>
       <c r="BQ128" s="10"/>
       <c r="BR128" s="10"/>
-      <c r="BS128" s="10"/>
+      <c r="BS128" s="27"/>
       <c r="BT128" s="10"/>
       <c r="BU128" s="10"/>
+      <c r="BV128" s="10"/>
+      <c r="BW128" s="10"/>
     </row>
-    <row r="129" spans="2:73">
+    <row r="129" spans="2:75">
       <c r="B129" s="25"/>
       <c r="D129" s="10"/>
       <c r="E129" s="21"/>
@@ -17280,22 +17565,22 @@
       <c r="AI129" s="10"/>
       <c r="AJ129" s="10"/>
       <c r="AK129" s="10"/>
-      <c r="AL129" s="10"/>
+      <c r="AL129" s="27"/>
       <c r="AM129" s="10"/>
-      <c r="AN129" s="21"/>
-      <c r="AO129" s="10"/>
+      <c r="AN129" s="10"/>
+      <c r="AO129" s="21"/>
       <c r="AP129" s="10"/>
       <c r="AQ129" s="10"/>
       <c r="AR129" s="10"/>
       <c r="AS129" s="10"/>
       <c r="AT129" s="10"/>
-      <c r="AU129" s="21"/>
-      <c r="AV129" s="10"/>
+      <c r="AU129" s="10"/>
+      <c r="AV129" s="21"/>
       <c r="AW129" s="10"/>
       <c r="AX129" s="10"/>
       <c r="AY129" s="10"/>
-      <c r="AZ129" s="21"/>
-      <c r="BA129" s="10"/>
+      <c r="AZ129" s="10"/>
+      <c r="BA129" s="21"/>
       <c r="BB129" s="10"/>
       <c r="BC129" s="10"/>
       <c r="BD129" s="10"/>
@@ -17313,11 +17598,13 @@
       <c r="BP129" s="10"/>
       <c r="BQ129" s="10"/>
       <c r="BR129" s="10"/>
-      <c r="BS129" s="10"/>
+      <c r="BS129" s="27"/>
       <c r="BT129" s="10"/>
       <c r="BU129" s="10"/>
+      <c r="BV129" s="10"/>
+      <c r="BW129" s="10"/>
     </row>
-    <row r="130" spans="2:73">
+    <row r="130" spans="2:75">
       <c r="B130" s="25"/>
       <c r="D130" s="10"/>
       <c r="E130" s="21"/>
@@ -17353,22 +17640,22 @@
       <c r="AI130" s="10"/>
       <c r="AJ130" s="10"/>
       <c r="AK130" s="10"/>
-      <c r="AL130" s="10"/>
+      <c r="AL130" s="27"/>
       <c r="AM130" s="10"/>
-      <c r="AN130" s="21"/>
-      <c r="AO130" s="10"/>
+      <c r="AN130" s="10"/>
+      <c r="AO130" s="21"/>
       <c r="AP130" s="10"/>
       <c r="AQ130" s="10"/>
       <c r="AR130" s="10"/>
       <c r="AS130" s="10"/>
       <c r="AT130" s="10"/>
-      <c r="AU130" s="21"/>
-      <c r="AV130" s="10"/>
+      <c r="AU130" s="10"/>
+      <c r="AV130" s="21"/>
       <c r="AW130" s="10"/>
       <c r="AX130" s="10"/>
       <c r="AY130" s="10"/>
-      <c r="AZ130" s="21"/>
-      <c r="BA130" s="10"/>
+      <c r="AZ130" s="10"/>
+      <c r="BA130" s="21"/>
       <c r="BB130" s="10"/>
       <c r="BC130" s="10"/>
       <c r="BD130" s="10"/>
@@ -17386,11 +17673,13 @@
       <c r="BP130" s="10"/>
       <c r="BQ130" s="10"/>
       <c r="BR130" s="10"/>
-      <c r="BS130" s="10"/>
+      <c r="BS130" s="27"/>
       <c r="BT130" s="10"/>
       <c r="BU130" s="10"/>
+      <c r="BV130" s="10"/>
+      <c r="BW130" s="10"/>
     </row>
-    <row r="131" spans="2:73">
+    <row r="131" spans="2:75">
       <c r="B131" s="25"/>
       <c r="D131" s="10"/>
       <c r="E131" s="21"/>
@@ -17426,22 +17715,22 @@
       <c r="AI131" s="10"/>
       <c r="AJ131" s="10"/>
       <c r="AK131" s="10"/>
-      <c r="AL131" s="10"/>
+      <c r="AL131" s="27"/>
       <c r="AM131" s="10"/>
-      <c r="AN131" s="21"/>
-      <c r="AO131" s="10"/>
+      <c r="AN131" s="10"/>
+      <c r="AO131" s="21"/>
       <c r="AP131" s="10"/>
       <c r="AQ131" s="10"/>
       <c r="AR131" s="10"/>
       <c r="AS131" s="10"/>
       <c r="AT131" s="10"/>
-      <c r="AU131" s="21"/>
-      <c r="AV131" s="10"/>
+      <c r="AU131" s="10"/>
+      <c r="AV131" s="21"/>
       <c r="AW131" s="10"/>
       <c r="AX131" s="10"/>
       <c r="AY131" s="10"/>
-      <c r="AZ131" s="21"/>
-      <c r="BA131" s="10"/>
+      <c r="AZ131" s="10"/>
+      <c r="BA131" s="21"/>
       <c r="BB131" s="10"/>
       <c r="BC131" s="10"/>
       <c r="BD131" s="10"/>
@@ -17459,11 +17748,13 @@
       <c r="BP131" s="10"/>
       <c r="BQ131" s="10"/>
       <c r="BR131" s="10"/>
-      <c r="BS131" s="10"/>
+      <c r="BS131" s="27"/>
       <c r="BT131" s="10"/>
       <c r="BU131" s="10"/>
+      <c r="BV131" s="10"/>
+      <c r="BW131" s="10"/>
     </row>
-    <row r="132" spans="2:73">
+    <row r="132" spans="2:75">
       <c r="B132" s="25"/>
       <c r="D132" s="10"/>
       <c r="E132" s="21"/>
@@ -17499,22 +17790,22 @@
       <c r="AI132" s="10"/>
       <c r="AJ132" s="10"/>
       <c r="AK132" s="10"/>
-      <c r="AL132" s="10"/>
+      <c r="AL132" s="27"/>
       <c r="AM132" s="10"/>
-      <c r="AN132" s="21"/>
-      <c r="AO132" s="10"/>
+      <c r="AN132" s="10"/>
+      <c r="AO132" s="21"/>
       <c r="AP132" s="10"/>
       <c r="AQ132" s="10"/>
       <c r="AR132" s="10"/>
       <c r="AS132" s="10"/>
       <c r="AT132" s="10"/>
-      <c r="AU132" s="21"/>
-      <c r="AV132" s="10"/>
+      <c r="AU132" s="10"/>
+      <c r="AV132" s="21"/>
       <c r="AW132" s="10"/>
       <c r="AX132" s="10"/>
       <c r="AY132" s="10"/>
-      <c r="AZ132" s="21"/>
-      <c r="BA132" s="10"/>
+      <c r="AZ132" s="10"/>
+      <c r="BA132" s="21"/>
       <c r="BB132" s="10"/>
       <c r="BC132" s="10"/>
       <c r="BD132" s="10"/>
@@ -17532,11 +17823,13 @@
       <c r="BP132" s="10"/>
       <c r="BQ132" s="10"/>
       <c r="BR132" s="10"/>
-      <c r="BS132" s="10"/>
+      <c r="BS132" s="27"/>
       <c r="BT132" s="10"/>
       <c r="BU132" s="10"/>
+      <c r="BV132" s="10"/>
+      <c r="BW132" s="10"/>
     </row>
-    <row r="133" spans="2:73">
+    <row r="133" spans="2:75">
       <c r="B133" s="25"/>
       <c r="D133" s="10"/>
       <c r="E133" s="21"/>
@@ -17572,22 +17865,22 @@
       <c r="AI133" s="10"/>
       <c r="AJ133" s="10"/>
       <c r="AK133" s="10"/>
-      <c r="AL133" s="10"/>
+      <c r="AL133" s="27"/>
       <c r="AM133" s="10"/>
-      <c r="AN133" s="21"/>
-      <c r="AO133" s="10"/>
+      <c r="AN133" s="10"/>
+      <c r="AO133" s="21"/>
       <c r="AP133" s="10"/>
       <c r="AQ133" s="10"/>
       <c r="AR133" s="10"/>
       <c r="AS133" s="10"/>
       <c r="AT133" s="10"/>
-      <c r="AU133" s="21"/>
-      <c r="AV133" s="10"/>
+      <c r="AU133" s="10"/>
+      <c r="AV133" s="21"/>
       <c r="AW133" s="10"/>
       <c r="AX133" s="10"/>
       <c r="AY133" s="10"/>
-      <c r="AZ133" s="21"/>
-      <c r="BA133" s="10"/>
+      <c r="AZ133" s="10"/>
+      <c r="BA133" s="21"/>
       <c r="BB133" s="10"/>
       <c r="BC133" s="10"/>
       <c r="BD133" s="10"/>
@@ -17605,11 +17898,13 @@
       <c r="BP133" s="10"/>
       <c r="BQ133" s="10"/>
       <c r="BR133" s="10"/>
-      <c r="BS133" s="10"/>
+      <c r="BS133" s="27"/>
       <c r="BT133" s="10"/>
       <c r="BU133" s="10"/>
+      <c r="BV133" s="10"/>
+      <c r="BW133" s="10"/>
     </row>
-    <row r="134" spans="2:73">
+    <row r="134" spans="2:75">
       <c r="B134" s="25"/>
       <c r="D134" s="10"/>
       <c r="E134" s="21"/>
@@ -17645,22 +17940,22 @@
       <c r="AI134" s="10"/>
       <c r="AJ134" s="10"/>
       <c r="AK134" s="10"/>
-      <c r="AL134" s="10"/>
+      <c r="AL134" s="27"/>
       <c r="AM134" s="10"/>
-      <c r="AN134" s="21"/>
-      <c r="AO134" s="10"/>
+      <c r="AN134" s="10"/>
+      <c r="AO134" s="21"/>
       <c r="AP134" s="10"/>
       <c r="AQ134" s="10"/>
       <c r="AR134" s="10"/>
       <c r="AS134" s="10"/>
       <c r="AT134" s="10"/>
-      <c r="AU134" s="21"/>
-      <c r="AV134" s="10"/>
+      <c r="AU134" s="10"/>
+      <c r="AV134" s="21"/>
       <c r="AW134" s="10"/>
       <c r="AX134" s="10"/>
       <c r="AY134" s="10"/>
-      <c r="AZ134" s="21"/>
-      <c r="BA134" s="10"/>
+      <c r="AZ134" s="10"/>
+      <c r="BA134" s="21"/>
       <c r="BB134" s="10"/>
       <c r="BC134" s="10"/>
       <c r="BD134" s="10"/>
@@ -17678,11 +17973,13 @@
       <c r="BP134" s="10"/>
       <c r="BQ134" s="10"/>
       <c r="BR134" s="10"/>
-      <c r="BS134" s="10"/>
+      <c r="BS134" s="27"/>
       <c r="BT134" s="10"/>
       <c r="BU134" s="10"/>
+      <c r="BV134" s="10"/>
+      <c r="BW134" s="10"/>
     </row>
-    <row r="135" spans="2:73">
+    <row r="135" spans="2:75">
       <c r="B135" s="25"/>
       <c r="D135" s="10"/>
       <c r="E135" s="21"/>
@@ -17718,22 +18015,22 @@
       <c r="AI135" s="10"/>
       <c r="AJ135" s="10"/>
       <c r="AK135" s="10"/>
-      <c r="AL135" s="10"/>
+      <c r="AL135" s="27"/>
       <c r="AM135" s="10"/>
-      <c r="AN135" s="21"/>
-      <c r="AO135" s="10"/>
+      <c r="AN135" s="10"/>
+      <c r="AO135" s="21"/>
       <c r="AP135" s="10"/>
       <c r="AQ135" s="10"/>
       <c r="AR135" s="10"/>
       <c r="AS135" s="10"/>
       <c r="AT135" s="10"/>
-      <c r="AU135" s="21"/>
-      <c r="AV135" s="10"/>
+      <c r="AU135" s="10"/>
+      <c r="AV135" s="21"/>
       <c r="AW135" s="10"/>
       <c r="AX135" s="10"/>
       <c r="AY135" s="10"/>
-      <c r="AZ135" s="21"/>
-      <c r="BA135" s="10"/>
+      <c r="AZ135" s="10"/>
+      <c r="BA135" s="21"/>
       <c r="BB135" s="10"/>
       <c r="BC135" s="10"/>
       <c r="BD135" s="10"/>
@@ -17751,11 +18048,13 @@
       <c r="BP135" s="10"/>
       <c r="BQ135" s="10"/>
       <c r="BR135" s="10"/>
-      <c r="BS135" s="10"/>
+      <c r="BS135" s="27"/>
       <c r="BT135" s="10"/>
       <c r="BU135" s="10"/>
+      <c r="BV135" s="10"/>
+      <c r="BW135" s="10"/>
     </row>
-    <row r="136" spans="2:73">
+    <row r="136" spans="2:75">
       <c r="B136" s="25"/>
       <c r="D136" s="10"/>
       <c r="E136" s="21"/>
@@ -17791,22 +18090,22 @@
       <c r="AI136" s="10"/>
       <c r="AJ136" s="10"/>
       <c r="AK136" s="10"/>
-      <c r="AL136" s="10"/>
+      <c r="AL136" s="27"/>
       <c r="AM136" s="10"/>
-      <c r="AN136" s="21"/>
-      <c r="AO136" s="10"/>
+      <c r="AN136" s="10"/>
+      <c r="AO136" s="21"/>
       <c r="AP136" s="10"/>
       <c r="AQ136" s="10"/>
       <c r="AR136" s="10"/>
       <c r="AS136" s="10"/>
       <c r="AT136" s="10"/>
-      <c r="AU136" s="21"/>
-      <c r="AV136" s="10"/>
+      <c r="AU136" s="10"/>
+      <c r="AV136" s="21"/>
       <c r="AW136" s="10"/>
       <c r="AX136" s="10"/>
       <c r="AY136" s="10"/>
-      <c r="AZ136" s="21"/>
-      <c r="BA136" s="10"/>
+      <c r="AZ136" s="10"/>
+      <c r="BA136" s="21"/>
       <c r="BB136" s="10"/>
       <c r="BC136" s="10"/>
       <c r="BD136" s="10"/>
@@ -17824,11 +18123,13 @@
       <c r="BP136" s="10"/>
       <c r="BQ136" s="10"/>
       <c r="BR136" s="10"/>
-      <c r="BS136" s="10"/>
+      <c r="BS136" s="27"/>
       <c r="BT136" s="10"/>
       <c r="BU136" s="10"/>
+      <c r="BV136" s="10"/>
+      <c r="BW136" s="10"/>
     </row>
-    <row r="137" spans="2:73">
+    <row r="137" spans="2:75">
       <c r="B137" s="25"/>
       <c r="D137" s="10"/>
       <c r="E137" s="21"/>
@@ -17864,22 +18165,22 @@
       <c r="AI137" s="10"/>
       <c r="AJ137" s="10"/>
       <c r="AK137" s="10"/>
-      <c r="AL137" s="10"/>
+      <c r="AL137" s="27"/>
       <c r="AM137" s="10"/>
-      <c r="AN137" s="21"/>
-      <c r="AO137" s="10"/>
+      <c r="AN137" s="10"/>
+      <c r="AO137" s="21"/>
       <c r="AP137" s="10"/>
       <c r="AQ137" s="10"/>
       <c r="AR137" s="10"/>
       <c r="AS137" s="10"/>
       <c r="AT137" s="10"/>
-      <c r="AU137" s="21"/>
-      <c r="AV137" s="10"/>
+      <c r="AU137" s="10"/>
+      <c r="AV137" s="21"/>
       <c r="AW137" s="10"/>
       <c r="AX137" s="10"/>
       <c r="AY137" s="10"/>
-      <c r="AZ137" s="21"/>
-      <c r="BA137" s="10"/>
+      <c r="AZ137" s="10"/>
+      <c r="BA137" s="21"/>
       <c r="BB137" s="10"/>
       <c r="BC137" s="10"/>
       <c r="BD137" s="10"/>
@@ -17897,11 +18198,13 @@
       <c r="BP137" s="10"/>
       <c r="BQ137" s="10"/>
       <c r="BR137" s="10"/>
-      <c r="BS137" s="10"/>
+      <c r="BS137" s="27"/>
       <c r="BT137" s="10"/>
       <c r="BU137" s="10"/>
+      <c r="BV137" s="10"/>
+      <c r="BW137" s="10"/>
     </row>
-    <row r="138" spans="2:73">
+    <row r="138" spans="2:75">
       <c r="B138" s="25"/>
       <c r="D138" s="10"/>
       <c r="E138" s="21"/>
@@ -17937,22 +18240,22 @@
       <c r="AI138" s="10"/>
       <c r="AJ138" s="10"/>
       <c r="AK138" s="10"/>
-      <c r="AL138" s="10"/>
+      <c r="AL138" s="27"/>
       <c r="AM138" s="10"/>
-      <c r="AN138" s="21"/>
-      <c r="AO138" s="10"/>
+      <c r="AN138" s="10"/>
+      <c r="AO138" s="21"/>
       <c r="AP138" s="10"/>
       <c r="AQ138" s="10"/>
       <c r="AR138" s="10"/>
       <c r="AS138" s="10"/>
       <c r="AT138" s="10"/>
-      <c r="AU138" s="21"/>
-      <c r="AV138" s="10"/>
+      <c r="AU138" s="10"/>
+      <c r="AV138" s="21"/>
       <c r="AW138" s="10"/>
       <c r="AX138" s="10"/>
       <c r="AY138" s="10"/>
-      <c r="AZ138" s="21"/>
-      <c r="BA138" s="10"/>
+      <c r="AZ138" s="10"/>
+      <c r="BA138" s="21"/>
       <c r="BB138" s="10"/>
       <c r="BC138" s="10"/>
       <c r="BD138" s="10"/>
@@ -17970,11 +18273,13 @@
       <c r="BP138" s="10"/>
       <c r="BQ138" s="10"/>
       <c r="BR138" s="10"/>
-      <c r="BS138" s="10"/>
+      <c r="BS138" s="27"/>
       <c r="BT138" s="10"/>
       <c r="BU138" s="10"/>
+      <c r="BV138" s="10"/>
+      <c r="BW138" s="10"/>
     </row>
-    <row r="139" spans="2:73">
+    <row r="139" spans="2:75">
       <c r="D139" s="10"/>
       <c r="E139" s="21"/>
       <c r="F139" s="10"/>
@@ -18009,22 +18314,22 @@
       <c r="AI139" s="10"/>
       <c r="AJ139" s="10"/>
       <c r="AK139" s="10"/>
-      <c r="AL139" s="10"/>
+      <c r="AL139" s="27"/>
       <c r="AM139" s="10"/>
-      <c r="AN139" s="21"/>
-      <c r="AO139" s="10"/>
+      <c r="AN139" s="10"/>
+      <c r="AO139" s="21"/>
       <c r="AP139" s="10"/>
       <c r="AQ139" s="10"/>
       <c r="AR139" s="10"/>
       <c r="AS139" s="10"/>
       <c r="AT139" s="10"/>
-      <c r="AU139" s="21"/>
-      <c r="AV139" s="10"/>
+      <c r="AU139" s="10"/>
+      <c r="AV139" s="21"/>
       <c r="AW139" s="10"/>
       <c r="AX139" s="10"/>
       <c r="AY139" s="10"/>
-      <c r="AZ139" s="21"/>
-      <c r="BA139" s="10"/>
+      <c r="AZ139" s="10"/>
+      <c r="BA139" s="21"/>
       <c r="BB139" s="10"/>
       <c r="BC139" s="10"/>
       <c r="BD139" s="10"/>
@@ -18042,11 +18347,13 @@
       <c r="BP139" s="10"/>
       <c r="BQ139" s="10"/>
       <c r="BR139" s="10"/>
-      <c r="BS139" s="10"/>
+      <c r="BS139" s="27"/>
       <c r="BT139" s="10"/>
       <c r="BU139" s="10"/>
+      <c r="BV139" s="10"/>
+      <c r="BW139" s="10"/>
     </row>
-    <row r="140" spans="2:73">
+    <row r="140" spans="2:75">
       <c r="D140" s="10"/>
       <c r="E140" s="21"/>
       <c r="F140" s="10"/>
@@ -18081,22 +18388,22 @@
       <c r="AI140" s="10"/>
       <c r="AJ140" s="10"/>
       <c r="AK140" s="10"/>
-      <c r="AL140" s="10"/>
+      <c r="AL140" s="27"/>
       <c r="AM140" s="10"/>
-      <c r="AN140" s="21"/>
-      <c r="AO140" s="10"/>
+      <c r="AN140" s="10"/>
+      <c r="AO140" s="21"/>
       <c r="AP140" s="10"/>
       <c r="AQ140" s="10"/>
       <c r="AR140" s="10"/>
       <c r="AS140" s="10"/>
       <c r="AT140" s="10"/>
-      <c r="AU140" s="21"/>
-      <c r="AV140" s="10"/>
+      <c r="AU140" s="10"/>
+      <c r="AV140" s="21"/>
       <c r="AW140" s="10"/>
       <c r="AX140" s="10"/>
       <c r="AY140" s="10"/>
-      <c r="AZ140" s="21"/>
-      <c r="BA140" s="10"/>
+      <c r="AZ140" s="10"/>
+      <c r="BA140" s="21"/>
       <c r="BB140" s="10"/>
       <c r="BC140" s="10"/>
       <c r="BD140" s="10"/>
@@ -18114,11 +18421,13 @@
       <c r="BP140" s="10"/>
       <c r="BQ140" s="10"/>
       <c r="BR140" s="10"/>
-      <c r="BS140" s="10"/>
+      <c r="BS140" s="27"/>
       <c r="BT140" s="10"/>
       <c r="BU140" s="10"/>
+      <c r="BV140" s="10"/>
+      <c r="BW140" s="10"/>
     </row>
-    <row r="141" spans="2:73">
+    <row r="141" spans="2:75">
       <c r="D141" s="10"/>
       <c r="E141" s="21"/>
       <c r="F141" s="10"/>
@@ -18153,22 +18462,22 @@
       <c r="AI141" s="10"/>
       <c r="AJ141" s="10"/>
       <c r="AK141" s="10"/>
-      <c r="AL141" s="10"/>
+      <c r="AL141" s="27"/>
       <c r="AM141" s="10"/>
-      <c r="AN141" s="21"/>
-      <c r="AO141" s="10"/>
+      <c r="AN141" s="10"/>
+      <c r="AO141" s="21"/>
       <c r="AP141" s="10"/>
       <c r="AQ141" s="10"/>
       <c r="AR141" s="10"/>
       <c r="AS141" s="10"/>
       <c r="AT141" s="10"/>
-      <c r="AU141" s="21"/>
-      <c r="AV141" s="10"/>
+      <c r="AU141" s="10"/>
+      <c r="AV141" s="21"/>
       <c r="AW141" s="10"/>
       <c r="AX141" s="10"/>
       <c r="AY141" s="10"/>
-      <c r="AZ141" s="21"/>
-      <c r="BA141" s="10"/>
+      <c r="AZ141" s="10"/>
+      <c r="BA141" s="21"/>
       <c r="BB141" s="10"/>
       <c r="BC141" s="10"/>
       <c r="BD141" s="10"/>
@@ -18186,11 +18495,13 @@
       <c r="BP141" s="10"/>
       <c r="BQ141" s="10"/>
       <c r="BR141" s="10"/>
-      <c r="BS141" s="10"/>
+      <c r="BS141" s="27"/>
       <c r="BT141" s="10"/>
       <c r="BU141" s="10"/>
+      <c r="BV141" s="10"/>
+      <c r="BW141" s="10"/>
     </row>
-    <row r="142" spans="2:73">
+    <row r="142" spans="2:75">
       <c r="D142" s="10"/>
       <c r="E142" s="21"/>
       <c r="F142" s="10"/>
@@ -18225,22 +18536,22 @@
       <c r="AI142" s="10"/>
       <c r="AJ142" s="10"/>
       <c r="AK142" s="10"/>
-      <c r="AL142" s="10"/>
+      <c r="AL142" s="27"/>
       <c r="AM142" s="10"/>
-      <c r="AN142" s="21"/>
-      <c r="AO142" s="10"/>
+      <c r="AN142" s="10"/>
+      <c r="AO142" s="21"/>
       <c r="AP142" s="10"/>
       <c r="AQ142" s="10"/>
       <c r="AR142" s="10"/>
       <c r="AS142" s="10"/>
       <c r="AT142" s="10"/>
-      <c r="AU142" s="21"/>
-      <c r="AV142" s="10"/>
+      <c r="AU142" s="10"/>
+      <c r="AV142" s="21"/>
       <c r="AW142" s="10"/>
       <c r="AX142" s="10"/>
       <c r="AY142" s="10"/>
-      <c r="AZ142" s="21"/>
-      <c r="BA142" s="10"/>
+      <c r="AZ142" s="10"/>
+      <c r="BA142" s="21"/>
       <c r="BB142" s="10"/>
       <c r="BC142" s="10"/>
       <c r="BD142" s="10"/>
@@ -18258,11 +18569,13 @@
       <c r="BP142" s="10"/>
       <c r="BQ142" s="10"/>
       <c r="BR142" s="10"/>
-      <c r="BS142" s="10"/>
+      <c r="BS142" s="27"/>
       <c r="BT142" s="10"/>
       <c r="BU142" s="10"/>
+      <c r="BV142" s="10"/>
+      <c r="BW142" s="10"/>
     </row>
-    <row r="143" spans="2:73">
+    <row r="143" spans="2:75">
       <c r="D143" s="10"/>
       <c r="E143" s="21"/>
       <c r="F143" s="10"/>
@@ -18297,22 +18610,22 @@
       <c r="AI143" s="10"/>
       <c r="AJ143" s="10"/>
       <c r="AK143" s="10"/>
-      <c r="AL143" s="10"/>
+      <c r="AL143" s="27"/>
       <c r="AM143" s="10"/>
-      <c r="AN143" s="21"/>
-      <c r="AO143" s="10"/>
+      <c r="AN143" s="10"/>
+      <c r="AO143" s="21"/>
       <c r="AP143" s="10"/>
       <c r="AQ143" s="10"/>
       <c r="AR143" s="10"/>
       <c r="AS143" s="10"/>
       <c r="AT143" s="10"/>
-      <c r="AU143" s="21"/>
-      <c r="AV143" s="10"/>
+      <c r="AU143" s="10"/>
+      <c r="AV143" s="21"/>
       <c r="AW143" s="10"/>
       <c r="AX143" s="10"/>
       <c r="AY143" s="10"/>
-      <c r="AZ143" s="21"/>
-      <c r="BA143" s="10"/>
+      <c r="AZ143" s="10"/>
+      <c r="BA143" s="21"/>
       <c r="BB143" s="10"/>
       <c r="BC143" s="10"/>
       <c r="BD143" s="10"/>
@@ -18330,11 +18643,13 @@
       <c r="BP143" s="10"/>
       <c r="BQ143" s="10"/>
       <c r="BR143" s="10"/>
-      <c r="BS143" s="10"/>
+      <c r="BS143" s="27"/>
       <c r="BT143" s="10"/>
       <c r="BU143" s="10"/>
+      <c r="BV143" s="10"/>
+      <c r="BW143" s="10"/>
     </row>
-    <row r="144" spans="2:73">
+    <row r="144" spans="2:75">
       <c r="D144" s="10"/>
       <c r="E144" s="21"/>
       <c r="F144" s="10"/>
@@ -18369,22 +18684,22 @@
       <c r="AI144" s="10"/>
       <c r="AJ144" s="10"/>
       <c r="AK144" s="10"/>
-      <c r="AL144" s="10"/>
+      <c r="AL144" s="27"/>
       <c r="AM144" s="10"/>
-      <c r="AN144" s="21"/>
-      <c r="AO144" s="10"/>
+      <c r="AN144" s="10"/>
+      <c r="AO144" s="21"/>
       <c r="AP144" s="10"/>
       <c r="AQ144" s="10"/>
       <c r="AR144" s="10"/>
       <c r="AS144" s="10"/>
       <c r="AT144" s="10"/>
-      <c r="AU144" s="21"/>
-      <c r="AV144" s="10"/>
+      <c r="AU144" s="10"/>
+      <c r="AV144" s="21"/>
       <c r="AW144" s="10"/>
       <c r="AX144" s="10"/>
       <c r="AY144" s="10"/>
-      <c r="AZ144" s="21"/>
-      <c r="BA144" s="10"/>
+      <c r="AZ144" s="10"/>
+      <c r="BA144" s="21"/>
       <c r="BB144" s="10"/>
       <c r="BC144" s="10"/>
       <c r="BD144" s="10"/>
@@ -18402,11 +18717,13 @@
       <c r="BP144" s="10"/>
       <c r="BQ144" s="10"/>
       <c r="BR144" s="10"/>
-      <c r="BS144" s="10"/>
+      <c r="BS144" s="27"/>
       <c r="BT144" s="10"/>
       <c r="BU144" s="10"/>
+      <c r="BV144" s="10"/>
+      <c r="BW144" s="10"/>
     </row>
-    <row r="145" spans="4:73">
+    <row r="145" spans="4:75">
       <c r="D145" s="10"/>
       <c r="E145" s="21"/>
       <c r="F145" s="10"/>
@@ -18441,22 +18758,22 @@
       <c r="AI145" s="10"/>
       <c r="AJ145" s="10"/>
       <c r="AK145" s="10"/>
-      <c r="AL145" s="10"/>
+      <c r="AL145" s="27"/>
       <c r="AM145" s="10"/>
-      <c r="AN145" s="21"/>
-      <c r="AO145" s="10"/>
+      <c r="AN145" s="10"/>
+      <c r="AO145" s="21"/>
       <c r="AP145" s="10"/>
       <c r="AQ145" s="10"/>
       <c r="AR145" s="10"/>
       <c r="AS145" s="10"/>
       <c r="AT145" s="10"/>
-      <c r="AU145" s="21"/>
-      <c r="AV145" s="10"/>
+      <c r="AU145" s="10"/>
+      <c r="AV145" s="21"/>
       <c r="AW145" s="10"/>
       <c r="AX145" s="10"/>
       <c r="AY145" s="10"/>
-      <c r="AZ145" s="21"/>
-      <c r="BA145" s="10"/>
+      <c r="AZ145" s="10"/>
+      <c r="BA145" s="21"/>
       <c r="BB145" s="10"/>
       <c r="BC145" s="10"/>
       <c r="BD145" s="10"/>
@@ -18474,11 +18791,13 @@
       <c r="BP145" s="10"/>
       <c r="BQ145" s="10"/>
       <c r="BR145" s="10"/>
-      <c r="BS145" s="10"/>
+      <c r="BS145" s="27"/>
       <c r="BT145" s="10"/>
       <c r="BU145" s="10"/>
+      <c r="BV145" s="10"/>
+      <c r="BW145" s="10"/>
     </row>
-    <row r="146" spans="4:73">
+    <row r="146" spans="4:75">
       <c r="D146" s="10"/>
       <c r="E146" s="21"/>
       <c r="F146" s="10"/>
@@ -18513,22 +18832,22 @@
       <c r="AI146" s="10"/>
       <c r="AJ146" s="10"/>
       <c r="AK146" s="10"/>
-      <c r="AL146" s="10"/>
+      <c r="AL146" s="27"/>
       <c r="AM146" s="10"/>
-      <c r="AN146" s="21"/>
-      <c r="AO146" s="10"/>
+      <c r="AN146" s="10"/>
+      <c r="AO146" s="21"/>
       <c r="AP146" s="10"/>
       <c r="AQ146" s="10"/>
       <c r="AR146" s="10"/>
       <c r="AS146" s="10"/>
       <c r="AT146" s="10"/>
-      <c r="AU146" s="21"/>
-      <c r="AV146" s="10"/>
+      <c r="AU146" s="10"/>
+      <c r="AV146" s="21"/>
       <c r="AW146" s="10"/>
       <c r="AX146" s="10"/>
       <c r="AY146" s="10"/>
-      <c r="AZ146" s="21"/>
-      <c r="BA146" s="10"/>
+      <c r="AZ146" s="10"/>
+      <c r="BA146" s="21"/>
       <c r="BB146" s="10"/>
       <c r="BC146" s="10"/>
       <c r="BD146" s="10"/>
@@ -18546,11 +18865,13 @@
       <c r="BP146" s="10"/>
       <c r="BQ146" s="10"/>
       <c r="BR146" s="10"/>
-      <c r="BS146" s="10"/>
+      <c r="BS146" s="27"/>
       <c r="BT146" s="10"/>
       <c r="BU146" s="10"/>
+      <c r="BV146" s="10"/>
+      <c r="BW146" s="10"/>
     </row>
-    <row r="147" spans="4:73">
+    <row r="147" spans="4:75">
       <c r="D147" s="10"/>
       <c r="E147" s="21"/>
       <c r="F147" s="10"/>
@@ -18585,22 +18906,22 @@
       <c r="AI147" s="10"/>
       <c r="AJ147" s="10"/>
       <c r="AK147" s="10"/>
-      <c r="AL147" s="10"/>
+      <c r="AL147" s="27"/>
       <c r="AM147" s="10"/>
-      <c r="AN147" s="21"/>
-      <c r="AO147" s="10"/>
+      <c r="AN147" s="10"/>
+      <c r="AO147" s="21"/>
       <c r="AP147" s="10"/>
       <c r="AQ147" s="10"/>
       <c r="AR147" s="10"/>
       <c r="AS147" s="10"/>
       <c r="AT147" s="10"/>
-      <c r="AU147" s="21"/>
-      <c r="AV147" s="10"/>
+      <c r="AU147" s="10"/>
+      <c r="AV147" s="21"/>
       <c r="AW147" s="10"/>
       <c r="AX147" s="10"/>
       <c r="AY147" s="10"/>
-      <c r="AZ147" s="21"/>
-      <c r="BA147" s="10"/>
+      <c r="AZ147" s="10"/>
+      <c r="BA147" s="21"/>
       <c r="BB147" s="10"/>
       <c r="BC147" s="10"/>
       <c r="BD147" s="10"/>
@@ -18618,11 +18939,13 @@
       <c r="BP147" s="10"/>
       <c r="BQ147" s="10"/>
       <c r="BR147" s="10"/>
-      <c r="BS147" s="10"/>
+      <c r="BS147" s="27"/>
       <c r="BT147" s="10"/>
       <c r="BU147" s="10"/>
+      <c r="BV147" s="10"/>
+      <c r="BW147" s="10"/>
     </row>
-    <row r="148" spans="4:73">
+    <row r="148" spans="4:75">
       <c r="D148" s="10"/>
       <c r="E148" s="21"/>
       <c r="F148" s="10"/>
@@ -18657,22 +18980,22 @@
       <c r="AI148" s="10"/>
       <c r="AJ148" s="10"/>
       <c r="AK148" s="10"/>
-      <c r="AL148" s="10"/>
+      <c r="AL148" s="27"/>
       <c r="AM148" s="10"/>
-      <c r="AN148" s="21"/>
-      <c r="AO148" s="10"/>
+      <c r="AN148" s="10"/>
+      <c r="AO148" s="21"/>
       <c r="AP148" s="10"/>
       <c r="AQ148" s="10"/>
       <c r="AR148" s="10"/>
       <c r="AS148" s="10"/>
       <c r="AT148" s="10"/>
-      <c r="AU148" s="21"/>
-      <c r="AV148" s="10"/>
+      <c r="AU148" s="10"/>
+      <c r="AV148" s="21"/>
       <c r="AW148" s="10"/>
       <c r="AX148" s="10"/>
       <c r="AY148" s="10"/>
-      <c r="AZ148" s="21"/>
-      <c r="BA148" s="10"/>
+      <c r="AZ148" s="10"/>
+      <c r="BA148" s="21"/>
       <c r="BB148" s="10"/>
       <c r="BC148" s="10"/>
       <c r="BD148" s="10"/>
@@ -18690,11 +19013,13 @@
       <c r="BP148" s="10"/>
       <c r="BQ148" s="10"/>
       <c r="BR148" s="10"/>
-      <c r="BS148" s="10"/>
+      <c r="BS148" s="27"/>
       <c r="BT148" s="10"/>
       <c r="BU148" s="10"/>
+      <c r="BV148" s="10"/>
+      <c r="BW148" s="10"/>
     </row>
-    <row r="149" spans="4:73">
+    <row r="149" spans="4:75">
       <c r="D149" s="10"/>
       <c r="E149" s="21"/>
       <c r="F149" s="10"/>
@@ -18729,22 +19054,22 @@
       <c r="AI149" s="10"/>
       <c r="AJ149" s="10"/>
       <c r="AK149" s="10"/>
-      <c r="AL149" s="10"/>
+      <c r="AL149" s="27"/>
       <c r="AM149" s="10"/>
-      <c r="AN149" s="21"/>
-      <c r="AO149" s="10"/>
+      <c r="AN149" s="10"/>
+      <c r="AO149" s="21"/>
       <c r="AP149" s="10"/>
       <c r="AQ149" s="10"/>
       <c r="AR149" s="10"/>
       <c r="AS149" s="10"/>
       <c r="AT149" s="10"/>
-      <c r="AU149" s="21"/>
-      <c r="AV149" s="10"/>
+      <c r="AU149" s="10"/>
+      <c r="AV149" s="21"/>
       <c r="AW149" s="10"/>
       <c r="AX149" s="10"/>
       <c r="AY149" s="10"/>
-      <c r="AZ149" s="21"/>
-      <c r="BA149" s="10"/>
+      <c r="AZ149" s="10"/>
+      <c r="BA149" s="21"/>
       <c r="BB149" s="10"/>
       <c r="BC149" s="10"/>
       <c r="BD149" s="10"/>
@@ -18762,11 +19087,13 @@
       <c r="BP149" s="10"/>
       <c r="BQ149" s="10"/>
       <c r="BR149" s="10"/>
-      <c r="BS149" s="10"/>
+      <c r="BS149" s="27"/>
       <c r="BT149" s="10"/>
       <c r="BU149" s="10"/>
+      <c r="BV149" s="10"/>
+      <c r="BW149" s="10"/>
     </row>
-    <row r="150" spans="4:73">
+    <row r="150" spans="4:75">
       <c r="D150" s="10"/>
       <c r="E150" s="21"/>
       <c r="F150" s="10"/>
@@ -18801,22 +19128,22 @@
       <c r="AI150" s="10"/>
       <c r="AJ150" s="10"/>
       <c r="AK150" s="10"/>
-      <c r="AL150" s="10"/>
+      <c r="AL150" s="27"/>
       <c r="AM150" s="10"/>
-      <c r="AN150" s="21"/>
-      <c r="AO150" s="10"/>
+      <c r="AN150" s="10"/>
+      <c r="AO150" s="21"/>
       <c r="AP150" s="10"/>
       <c r="AQ150" s="10"/>
       <c r="AR150" s="10"/>
       <c r="AS150" s="10"/>
       <c r="AT150" s="10"/>
-      <c r="AU150" s="21"/>
-      <c r="AV150" s="10"/>
+      <c r="AU150" s="10"/>
+      <c r="AV150" s="21"/>
       <c r="AW150" s="10"/>
       <c r="AX150" s="10"/>
       <c r="AY150" s="10"/>
-      <c r="AZ150" s="21"/>
-      <c r="BA150" s="10"/>
+      <c r="AZ150" s="10"/>
+      <c r="BA150" s="21"/>
       <c r="BB150" s="10"/>
       <c r="BC150" s="10"/>
       <c r="BD150" s="10"/>
@@ -18834,11 +19161,13 @@
       <c r="BP150" s="10"/>
       <c r="BQ150" s="10"/>
       <c r="BR150" s="10"/>
-      <c r="BS150" s="10"/>
+      <c r="BS150" s="27"/>
       <c r="BT150" s="10"/>
       <c r="BU150" s="10"/>
+      <c r="BV150" s="10"/>
+      <c r="BW150" s="10"/>
     </row>
-    <row r="151" spans="4:73">
+    <row r="151" spans="4:75">
       <c r="D151" s="10"/>
       <c r="E151" s="21"/>
       <c r="F151" s="10"/>
@@ -18873,22 +19202,22 @@
       <c r="AI151" s="10"/>
       <c r="AJ151" s="10"/>
       <c r="AK151" s="10"/>
-      <c r="AL151" s="10"/>
+      <c r="AL151" s="27"/>
       <c r="AM151" s="10"/>
-      <c r="AN151" s="21"/>
-      <c r="AO151" s="10"/>
+      <c r="AN151" s="10"/>
+      <c r="AO151" s="21"/>
       <c r="AP151" s="10"/>
       <c r="AQ151" s="10"/>
       <c r="AR151" s="10"/>
       <c r="AS151" s="10"/>
       <c r="AT151" s="10"/>
-      <c r="AU151" s="21"/>
-      <c r="AV151" s="10"/>
+      <c r="AU151" s="10"/>
+      <c r="AV151" s="21"/>
       <c r="AW151" s="10"/>
       <c r="AX151" s="10"/>
       <c r="AY151" s="10"/>
-      <c r="AZ151" s="21"/>
-      <c r="BA151" s="10"/>
+      <c r="AZ151" s="10"/>
+      <c r="BA151" s="21"/>
       <c r="BB151" s="10"/>
       <c r="BC151" s="10"/>
       <c r="BD151" s="10"/>
@@ -18906,11 +19235,13 @@
       <c r="BP151" s="10"/>
       <c r="BQ151" s="10"/>
       <c r="BR151" s="10"/>
-      <c r="BS151" s="10"/>
+      <c r="BS151" s="27"/>
       <c r="BT151" s="10"/>
       <c r="BU151" s="10"/>
+      <c r="BV151" s="10"/>
+      <c r="BW151" s="10"/>
     </row>
-    <row r="152" spans="4:73">
+    <row r="152" spans="4:75">
       <c r="D152" s="10"/>
       <c r="E152" s="21"/>
       <c r="F152" s="10"/>
@@ -18945,22 +19276,22 @@
       <c r="AI152" s="10"/>
       <c r="AJ152" s="10"/>
       <c r="AK152" s="10"/>
-      <c r="AL152" s="10"/>
+      <c r="AL152" s="27"/>
       <c r="AM152" s="10"/>
-      <c r="AN152" s="21"/>
-      <c r="AO152" s="10"/>
+      <c r="AN152" s="10"/>
+      <c r="AO152" s="21"/>
       <c r="AP152" s="10"/>
       <c r="AQ152" s="10"/>
       <c r="AR152" s="10"/>
       <c r="AS152" s="10"/>
       <c r="AT152" s="10"/>
-      <c r="AU152" s="21"/>
-      <c r="AV152" s="10"/>
+      <c r="AU152" s="10"/>
+      <c r="AV152" s="21"/>
       <c r="AW152" s="10"/>
       <c r="AX152" s="10"/>
       <c r="AY152" s="10"/>
-      <c r="AZ152" s="21"/>
-      <c r="BA152" s="10"/>
+      <c r="AZ152" s="10"/>
+      <c r="BA152" s="21"/>
       <c r="BB152" s="10"/>
       <c r="BC152" s="10"/>
       <c r="BD152" s="10"/>
@@ -18978,11 +19309,13 @@
       <c r="BP152" s="10"/>
       <c r="BQ152" s="10"/>
       <c r="BR152" s="10"/>
-      <c r="BS152" s="10"/>
+      <c r="BS152" s="27"/>
       <c r="BT152" s="10"/>
       <c r="BU152" s="10"/>
+      <c r="BV152" s="10"/>
+      <c r="BW152" s="10"/>
     </row>
-    <row r="153" spans="4:73">
+    <row r="153" spans="4:75">
       <c r="D153" s="10"/>
       <c r="E153" s="21"/>
       <c r="F153" s="10"/>
@@ -19017,22 +19350,22 @@
       <c r="AI153" s="10"/>
       <c r="AJ153" s="10"/>
       <c r="AK153" s="10"/>
-      <c r="AL153" s="10"/>
+      <c r="AL153" s="27"/>
       <c r="AM153" s="10"/>
-      <c r="AN153" s="21"/>
-      <c r="AO153" s="10"/>
+      <c r="AN153" s="10"/>
+      <c r="AO153" s="21"/>
       <c r="AP153" s="10"/>
       <c r="AQ153" s="10"/>
       <c r="AR153" s="10"/>
       <c r="AS153" s="10"/>
       <c r="AT153" s="10"/>
-      <c r="AU153" s="21"/>
-      <c r="AV153" s="10"/>
+      <c r="AU153" s="10"/>
+      <c r="AV153" s="21"/>
       <c r="AW153" s="10"/>
       <c r="AX153" s="10"/>
       <c r="AY153" s="10"/>
-      <c r="AZ153" s="21"/>
-      <c r="BA153" s="10"/>
+      <c r="AZ153" s="10"/>
+      <c r="BA153" s="21"/>
       <c r="BB153" s="10"/>
       <c r="BC153" s="10"/>
       <c r="BD153" s="10"/>
@@ -19050,11 +19383,13 @@
       <c r="BP153" s="10"/>
       <c r="BQ153" s="10"/>
       <c r="BR153" s="10"/>
-      <c r="BS153" s="10"/>
+      <c r="BS153" s="27"/>
       <c r="BT153" s="10"/>
       <c r="BU153" s="10"/>
+      <c r="BV153" s="10"/>
+      <c r="BW153" s="10"/>
     </row>
-    <row r="154" spans="4:73">
+    <row r="154" spans="4:75">
       <c r="D154" s="10"/>
       <c r="E154" s="21"/>
       <c r="F154" s="10"/>
@@ -19089,22 +19424,22 @@
       <c r="AI154" s="10"/>
       <c r="AJ154" s="10"/>
       <c r="AK154" s="10"/>
-      <c r="AL154" s="10"/>
+      <c r="AL154" s="27"/>
       <c r="AM154" s="10"/>
-      <c r="AN154" s="21"/>
-      <c r="AO154" s="10"/>
+      <c r="AN154" s="10"/>
+      <c r="AO154" s="21"/>
       <c r="AP154" s="10"/>
       <c r="AQ154" s="10"/>
       <c r="AR154" s="10"/>
       <c r="AS154" s="10"/>
       <c r="AT154" s="10"/>
-      <c r="AU154" s="21"/>
-      <c r="AV154" s="10"/>
+      <c r="AU154" s="10"/>
+      <c r="AV154" s="21"/>
       <c r="AW154" s="10"/>
       <c r="AX154" s="10"/>
       <c r="AY154" s="10"/>
-      <c r="AZ154" s="21"/>
-      <c r="BA154" s="10"/>
+      <c r="AZ154" s="10"/>
+      <c r="BA154" s="21"/>
       <c r="BB154" s="10"/>
       <c r="BC154" s="10"/>
       <c r="BD154" s="10"/>
@@ -19122,11 +19457,13 @@
       <c r="BP154" s="10"/>
       <c r="BQ154" s="10"/>
       <c r="BR154" s="10"/>
-      <c r="BS154" s="10"/>
+      <c r="BS154" s="27"/>
       <c r="BT154" s="10"/>
       <c r="BU154" s="10"/>
+      <c r="BV154" s="10"/>
+      <c r="BW154" s="10"/>
     </row>
-    <row r="155" spans="4:73">
+    <row r="155" spans="4:75">
       <c r="D155" s="10"/>
       <c r="E155" s="21"/>
       <c r="F155" s="10"/>
@@ -19161,22 +19498,22 @@
       <c r="AI155" s="10"/>
       <c r="AJ155" s="10"/>
       <c r="AK155" s="10"/>
-      <c r="AL155" s="10"/>
+      <c r="AL155" s="27"/>
       <c r="AM155" s="10"/>
-      <c r="AN155" s="21"/>
-      <c r="AO155" s="10"/>
+      <c r="AN155" s="10"/>
+      <c r="AO155" s="21"/>
       <c r="AP155" s="10"/>
       <c r="AQ155" s="10"/>
       <c r="AR155" s="10"/>
       <c r="AS155" s="10"/>
       <c r="AT155" s="10"/>
-      <c r="AU155" s="21"/>
-      <c r="AV155" s="10"/>
+      <c r="AU155" s="10"/>
+      <c r="AV155" s="21"/>
       <c r="AW155" s="10"/>
       <c r="AX155" s="10"/>
       <c r="AY155" s="10"/>
-      <c r="AZ155" s="21"/>
-      <c r="BA155" s="10"/>
+      <c r="AZ155" s="10"/>
+      <c r="BA155" s="21"/>
       <c r="BB155" s="10"/>
       <c r="BC155" s="10"/>
       <c r="BD155" s="10"/>
@@ -19194,11 +19531,13 @@
       <c r="BP155" s="10"/>
       <c r="BQ155" s="10"/>
       <c r="BR155" s="10"/>
-      <c r="BS155" s="10"/>
+      <c r="BS155" s="27"/>
       <c r="BT155" s="10"/>
       <c r="BU155" s="10"/>
+      <c r="BV155" s="10"/>
+      <c r="BW155" s="10"/>
     </row>
-    <row r="156" spans="4:73">
+    <row r="156" spans="4:75">
       <c r="D156" s="10"/>
       <c r="E156" s="21"/>
       <c r="F156" s="10"/>
@@ -19233,22 +19572,22 @@
       <c r="AI156" s="10"/>
       <c r="AJ156" s="10"/>
       <c r="AK156" s="10"/>
-      <c r="AL156" s="10"/>
+      <c r="AL156" s="27"/>
       <c r="AM156" s="10"/>
-      <c r="AN156" s="21"/>
-      <c r="AO156" s="10"/>
+      <c r="AN156" s="10"/>
+      <c r="AO156" s="21"/>
       <c r="AP156" s="10"/>
       <c r="AQ156" s="10"/>
       <c r="AR156" s="10"/>
       <c r="AS156" s="10"/>
       <c r="AT156" s="10"/>
-      <c r="AU156" s="21"/>
-      <c r="AV156" s="10"/>
+      <c r="AU156" s="10"/>
+      <c r="AV156" s="21"/>
       <c r="AW156" s="10"/>
       <c r="AX156" s="10"/>
       <c r="AY156" s="10"/>
-      <c r="AZ156" s="21"/>
-      <c r="BA156" s="10"/>
+      <c r="AZ156" s="10"/>
+      <c r="BA156" s="21"/>
       <c r="BB156" s="10"/>
       <c r="BC156" s="10"/>
       <c r="BD156" s="10"/>
@@ -19266,11 +19605,13 @@
       <c r="BP156" s="10"/>
       <c r="BQ156" s="10"/>
       <c r="BR156" s="10"/>
-      <c r="BS156" s="10"/>
+      <c r="BS156" s="27"/>
       <c r="BT156" s="10"/>
       <c r="BU156" s="10"/>
+      <c r="BV156" s="10"/>
+      <c r="BW156" s="10"/>
     </row>
-    <row r="157" spans="4:73">
+    <row r="157" spans="4:75">
       <c r="D157" s="10"/>
       <c r="E157" s="21"/>
       <c r="F157" s="10"/>
@@ -19305,22 +19646,22 @@
       <c r="AI157" s="10"/>
       <c r="AJ157" s="10"/>
       <c r="AK157" s="10"/>
-      <c r="AL157" s="10"/>
+      <c r="AL157" s="27"/>
       <c r="AM157" s="10"/>
-      <c r="AN157" s="21"/>
-      <c r="AO157" s="10"/>
+      <c r="AN157" s="10"/>
+      <c r="AO157" s="21"/>
       <c r="AP157" s="10"/>
       <c r="AQ157" s="10"/>
       <c r="AR157" s="10"/>
       <c r="AS157" s="10"/>
       <c r="AT157" s="10"/>
-      <c r="AU157" s="21"/>
-      <c r="AV157" s="10"/>
+      <c r="AU157" s="10"/>
+      <c r="AV157" s="21"/>
       <c r="AW157" s="10"/>
       <c r="AX157" s="10"/>
       <c r="AY157" s="10"/>
-      <c r="AZ157" s="21"/>
-      <c r="BA157" s="10"/>
+      <c r="AZ157" s="10"/>
+      <c r="BA157" s="21"/>
       <c r="BB157" s="10"/>
       <c r="BC157" s="10"/>
       <c r="BD157" s="10"/>
@@ -19338,11 +19679,13 @@
       <c r="BP157" s="10"/>
       <c r="BQ157" s="10"/>
       <c r="BR157" s="10"/>
-      <c r="BS157" s="10"/>
+      <c r="BS157" s="27"/>
       <c r="BT157" s="10"/>
       <c r="BU157" s="10"/>
+      <c r="BV157" s="10"/>
+      <c r="BW157" s="10"/>
     </row>
-    <row r="158" spans="4:73">
+    <row r="158" spans="4:75">
       <c r="D158" s="10"/>
       <c r="E158" s="21"/>
       <c r="F158" s="10"/>
@@ -19377,22 +19720,22 @@
       <c r="AI158" s="10"/>
       <c r="AJ158" s="10"/>
       <c r="AK158" s="10"/>
-      <c r="AL158" s="10"/>
+      <c r="AL158" s="27"/>
       <c r="AM158" s="10"/>
-      <c r="AN158" s="21"/>
-      <c r="AO158" s="10"/>
+      <c r="AN158" s="10"/>
+      <c r="AO158" s="21"/>
       <c r="AP158" s="10"/>
       <c r="AQ158" s="10"/>
       <c r="AR158" s="10"/>
       <c r="AS158" s="10"/>
       <c r="AT158" s="10"/>
-      <c r="AU158" s="21"/>
-      <c r="AV158" s="10"/>
+      <c r="AU158" s="10"/>
+      <c r="AV158" s="21"/>
       <c r="AW158" s="10"/>
       <c r="AX158" s="10"/>
       <c r="AY158" s="10"/>
-      <c r="AZ158" s="21"/>
-      <c r="BA158" s="10"/>
+      <c r="AZ158" s="10"/>
+      <c r="BA158" s="21"/>
       <c r="BB158" s="10"/>
       <c r="BC158" s="10"/>
       <c r="BD158" s="10"/>
@@ -19410,11 +19753,13 @@
       <c r="BP158" s="10"/>
       <c r="BQ158" s="10"/>
       <c r="BR158" s="10"/>
-      <c r="BS158" s="10"/>
+      <c r="BS158" s="27"/>
       <c r="BT158" s="10"/>
       <c r="BU158" s="10"/>
+      <c r="BV158" s="10"/>
+      <c r="BW158" s="10"/>
     </row>
-    <row r="159" spans="4:73">
+    <row r="159" spans="4:75">
       <c r="D159" s="10"/>
       <c r="E159" s="21"/>
       <c r="F159" s="10"/>
@@ -19449,22 +19794,22 @@
       <c r="AI159" s="10"/>
       <c r="AJ159" s="10"/>
       <c r="AK159" s="10"/>
-      <c r="AL159" s="10"/>
+      <c r="AL159" s="27"/>
       <c r="AM159" s="10"/>
-      <c r="AN159" s="21"/>
-      <c r="AO159" s="10"/>
+      <c r="AN159" s="10"/>
+      <c r="AO159" s="21"/>
       <c r="AP159" s="10"/>
       <c r="AQ159" s="10"/>
       <c r="AR159" s="10"/>
       <c r="AS159" s="10"/>
       <c r="AT159" s="10"/>
-      <c r="AU159" s="21"/>
-      <c r="AV159" s="10"/>
+      <c r="AU159" s="10"/>
+      <c r="AV159" s="21"/>
       <c r="AW159" s="10"/>
       <c r="AX159" s="10"/>
       <c r="AY159" s="10"/>
-      <c r="AZ159" s="21"/>
-      <c r="BA159" s="10"/>
+      <c r="AZ159" s="10"/>
+      <c r="BA159" s="21"/>
       <c r="BB159" s="10"/>
       <c r="BC159" s="10"/>
       <c r="BD159" s="10"/>
@@ -19482,11 +19827,13 @@
       <c r="BP159" s="10"/>
       <c r="BQ159" s="10"/>
       <c r="BR159" s="10"/>
-      <c r="BS159" s="10"/>
+      <c r="BS159" s="27"/>
       <c r="BT159" s="10"/>
       <c r="BU159" s="10"/>
+      <c r="BV159" s="10"/>
+      <c r="BW159" s="10"/>
     </row>
-    <row r="160" spans="4:73">
+    <row r="160" spans="4:75">
       <c r="D160" s="10"/>
       <c r="E160" s="21"/>
       <c r="F160" s="10"/>
@@ -19521,22 +19868,22 @@
       <c r="AI160" s="10"/>
       <c r="AJ160" s="10"/>
       <c r="AK160" s="10"/>
-      <c r="AL160" s="10"/>
+      <c r="AL160" s="27"/>
       <c r="AM160" s="10"/>
-      <c r="AN160" s="21"/>
-      <c r="AO160" s="10"/>
+      <c r="AN160" s="10"/>
+      <c r="AO160" s="21"/>
       <c r="AP160" s="10"/>
       <c r="AQ160" s="10"/>
       <c r="AR160" s="10"/>
       <c r="AS160" s="10"/>
       <c r="AT160" s="10"/>
-      <c r="AU160" s="21"/>
-      <c r="AV160" s="10"/>
+      <c r="AU160" s="10"/>
+      <c r="AV160" s="21"/>
       <c r="AW160" s="10"/>
       <c r="AX160" s="10"/>
       <c r="AY160" s="10"/>
-      <c r="AZ160" s="21"/>
-      <c r="BA160" s="10"/>
+      <c r="AZ160" s="10"/>
+      <c r="BA160" s="21"/>
       <c r="BB160" s="10"/>
       <c r="BC160" s="10"/>
       <c r="BD160" s="10"/>
@@ -19554,11 +19901,13 @@
       <c r="BP160" s="10"/>
       <c r="BQ160" s="10"/>
       <c r="BR160" s="10"/>
-      <c r="BS160" s="10"/>
+      <c r="BS160" s="27"/>
       <c r="BT160" s="10"/>
       <c r="BU160" s="10"/>
+      <c r="BV160" s="10"/>
+      <c r="BW160" s="10"/>
     </row>
-    <row r="161" spans="4:73">
+    <row r="161" spans="4:75">
       <c r="D161" s="10"/>
       <c r="E161" s="21"/>
       <c r="F161" s="10"/>
@@ -19593,22 +19942,22 @@
       <c r="AI161" s="10"/>
       <c r="AJ161" s="10"/>
       <c r="AK161" s="10"/>
-      <c r="AL161" s="10"/>
+      <c r="AL161" s="27"/>
       <c r="AM161" s="10"/>
-      <c r="AN161" s="21"/>
-      <c r="AO161" s="10"/>
+      <c r="AN161" s="10"/>
+      <c r="AO161" s="21"/>
       <c r="AP161" s="10"/>
       <c r="AQ161" s="10"/>
       <c r="AR161" s="10"/>
       <c r="AS161" s="10"/>
       <c r="AT161" s="10"/>
-      <c r="AU161" s="21"/>
-      <c r="AV161" s="10"/>
+      <c r="AU161" s="10"/>
+      <c r="AV161" s="21"/>
       <c r="AW161" s="10"/>
       <c r="AX161" s="10"/>
       <c r="AY161" s="10"/>
-      <c r="AZ161" s="21"/>
-      <c r="BA161" s="10"/>
+      <c r="AZ161" s="10"/>
+      <c r="BA161" s="21"/>
       <c r="BB161" s="10"/>
       <c r="BC161" s="10"/>
       <c r="BD161" s="10"/>
@@ -19626,11 +19975,13 @@
       <c r="BP161" s="10"/>
       <c r="BQ161" s="10"/>
       <c r="BR161" s="10"/>
-      <c r="BS161" s="10"/>
+      <c r="BS161" s="27"/>
       <c r="BT161" s="10"/>
       <c r="BU161" s="10"/>
+      <c r="BV161" s="10"/>
+      <c r="BW161" s="10"/>
     </row>
-    <row r="162" spans="4:73">
+    <row r="162" spans="4:75">
       <c r="D162" s="10"/>
       <c r="E162" s="21"/>
       <c r="F162" s="10"/>
@@ -19665,22 +20016,22 @@
       <c r="AI162" s="10"/>
       <c r="AJ162" s="10"/>
       <c r="AK162" s="10"/>
-      <c r="AL162" s="10"/>
+      <c r="AL162" s="27"/>
       <c r="AM162" s="10"/>
-      <c r="AN162" s="21"/>
-      <c r="AO162" s="10"/>
+      <c r="AN162" s="10"/>
+      <c r="AO162" s="21"/>
       <c r="AP162" s="10"/>
       <c r="AQ162" s="10"/>
       <c r="AR162" s="10"/>
       <c r="AS162" s="10"/>
       <c r="AT162" s="10"/>
-      <c r="AU162" s="21"/>
-      <c r="AV162" s="10"/>
+      <c r="AU162" s="10"/>
+      <c r="AV162" s="21"/>
       <c r="AW162" s="10"/>
       <c r="AX162" s="10"/>
       <c r="AY162" s="10"/>
-      <c r="AZ162" s="21"/>
-      <c r="BA162" s="10"/>
+      <c r="AZ162" s="10"/>
+      <c r="BA162" s="21"/>
       <c r="BB162" s="10"/>
       <c r="BC162" s="10"/>
       <c r="BD162" s="10"/>
@@ -19698,11 +20049,13 @@
       <c r="BP162" s="10"/>
       <c r="BQ162" s="10"/>
       <c r="BR162" s="10"/>
-      <c r="BS162" s="10"/>
+      <c r="BS162" s="27"/>
       <c r="BT162" s="10"/>
       <c r="BU162" s="10"/>
+      <c r="BV162" s="10"/>
+      <c r="BW162" s="10"/>
     </row>
-    <row r="163" spans="4:73">
+    <row r="163" spans="4:75">
       <c r="D163" s="10"/>
       <c r="E163" s="21"/>
       <c r="F163" s="10"/>
@@ -19737,22 +20090,22 @@
       <c r="AI163" s="10"/>
       <c r="AJ163" s="10"/>
       <c r="AK163" s="10"/>
-      <c r="AL163" s="10"/>
+      <c r="AL163" s="27"/>
       <c r="AM163" s="10"/>
-      <c r="AN163" s="21"/>
-      <c r="AO163" s="10"/>
+      <c r="AN163" s="10"/>
+      <c r="AO163" s="21"/>
       <c r="AP163" s="10"/>
       <c r="AQ163" s="10"/>
       <c r="AR163" s="10"/>
       <c r="AS163" s="10"/>
       <c r="AT163" s="10"/>
-      <c r="AU163" s="21"/>
-      <c r="AV163" s="10"/>
+      <c r="AU163" s="10"/>
+      <c r="AV163" s="21"/>
       <c r="AW163" s="10"/>
       <c r="AX163" s="10"/>
       <c r="AY163" s="10"/>
-      <c r="AZ163" s="21"/>
-      <c r="BA163" s="10"/>
+      <c r="AZ163" s="10"/>
+      <c r="BA163" s="21"/>
       <c r="BB163" s="10"/>
       <c r="BC163" s="10"/>
       <c r="BD163" s="10"/>
@@ -19770,11 +20123,13 @@
       <c r="BP163" s="10"/>
       <c r="BQ163" s="10"/>
       <c r="BR163" s="10"/>
-      <c r="BS163" s="10"/>
+      <c r="BS163" s="27"/>
       <c r="BT163" s="10"/>
       <c r="BU163" s="10"/>
+      <c r="BV163" s="10"/>
+      <c r="BW163" s="10"/>
     </row>
-    <row r="164" spans="4:73">
+    <row r="164" spans="4:75">
       <c r="D164" s="10"/>
       <c r="E164" s="21"/>
       <c r="F164" s="10"/>
@@ -19809,22 +20164,22 @@
       <c r="AI164" s="10"/>
       <c r="AJ164" s="10"/>
       <c r="AK164" s="10"/>
-      <c r="AL164" s="10"/>
+      <c r="AL164" s="27"/>
       <c r="AM164" s="10"/>
-      <c r="AN164" s="21"/>
-      <c r="AO164" s="10"/>
+      <c r="AN164" s="10"/>
+      <c r="AO164" s="21"/>
       <c r="AP164" s="10"/>
       <c r="AQ164" s="10"/>
       <c r="AR164" s="10"/>
       <c r="AS164" s="10"/>
       <c r="AT164" s="10"/>
-      <c r="AU164" s="21"/>
-      <c r="AV164" s="10"/>
+      <c r="AU164" s="10"/>
+      <c r="AV164" s="21"/>
       <c r="AW164" s="10"/>
       <c r="AX164" s="10"/>
       <c r="AY164" s="10"/>
-      <c r="AZ164" s="21"/>
-      <c r="BA164" s="10"/>
+      <c r="AZ164" s="10"/>
+      <c r="BA164" s="21"/>
       <c r="BB164" s="10"/>
       <c r="BC164" s="10"/>
       <c r="BD164" s="10"/>
@@ -19842,16 +20197,18 @@
       <c r="BP164" s="10"/>
       <c r="BQ164" s="10"/>
       <c r="BR164" s="10"/>
-      <c r="BS164" s="10"/>
+      <c r="BS164" s="27"/>
       <c r="BT164" s="10"/>
       <c r="BU164" s="10"/>
+      <c r="BV164" s="10"/>
+      <c r="BW164" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:B3"/>
-    <mergeCell ref="N2:DQ2"/>
+    <mergeCell ref="N2:DS2"/>
     <mergeCell ref="D9:L9"/>
-    <mergeCell ref="N9:DQ9"/>
+    <mergeCell ref="N9:DS9"/>
     <mergeCell ref="D2:L2"/>
   </mergeCells>
   <hyperlinks>

--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Dropbox\2014 - Hortonworks\Projects\HWX\nifi-templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-102400" yWindow="-15400" windowWidth="36540" windowHeight="20440" tabRatio="500"/>
+    <workbookView xWindow="-102405" yWindow="-15405" windowWidth="36540" windowHeight="20445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="219">
   <si>
     <t>Template Name:</t>
   </si>
@@ -686,6 +691,12 @@
   <si>
     <t>PutElasticsearch</t>
   </si>
+  <si>
+    <t>Download real-time stock prices and send to HBase and Solr</t>
+  </si>
+  <si>
+    <t>Send_stock_prices_to_HBase_and_Solr</t>
+  </si>
 </sst>
 </file>
 
@@ -1137,6 +1148,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1466,24 +1480,24 @@
   <dimension ref="A1:ED164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="CL47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="CM9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="EA47" sqref="EA47"/>
+      <selection pane="bottomRight" activeCell="EA48" sqref="EA48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="1.83203125" style="12" customWidth="1"/>
-    <col min="4" max="13" width="4.83203125" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" style="3" customWidth="1"/>
-    <col min="15" max="133" width="4.83203125" customWidth="1"/>
-    <col min="134" max="134" width="1.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="1.875" style="12" customWidth="1"/>
+    <col min="4" max="13" width="4.875" customWidth="1"/>
+    <col min="14" max="14" width="1.625" style="3" customWidth="1"/>
+    <col min="15" max="133" width="4.875" customWidth="1"/>
+    <col min="134" max="134" width="1.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:134" ht="16" thickBot="1">
+    <row r="1" spans="1:134" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="26" t="s">
         <v>153</v>
       </c>
@@ -1513,7 +1527,7 @@
       </c>
       <c r="J1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K1">
         <f t="shared" si="0"/>
@@ -1529,7 +1543,7 @@
       </c>
       <c r="O1">
         <f>COUNTIFS(O10:O300,"X")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P1">
         <f t="shared" ref="P1:CP1" si="1">COUNTIFS(P10:P300,"X")</f>
@@ -1605,7 +1619,7 @@
       </c>
       <c r="AH1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI1">
         <f t="shared" si="1"/>
@@ -1705,7 +1719,7 @@
       </c>
       <c r="BG1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH1">
         <f t="shared" si="1"/>
@@ -1797,7 +1811,7 @@
       </c>
       <c r="CE1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CF1">
         <f t="shared" si="1"/>
@@ -1853,7 +1867,7 @@
       </c>
       <c r="CT1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CU1">
         <f t="shared" si="2"/>
@@ -1885,7 +1899,7 @@
       </c>
       <c r="DB1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DC1">
         <f t="shared" si="2"/>
@@ -1953,7 +1967,7 @@
       </c>
       <c r="DT1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DU1">
         <f t="shared" si="2"/>
@@ -1981,7 +1995,7 @@
       </c>
       <c r="EA1">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="EB1">
         <f t="shared" si="2"/>
@@ -1992,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:134" s="5" customFormat="1" ht="48" customHeight="1" thickBot="1">
+    <row r="2" spans="1:134" s="5" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>183</v>
       </c>
@@ -2134,7 +2148,7 @@
       <c r="EC2" s="32"/>
       <c r="ED2" s="6"/>
     </row>
-    <row r="3" spans="1:134" s="1" customFormat="1" ht="221" customHeight="1" thickTop="1">
+    <row r="3" spans="1:134" s="1" customFormat="1" ht="221.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="20"/>
@@ -2528,11 +2542,11 @@
       </c>
       <c r="ED3" s="4"/>
     </row>
-    <row r="4" spans="1:134" s="3" customFormat="1" ht="8" customHeight="1">
+    <row r="4" spans="1:134" s="3" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:134">
+    <row r="5" spans="1:134" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
@@ -2620,7 +2634,7 @@
       <c r="CA5" s="10"/>
       <c r="CB5" s="10"/>
     </row>
-    <row r="6" spans="1:134">
+    <row r="6" spans="1:134" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
@@ -2714,7 +2728,7 @@
       <c r="CA6" s="10"/>
       <c r="CB6" s="10"/>
     </row>
-    <row r="7" spans="1:134">
+    <row r="7" spans="1:134" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
@@ -2808,7 +2822,7 @@
       <c r="CA7" s="10"/>
       <c r="CB7" s="10"/>
     </row>
-    <row r="8" spans="1:134" s="3" customFormat="1" ht="7" customHeight="1" thickBot="1">
+    <row r="8" spans="1:134" s="3" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="12"/>
       <c r="D8" s="11"/>
@@ -2889,7 +2903,7 @@
       <c r="CA8" s="11"/>
       <c r="CB8" s="11"/>
     </row>
-    <row r="9" spans="1:134" ht="25" customHeight="1" thickTop="1">
+    <row r="9" spans="1:134" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
@@ -3027,7 +3041,7 @@
       <c r="EB9" s="34"/>
       <c r="EC9" s="34"/>
     </row>
-    <row r="10" spans="1:134" ht="120">
+    <row r="10" spans="1:134" ht="126" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>110</v>
       </c>
@@ -3201,7 +3215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:134" ht="90">
+    <row r="11" spans="1:134" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>111</v>
       </c>
@@ -3351,7 +3365,7 @@
       <c r="EB11" s="13"/>
       <c r="EC11" s="13"/>
     </row>
-    <row r="12" spans="1:134" ht="72" customHeight="1">
+    <row r="12" spans="1:134" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>112</v>
       </c>
@@ -3497,7 +3511,7 @@
       <c r="EB12" s="13"/>
       <c r="EC12" s="13"/>
     </row>
-    <row r="13" spans="1:134" ht="72" customHeight="1">
+    <row r="13" spans="1:134" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>115</v>
       </c>
@@ -3645,7 +3659,7 @@
       <c r="EB13" s="13"/>
       <c r="EC13" s="13"/>
     </row>
-    <row r="14" spans="1:134" ht="90">
+    <row r="14" spans="1:134" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>116</v>
       </c>
@@ -3789,7 +3803,7 @@
       <c r="EB14" s="13"/>
       <c r="EC14" s="13"/>
     </row>
-    <row r="15" spans="1:134" ht="90">
+    <row r="15" spans="1:134" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -3943,7 +3957,7 @@
       <c r="EB15" s="13"/>
       <c r="EC15" s="13"/>
     </row>
-    <row r="16" spans="1:134" ht="72" customHeight="1">
+    <row r="16" spans="1:134" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>122</v>
       </c>
@@ -4093,7 +4107,7 @@
       <c r="EB16" s="13"/>
       <c r="EC16" s="13"/>
     </row>
-    <row r="17" spans="1:133" ht="120">
+    <row r="17" spans="1:133" ht="126" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>123</v>
       </c>
@@ -4241,7 +4255,7 @@
       <c r="EB17" s="13"/>
       <c r="EC17" s="13"/>
     </row>
-    <row r="18" spans="1:133" ht="72" customHeight="1">
+    <row r="18" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>126</v>
       </c>
@@ -4405,7 +4419,7 @@
       <c r="EB18" s="13"/>
       <c r="EC18" s="13"/>
     </row>
-    <row r="19" spans="1:133" ht="72" customHeight="1">
+    <row r="19" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>127</v>
       </c>
@@ -4549,7 +4563,7 @@
       <c r="EB19" s="13"/>
       <c r="EC19" s="13"/>
     </row>
-    <row r="20" spans="1:133" ht="90">
+    <row r="20" spans="1:133" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>128</v>
       </c>
@@ -4691,7 +4705,7 @@
       <c r="EB20" s="13"/>
       <c r="EC20" s="13"/>
     </row>
-    <row r="21" spans="1:133" ht="72" customHeight="1">
+    <row r="21" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>131</v>
       </c>
@@ -4837,7 +4851,7 @@
       <c r="EB21" s="13"/>
       <c r="EC21" s="13"/>
     </row>
-    <row r="22" spans="1:133" ht="105">
+    <row r="22" spans="1:133" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>133</v>
       </c>
@@ -4987,7 +5001,7 @@
       <c r="EB22" s="13"/>
       <c r="EC22" s="13"/>
     </row>
-    <row r="23" spans="1:133" ht="105">
+    <row r="23" spans="1:133" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>136</v>
       </c>
@@ -5135,7 +5149,7 @@
       <c r="EB23" s="13"/>
       <c r="EC23" s="13"/>
     </row>
-    <row r="24" spans="1:133" ht="120">
+    <row r="24" spans="1:133" ht="126" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>138</v>
       </c>
@@ -5279,7 +5293,7 @@
       <c r="EB24" s="13"/>
       <c r="EC24" s="13"/>
     </row>
-    <row r="25" spans="1:133" ht="75">
+    <row r="25" spans="1:133" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>140</v>
       </c>
@@ -5425,7 +5439,7 @@
       <c r="EB25" s="13"/>
       <c r="EC25" s="13"/>
     </row>
-    <row r="26" spans="1:133" ht="240">
+    <row r="26" spans="1:133" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>142</v>
       </c>
@@ -5577,7 +5591,7 @@
       <c r="EB26" s="13"/>
       <c r="EC26" s="13"/>
     </row>
-    <row r="27" spans="1:133" ht="330">
+    <row r="27" spans="1:133" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>144</v>
       </c>
@@ -5723,7 +5737,7 @@
       <c r="EB27" s="13"/>
       <c r="EC27" s="13"/>
     </row>
-    <row r="28" spans="1:133" ht="409">
+    <row r="28" spans="1:133" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>147</v>
       </c>
@@ -5881,7 +5895,7 @@
       <c r="EB28" s="13"/>
       <c r="EC28" s="13"/>
     </row>
-    <row r="29" spans="1:133" ht="72" customHeight="1">
+    <row r="29" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>163</v>
       </c>
@@ -6029,7 +6043,7 @@
       <c r="EB29" s="13"/>
       <c r="EC29" s="13"/>
     </row>
-    <row r="30" spans="1:133" ht="105">
+    <row r="30" spans="1:133" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>165</v>
       </c>
@@ -6183,7 +6197,7 @@
       <c r="EB30" s="13"/>
       <c r="EC30" s="13"/>
     </row>
-    <row r="31" spans="1:133" ht="165">
+    <row r="31" spans="1:133" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>168</v>
       </c>
@@ -6353,7 +6367,7 @@
       <c r="EB31" s="13"/>
       <c r="EC31" s="13"/>
     </row>
-    <row r="32" spans="1:133" ht="72" customHeight="1">
+    <row r="32" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>169</v>
       </c>
@@ -6501,7 +6515,7 @@
       <c r="EB32" s="13"/>
       <c r="EC32" s="13"/>
     </row>
-    <row r="33" spans="1:133" ht="72" customHeight="1">
+    <row r="33" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>171</v>
       </c>
@@ -6647,7 +6661,7 @@
       <c r="EB33" s="13"/>
       <c r="EC33" s="13"/>
     </row>
-    <row r="34" spans="1:133" ht="72" customHeight="1">
+    <row r="34" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>173</v>
       </c>
@@ -6801,7 +6815,7 @@
       <c r="EB34" s="13"/>
       <c r="EC34" s="13"/>
     </row>
-    <row r="35" spans="1:133" ht="72" customHeight="1">
+    <row r="35" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>175</v>
       </c>
@@ -6969,7 +6983,7 @@
       <c r="EB35" s="13"/>
       <c r="EC35" s="13"/>
     </row>
-    <row r="36" spans="1:133" ht="72" customHeight="1">
+    <row r="36" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>178</v>
       </c>
@@ -7123,7 +7137,7 @@
       <c r="EB36" s="13"/>
       <c r="EC36" s="13"/>
     </row>
-    <row r="37" spans="1:133" ht="72" customHeight="1">
+    <row r="37" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>179</v>
       </c>
@@ -7281,7 +7295,7 @@
       <c r="EB37" s="13"/>
       <c r="EC37" s="13"/>
     </row>
-    <row r="38" spans="1:133" ht="72" customHeight="1">
+    <row r="38" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>184</v>
       </c>
@@ -7429,7 +7443,7 @@
       <c r="EB38" s="13"/>
       <c r="EC38" s="13"/>
     </row>
-    <row r="39" spans="1:133" ht="72" customHeight="1">
+    <row r="39" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>186</v>
       </c>
@@ -7577,7 +7591,7 @@
       <c r="EB39" s="13"/>
       <c r="EC39" s="13"/>
     </row>
-    <row r="40" spans="1:133" ht="72" customHeight="1">
+    <row r="40" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>190</v>
       </c>
@@ -7743,7 +7757,7 @@
       <c r="EB40" s="13"/>
       <c r="EC40" s="13"/>
     </row>
-    <row r="41" spans="1:133" ht="72" customHeight="1">
+    <row r="41" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>193</v>
       </c>
@@ -7895,7 +7909,7 @@
       <c r="EB41" s="13"/>
       <c r="EC41" s="13"/>
     </row>
-    <row r="42" spans="1:133" ht="72" customHeight="1">
+    <row r="42" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>195</v>
       </c>
@@ -8047,7 +8061,7 @@
       <c r="EB42" s="13"/>
       <c r="EC42" s="13"/>
     </row>
-    <row r="43" spans="1:133" ht="72" customHeight="1">
+    <row r="43" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>197</v>
       </c>
@@ -8193,7 +8207,7 @@
       <c r="EB43" s="13"/>
       <c r="EC43" s="13"/>
     </row>
-    <row r="44" spans="1:133" ht="72" customHeight="1">
+    <row r="44" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>199</v>
       </c>
@@ -8341,7 +8355,7 @@
       <c r="EB44" s="13"/>
       <c r="EC44" s="13"/>
     </row>
-    <row r="45" spans="1:133" ht="72" customHeight="1">
+    <row r="45" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>204</v>
       </c>
@@ -8497,7 +8511,7 @@
       <c r="EB45" s="13"/>
       <c r="EC45" s="13"/>
     </row>
-    <row r="46" spans="1:133" ht="72" customHeight="1">
+    <row r="46" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>209</v>
       </c>
@@ -8645,7 +8659,7 @@
       <c r="EB46" s="13"/>
       <c r="EC46" s="13"/>
     </row>
-    <row r="47" spans="1:133" ht="72" customHeight="1">
+    <row r="47" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>213</v>
       </c>
@@ -8803,21 +8817,29 @@
       <c r="EB47" s="13"/>
       <c r="EC47" s="13"/>
     </row>
-    <row r="48" spans="1:133" ht="72" customHeight="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="24"/>
+    <row r="48" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>217</v>
+      </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
+      <c r="J48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="14"/>
-      <c r="O48" s="13"/>
+      <c r="O48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
       <c r="R48" s="13"/>
@@ -8836,7 +8858,9 @@
       <c r="AE48" s="13"/>
       <c r="AF48" s="13"/>
       <c r="AG48" s="13"/>
-      <c r="AH48" s="13"/>
+      <c r="AH48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="AI48" s="13"/>
       <c r="AJ48" s="13"/>
       <c r="AK48" s="13"/>
@@ -8861,7 +8885,9 @@
       <c r="BD48" s="13"/>
       <c r="BE48" s="13"/>
       <c r="BF48" s="13"/>
-      <c r="BG48" s="13"/>
+      <c r="BG48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="BH48" s="13"/>
       <c r="BI48" s="13"/>
       <c r="BJ48" s="13"/>
@@ -8885,7 +8911,9 @@
       <c r="CB48" s="13"/>
       <c r="CC48" s="13"/>
       <c r="CD48" s="13"/>
-      <c r="CE48" s="13"/>
+      <c r="CE48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="CF48" s="13"/>
       <c r="CG48" s="13"/>
       <c r="CH48" s="13"/>
@@ -8900,7 +8928,9 @@
       <c r="CQ48" s="13"/>
       <c r="CR48" s="13"/>
       <c r="CS48" s="13"/>
-      <c r="CT48" s="13"/>
+      <c r="CT48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="CU48" s="13"/>
       <c r="CV48" s="13"/>
       <c r="CW48" s="13"/>
@@ -8908,7 +8938,9 @@
       <c r="CY48" s="13"/>
       <c r="CZ48" s="13"/>
       <c r="DA48" s="13"/>
-      <c r="DB48" s="13"/>
+      <c r="DB48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="DC48" s="13"/>
       <c r="DD48" s="13"/>
       <c r="DE48" s="13"/>
@@ -8926,18 +8958,22 @@
       <c r="DQ48" s="13"/>
       <c r="DR48" s="13"/>
       <c r="DS48" s="13"/>
-      <c r="DT48" s="13"/>
+      <c r="DT48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="DU48" s="13"/>
       <c r="DV48" s="13"/>
       <c r="DW48" s="13"/>
       <c r="DX48" s="13"/>
       <c r="DY48" s="13"/>
       <c r="DZ48" s="13"/>
-      <c r="EA48" s="13"/>
+      <c r="EA48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="EB48" s="13"/>
       <c r="EC48" s="13"/>
     </row>
-    <row r="49" spans="1:133" ht="72" customHeight="1">
+    <row r="49" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="24"/>
       <c r="D49" s="18"/>
@@ -9071,7 +9107,7 @@
       <c r="EB49" s="13"/>
       <c r="EC49" s="13"/>
     </row>
-    <row r="50" spans="1:133" ht="72" customHeight="1">
+    <row r="50" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="24"/>
       <c r="D50" s="18"/>
@@ -9205,7 +9241,7 @@
       <c r="EB50" s="13"/>
       <c r="EC50" s="13"/>
     </row>
-    <row r="51" spans="1:133" ht="72" customHeight="1">
+    <row r="51" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="24"/>
       <c r="D51" s="18"/>
@@ -9339,7 +9375,7 @@
       <c r="EB51" s="13"/>
       <c r="EC51" s="13"/>
     </row>
-    <row r="52" spans="1:133" ht="72" customHeight="1">
+    <row r="52" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="24"/>
       <c r="D52" s="18"/>
@@ -9473,7 +9509,7 @@
       <c r="EB52" s="13"/>
       <c r="EC52" s="13"/>
     </row>
-    <row r="53" spans="1:133" ht="72" customHeight="1">
+    <row r="53" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="24"/>
       <c r="D53" s="18"/>
@@ -9607,7 +9643,7 @@
       <c r="EB53" s="13"/>
       <c r="EC53" s="13"/>
     </row>
-    <row r="54" spans="1:133" ht="72" customHeight="1">
+    <row r="54" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="24"/>
       <c r="D54" s="18"/>
@@ -9741,7 +9777,7 @@
       <c r="EB54" s="13"/>
       <c r="EC54" s="13"/>
     </row>
-    <row r="55" spans="1:133" ht="72" customHeight="1">
+    <row r="55" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="24"/>
       <c r="D55" s="18"/>
@@ -9875,7 +9911,7 @@
       <c r="EB55" s="13"/>
       <c r="EC55" s="13"/>
     </row>
-    <row r="56" spans="1:133" ht="72" customHeight="1">
+    <row r="56" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="24"/>
       <c r="D56" s="18"/>
@@ -10009,7 +10045,7 @@
       <c r="EB56" s="13"/>
       <c r="EC56" s="13"/>
     </row>
-    <row r="57" spans="1:133" ht="72" customHeight="1">
+    <row r="57" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="24"/>
       <c r="D57" s="18"/>
@@ -10143,7 +10179,7 @@
       <c r="EB57" s="13"/>
       <c r="EC57" s="13"/>
     </row>
-    <row r="58" spans="1:133" ht="72" customHeight="1">
+    <row r="58" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="24"/>
       <c r="D58" s="18"/>
@@ -10277,7 +10313,7 @@
       <c r="EB58" s="13"/>
       <c r="EC58" s="13"/>
     </row>
-    <row r="59" spans="1:133" ht="72" customHeight="1">
+    <row r="59" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="24"/>
       <c r="D59" s="18"/>
@@ -10411,7 +10447,7 @@
       <c r="EB59" s="13"/>
       <c r="EC59" s="13"/>
     </row>
-    <row r="60" spans="1:133" ht="72" customHeight="1">
+    <row r="60" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="24"/>
       <c r="D60" s="18"/>
@@ -10545,7 +10581,7 @@
       <c r="EB60" s="13"/>
       <c r="EC60" s="13"/>
     </row>
-    <row r="61" spans="1:133" ht="72" customHeight="1">
+    <row r="61" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="24"/>
       <c r="D61" s="18"/>
@@ -10679,7 +10715,7 @@
       <c r="EB61" s="13"/>
       <c r="EC61" s="13"/>
     </row>
-    <row r="62" spans="1:133" ht="72" customHeight="1">
+    <row r="62" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="24"/>
       <c r="D62" s="18"/>
@@ -10813,7 +10849,7 @@
       <c r="EB62" s="13"/>
       <c r="EC62" s="13"/>
     </row>
-    <row r="63" spans="1:133" ht="72" customHeight="1">
+    <row r="63" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="24"/>
       <c r="D63" s="18"/>
@@ -10947,7 +10983,7 @@
       <c r="EB63" s="13"/>
       <c r="EC63" s="13"/>
     </row>
-    <row r="64" spans="1:133" ht="72" customHeight="1">
+    <row r="64" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="24"/>
       <c r="D64" s="18"/>
@@ -11081,7 +11117,7 @@
       <c r="EB64" s="13"/>
       <c r="EC64" s="13"/>
     </row>
-    <row r="65" spans="1:133" ht="72" customHeight="1">
+    <row r="65" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="24"/>
       <c r="D65" s="18"/>
@@ -11215,7 +11251,7 @@
       <c r="EB65" s="13"/>
       <c r="EC65" s="13"/>
     </row>
-    <row r="66" spans="1:133" ht="72" customHeight="1">
+    <row r="66" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="24"/>
       <c r="D66" s="18"/>
@@ -11349,7 +11385,7 @@
       <c r="EB66" s="13"/>
       <c r="EC66" s="13"/>
     </row>
-    <row r="67" spans="1:133" ht="72" customHeight="1">
+    <row r="67" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="24"/>
       <c r="D67" s="18"/>
@@ -11483,7 +11519,7 @@
       <c r="EB67" s="13"/>
       <c r="EC67" s="13"/>
     </row>
-    <row r="68" spans="1:133" ht="72" customHeight="1">
+    <row r="68" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="24"/>
       <c r="D68" s="18"/>
@@ -11617,7 +11653,7 @@
       <c r="EB68" s="13"/>
       <c r="EC68" s="13"/>
     </row>
-    <row r="69" spans="1:133" ht="72" customHeight="1">
+    <row r="69" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="24"/>
       <c r="D69" s="18"/>
@@ -11751,7 +11787,7 @@
       <c r="EB69" s="13"/>
       <c r="EC69" s="13"/>
     </row>
-    <row r="70" spans="1:133" ht="72" customHeight="1">
+    <row r="70" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="24"/>
       <c r="D70" s="18"/>
@@ -11885,7 +11921,7 @@
       <c r="EB70" s="13"/>
       <c r="EC70" s="13"/>
     </row>
-    <row r="71" spans="1:133" ht="72" customHeight="1">
+    <row r="71" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="24"/>
       <c r="D71" s="18"/>
@@ -12019,7 +12055,7 @@
       <c r="EB71" s="13"/>
       <c r="EC71" s="13"/>
     </row>
-    <row r="72" spans="1:133" ht="72" customHeight="1">
+    <row r="72" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="24"/>
       <c r="D72" s="18"/>
@@ -12153,7 +12189,7 @@
       <c r="EB72" s="13"/>
       <c r="EC72" s="13"/>
     </row>
-    <row r="73" spans="1:133" ht="72" customHeight="1">
+    <row r="73" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="24"/>
       <c r="D73" s="18"/>
@@ -12287,7 +12323,7 @@
       <c r="EB73" s="13"/>
       <c r="EC73" s="13"/>
     </row>
-    <row r="74" spans="1:133" ht="72" customHeight="1">
+    <row r="74" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="24"/>
       <c r="D74" s="18"/>
@@ -12421,7 +12457,7 @@
       <c r="EB74" s="13"/>
       <c r="EC74" s="13"/>
     </row>
-    <row r="75" spans="1:133" ht="72" customHeight="1">
+    <row r="75" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="24"/>
       <c r="D75" s="18"/>
@@ -12555,7 +12591,7 @@
       <c r="EB75" s="13"/>
       <c r="EC75" s="13"/>
     </row>
-    <row r="76" spans="1:133" ht="72" customHeight="1">
+    <row r="76" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="24"/>
       <c r="D76" s="18"/>
@@ -12689,7 +12725,7 @@
       <c r="EB76" s="13"/>
       <c r="EC76" s="13"/>
     </row>
-    <row r="77" spans="1:133" ht="72" customHeight="1">
+    <row r="77" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="24"/>
       <c r="D77" s="18"/>
@@ -12823,7 +12859,7 @@
       <c r="EB77" s="13"/>
       <c r="EC77" s="13"/>
     </row>
-    <row r="78" spans="1:133" ht="72" customHeight="1">
+    <row r="78" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="24"/>
       <c r="D78" s="18"/>
@@ -12957,7 +12993,7 @@
       <c r="EB78" s="13"/>
       <c r="EC78" s="13"/>
     </row>
-    <row r="79" spans="1:133" ht="72" customHeight="1">
+    <row r="79" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="24"/>
       <c r="D79" s="18"/>
@@ -13091,7 +13127,7 @@
       <c r="EB79" s="13"/>
       <c r="EC79" s="13"/>
     </row>
-    <row r="80" spans="1:133" ht="72" customHeight="1">
+    <row r="80" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="24"/>
       <c r="D80" s="18"/>
@@ -13225,7 +13261,7 @@
       <c r="EB80" s="13"/>
       <c r="EC80" s="13"/>
     </row>
-    <row r="81" spans="1:133" ht="72" customHeight="1">
+    <row r="81" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="24"/>
       <c r="D81" s="18"/>
@@ -13359,7 +13395,7 @@
       <c r="EB81" s="13"/>
       <c r="EC81" s="13"/>
     </row>
-    <row r="82" spans="1:133" ht="72" customHeight="1">
+    <row r="82" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="24"/>
       <c r="D82" s="18"/>
@@ -13493,7 +13529,7 @@
       <c r="EB82" s="13"/>
       <c r="EC82" s="13"/>
     </row>
-    <row r="83" spans="1:133" ht="72" customHeight="1">
+    <row r="83" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="24"/>
       <c r="D83" s="18"/>
@@ -13627,7 +13663,7 @@
       <c r="EB83" s="13"/>
       <c r="EC83" s="13"/>
     </row>
-    <row r="84" spans="1:133" ht="72" customHeight="1">
+    <row r="84" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="24"/>
       <c r="D84" s="18"/>
@@ -13761,7 +13797,7 @@
       <c r="EB84" s="13"/>
       <c r="EC84" s="13"/>
     </row>
-    <row r="85" spans="1:133" ht="72" customHeight="1">
+    <row r="85" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="24"/>
       <c r="D85" s="18"/>
@@ -13895,7 +13931,7 @@
       <c r="EB85" s="13"/>
       <c r="EC85" s="13"/>
     </row>
-    <row r="86" spans="1:133" ht="72" customHeight="1">
+    <row r="86" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="24"/>
       <c r="D86" s="18"/>
@@ -14029,7 +14065,7 @@
       <c r="EB86" s="13"/>
       <c r="EC86" s="13"/>
     </row>
-    <row r="87" spans="1:133" ht="72" customHeight="1">
+    <row r="87" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="24"/>
       <c r="D87" s="18"/>
@@ -14163,7 +14199,7 @@
       <c r="EB87" s="13"/>
       <c r="EC87" s="13"/>
     </row>
-    <row r="88" spans="1:133" ht="72" customHeight="1">
+    <row r="88" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="24"/>
       <c r="D88" s="18"/>
@@ -14297,7 +14333,7 @@
       <c r="EB88" s="13"/>
       <c r="EC88" s="13"/>
     </row>
-    <row r="89" spans="1:133" ht="72" customHeight="1">
+    <row r="89" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="24"/>
       <c r="D89" s="18"/>
@@ -14431,7 +14467,7 @@
       <c r="EB89" s="13"/>
       <c r="EC89" s="13"/>
     </row>
-    <row r="90" spans="1:133" ht="72" customHeight="1">
+    <row r="90" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="24"/>
       <c r="D90" s="18"/>
@@ -14565,7 +14601,7 @@
       <c r="EB90" s="13"/>
       <c r="EC90" s="13"/>
     </row>
-    <row r="91" spans="1:133" ht="72" customHeight="1">
+    <row r="91" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="24"/>
       <c r="D91" s="18"/>
@@ -14699,7 +14735,7 @@
       <c r="EB91" s="13"/>
       <c r="EC91" s="13"/>
     </row>
-    <row r="92" spans="1:133" ht="72" customHeight="1">
+    <row r="92" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="24"/>
       <c r="D92" s="18"/>
@@ -14833,7 +14869,7 @@
       <c r="EB92" s="13"/>
       <c r="EC92" s="13"/>
     </row>
-    <row r="93" spans="1:133" ht="72" customHeight="1">
+    <row r="93" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="24"/>
       <c r="D93" s="18"/>
@@ -14967,7 +15003,7 @@
       <c r="EB93" s="13"/>
       <c r="EC93" s="13"/>
     </row>
-    <row r="94" spans="1:133" ht="72" customHeight="1">
+    <row r="94" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="24"/>
       <c r="D94" s="18"/>
@@ -15101,7 +15137,7 @@
       <c r="EB94" s="13"/>
       <c r="EC94" s="13"/>
     </row>
-    <row r="95" spans="1:133" ht="72" customHeight="1">
+    <row r="95" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="24"/>
       <c r="D95" s="18"/>
@@ -15235,7 +15271,7 @@
       <c r="EB95" s="13"/>
       <c r="EC95" s="13"/>
     </row>
-    <row r="96" spans="1:133" ht="72" customHeight="1">
+    <row r="96" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="24"/>
       <c r="D96" s="18"/>
@@ -15369,7 +15405,7 @@
       <c r="EB96" s="13"/>
       <c r="EC96" s="13"/>
     </row>
-    <row r="97" spans="1:133" ht="72" customHeight="1">
+    <row r="97" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="24"/>
       <c r="D97" s="18"/>
@@ -15503,7 +15539,7 @@
       <c r="EB97" s="13"/>
       <c r="EC97" s="13"/>
     </row>
-    <row r="98" spans="1:133" ht="72" customHeight="1">
+    <row r="98" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="24"/>
       <c r="D98" s="18"/>
@@ -15637,7 +15673,7 @@
       <c r="EB98" s="13"/>
       <c r="EC98" s="13"/>
     </row>
-    <row r="99" spans="1:133" ht="72" customHeight="1">
+    <row r="99" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="24"/>
       <c r="D99" s="18"/>
@@ -15771,7 +15807,7 @@
       <c r="EB99" s="13"/>
       <c r="EC99" s="13"/>
     </row>
-    <row r="100" spans="1:133" ht="72" customHeight="1">
+    <row r="100" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="24"/>
       <c r="D100" s="18"/>
@@ -15905,7 +15941,7 @@
       <c r="EB100" s="13"/>
       <c r="EC100" s="13"/>
     </row>
-    <row r="101" spans="1:133" ht="72" customHeight="1">
+    <row r="101" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16"/>
       <c r="B101" s="24"/>
       <c r="D101" s="18"/>
@@ -16039,7 +16075,7 @@
       <c r="EB101" s="13"/>
       <c r="EC101" s="13"/>
     </row>
-    <row r="102" spans="1:133" ht="72" customHeight="1">
+    <row r="102" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16"/>
       <c r="B102" s="24"/>
       <c r="D102" s="18"/>
@@ -16173,7 +16209,7 @@
       <c r="EB102" s="13"/>
       <c r="EC102" s="13"/>
     </row>
-    <row r="103" spans="1:133" ht="72" customHeight="1">
+    <row r="103" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="24"/>
       <c r="D103" s="18"/>
@@ -16307,7 +16343,7 @@
       <c r="EB103" s="13"/>
       <c r="EC103" s="13"/>
     </row>
-    <row r="104" spans="1:133" ht="72" customHeight="1">
+    <row r="104" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="24"/>
       <c r="D104" s="18"/>
@@ -16441,7 +16477,7 @@
       <c r="EB104" s="13"/>
       <c r="EC104" s="13"/>
     </row>
-    <row r="105" spans="1:133" ht="72" customHeight="1">
+    <row r="105" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="24"/>
       <c r="D105" s="18"/>
@@ -16575,7 +16611,7 @@
       <c r="EB105" s="13"/>
       <c r="EC105" s="13"/>
     </row>
-    <row r="106" spans="1:133" ht="72" customHeight="1">
+    <row r="106" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="24"/>
       <c r="D106" s="18"/>
@@ -16709,7 +16745,7 @@
       <c r="EB106" s="13"/>
       <c r="EC106" s="13"/>
     </row>
-    <row r="107" spans="1:133" ht="72" customHeight="1">
+    <row r="107" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="24"/>
       <c r="D107" s="18"/>
@@ -16843,7 +16879,7 @@
       <c r="EB107" s="13"/>
       <c r="EC107" s="13"/>
     </row>
-    <row r="108" spans="1:133" ht="72" customHeight="1">
+    <row r="108" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="24"/>
       <c r="D108" s="18"/>
@@ -16977,7 +17013,7 @@
       <c r="EB108" s="13"/>
       <c r="EC108" s="13"/>
     </row>
-    <row r="109" spans="1:133" ht="72" customHeight="1">
+    <row r="109" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="24"/>
       <c r="D109" s="18"/>
@@ -17111,7 +17147,7 @@
       <c r="EB109" s="13"/>
       <c r="EC109" s="13"/>
     </row>
-    <row r="110" spans="1:133" ht="72" customHeight="1">
+    <row r="110" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="24"/>
       <c r="D110" s="18"/>
@@ -17245,7 +17281,7 @@
       <c r="EB110" s="13"/>
       <c r="EC110" s="13"/>
     </row>
-    <row r="111" spans="1:133" ht="72" customHeight="1">
+    <row r="111" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="24"/>
       <c r="D111" s="18"/>
@@ -17379,7 +17415,7 @@
       <c r="EB111" s="13"/>
       <c r="EC111" s="13"/>
     </row>
-    <row r="112" spans="1:133" ht="72" customHeight="1">
+    <row r="112" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="24"/>
       <c r="D112" s="18"/>
@@ -17513,7 +17549,7 @@
       <c r="EB112" s="13"/>
       <c r="EC112" s="13"/>
     </row>
-    <row r="113" spans="1:133" ht="72" customHeight="1">
+    <row r="113" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="24"/>
       <c r="D113" s="18"/>
@@ -17647,7 +17683,7 @@
       <c r="EB113" s="13"/>
       <c r="EC113" s="13"/>
     </row>
-    <row r="114" spans="1:133" ht="72" customHeight="1">
+    <row r="114" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="24"/>
       <c r="D114" s="18"/>
@@ -17781,7 +17817,7 @@
       <c r="EB114" s="13"/>
       <c r="EC114" s="13"/>
     </row>
-    <row r="115" spans="1:133" ht="72" customHeight="1">
+    <row r="115" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="24"/>
       <c r="D115" s="18"/>
@@ -17915,7 +17951,7 @@
       <c r="EB115" s="13"/>
       <c r="EC115" s="13"/>
     </row>
-    <row r="116" spans="1:133" ht="72" customHeight="1">
+    <row r="116" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="24"/>
       <c r="D116" s="18"/>
@@ -18049,7 +18085,7 @@
       <c r="EB116" s="13"/>
       <c r="EC116" s="13"/>
     </row>
-    <row r="117" spans="1:133" ht="72" customHeight="1">
+    <row r="117" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="25"/>
       <c r="D117" s="10"/>
       <c r="E117" s="21"/>
@@ -18129,7 +18165,7 @@
       <c r="CA117" s="10"/>
       <c r="CB117" s="10"/>
     </row>
-    <row r="118" spans="1:133" ht="72" customHeight="1">
+    <row r="118" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="25"/>
       <c r="D118" s="10"/>
       <c r="E118" s="21"/>
@@ -18209,7 +18245,7 @@
       <c r="CA118" s="10"/>
       <c r="CB118" s="10"/>
     </row>
-    <row r="119" spans="1:133">
+    <row r="119" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B119" s="25"/>
       <c r="D119" s="10"/>
       <c r="E119" s="21"/>
@@ -18289,7 +18325,7 @@
       <c r="CA119" s="10"/>
       <c r="CB119" s="10"/>
     </row>
-    <row r="120" spans="1:133">
+    <row r="120" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B120" s="25"/>
       <c r="D120" s="10"/>
       <c r="E120" s="21"/>
@@ -18369,7 +18405,7 @@
       <c r="CA120" s="10"/>
       <c r="CB120" s="10"/>
     </row>
-    <row r="121" spans="1:133">
+    <row r="121" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B121" s="25"/>
       <c r="D121" s="10"/>
       <c r="E121" s="21"/>
@@ -18449,7 +18485,7 @@
       <c r="CA121" s="10"/>
       <c r="CB121" s="10"/>
     </row>
-    <row r="122" spans="1:133">
+    <row r="122" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B122" s="25"/>
       <c r="D122" s="10"/>
       <c r="E122" s="21"/>
@@ -18529,7 +18565,7 @@
       <c r="CA122" s="10"/>
       <c r="CB122" s="10"/>
     </row>
-    <row r="123" spans="1:133">
+    <row r="123" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B123" s="25"/>
       <c r="D123" s="10"/>
       <c r="E123" s="21"/>
@@ -18609,7 +18645,7 @@
       <c r="CA123" s="10"/>
       <c r="CB123" s="10"/>
     </row>
-    <row r="124" spans="1:133">
+    <row r="124" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B124" s="25"/>
       <c r="D124" s="10"/>
       <c r="E124" s="21"/>
@@ -18689,7 +18725,7 @@
       <c r="CA124" s="10"/>
       <c r="CB124" s="10"/>
     </row>
-    <row r="125" spans="1:133">
+    <row r="125" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B125" s="25"/>
       <c r="D125" s="10"/>
       <c r="E125" s="21"/>
@@ -18769,7 +18805,7 @@
       <c r="CA125" s="10"/>
       <c r="CB125" s="10"/>
     </row>
-    <row r="126" spans="1:133">
+    <row r="126" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B126" s="25"/>
       <c r="D126" s="10"/>
       <c r="E126" s="21"/>
@@ -18849,7 +18885,7 @@
       <c r="CA126" s="10"/>
       <c r="CB126" s="10"/>
     </row>
-    <row r="127" spans="1:133">
+    <row r="127" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B127" s="25"/>
       <c r="D127" s="10"/>
       <c r="E127" s="21"/>
@@ -18929,7 +18965,7 @@
       <c r="CA127" s="10"/>
       <c r="CB127" s="10"/>
     </row>
-    <row r="128" spans="1:133">
+    <row r="128" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B128" s="25"/>
       <c r="D128" s="10"/>
       <c r="E128" s="21"/>
@@ -19009,7 +19045,7 @@
       <c r="CA128" s="10"/>
       <c r="CB128" s="10"/>
     </row>
-    <row r="129" spans="2:80">
+    <row r="129" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B129" s="25"/>
       <c r="D129" s="10"/>
       <c r="E129" s="21"/>
@@ -19089,7 +19125,7 @@
       <c r="CA129" s="10"/>
       <c r="CB129" s="10"/>
     </row>
-    <row r="130" spans="2:80">
+    <row r="130" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B130" s="25"/>
       <c r="D130" s="10"/>
       <c r="E130" s="21"/>
@@ -19169,7 +19205,7 @@
       <c r="CA130" s="10"/>
       <c r="CB130" s="10"/>
     </row>
-    <row r="131" spans="2:80">
+    <row r="131" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B131" s="25"/>
       <c r="D131" s="10"/>
       <c r="E131" s="21"/>
@@ -19249,7 +19285,7 @@
       <c r="CA131" s="10"/>
       <c r="CB131" s="10"/>
     </row>
-    <row r="132" spans="2:80">
+    <row r="132" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B132" s="25"/>
       <c r="D132" s="10"/>
       <c r="E132" s="21"/>
@@ -19329,7 +19365,7 @@
       <c r="CA132" s="10"/>
       <c r="CB132" s="10"/>
     </row>
-    <row r="133" spans="2:80">
+    <row r="133" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B133" s="25"/>
       <c r="D133" s="10"/>
       <c r="E133" s="21"/>
@@ -19409,7 +19445,7 @@
       <c r="CA133" s="10"/>
       <c r="CB133" s="10"/>
     </row>
-    <row r="134" spans="2:80">
+    <row r="134" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B134" s="25"/>
       <c r="D134" s="10"/>
       <c r="E134" s="21"/>
@@ -19489,7 +19525,7 @@
       <c r="CA134" s="10"/>
       <c r="CB134" s="10"/>
     </row>
-    <row r="135" spans="2:80">
+    <row r="135" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B135" s="25"/>
       <c r="D135" s="10"/>
       <c r="E135" s="21"/>
@@ -19569,7 +19605,7 @@
       <c r="CA135" s="10"/>
       <c r="CB135" s="10"/>
     </row>
-    <row r="136" spans="2:80">
+    <row r="136" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B136" s="25"/>
       <c r="D136" s="10"/>
       <c r="E136" s="21"/>
@@ -19649,7 +19685,7 @@
       <c r="CA136" s="10"/>
       <c r="CB136" s="10"/>
     </row>
-    <row r="137" spans="2:80">
+    <row r="137" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B137" s="25"/>
       <c r="D137" s="10"/>
       <c r="E137" s="21"/>
@@ -19729,7 +19765,7 @@
       <c r="CA137" s="10"/>
       <c r="CB137" s="10"/>
     </row>
-    <row r="138" spans="2:80">
+    <row r="138" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B138" s="25"/>
       <c r="D138" s="10"/>
       <c r="E138" s="21"/>
@@ -19809,7 +19845,7 @@
       <c r="CA138" s="10"/>
       <c r="CB138" s="10"/>
     </row>
-    <row r="139" spans="2:80">
+    <row r="139" spans="2:80" x14ac:dyDescent="0.25">
       <c r="D139" s="10"/>
       <c r="E139" s="21"/>
       <c r="F139" s="10"/>
@@ -19888,7 +19924,7 @@
       <c r="CA139" s="10"/>
       <c r="CB139" s="10"/>
     </row>
-    <row r="140" spans="2:80">
+    <row r="140" spans="2:80" x14ac:dyDescent="0.25">
       <c r="D140" s="10"/>
       <c r="E140" s="21"/>
       <c r="F140" s="10"/>
@@ -19967,7 +20003,7 @@
       <c r="CA140" s="10"/>
       <c r="CB140" s="10"/>
     </row>
-    <row r="141" spans="2:80">
+    <row r="141" spans="2:80" x14ac:dyDescent="0.25">
       <c r="D141" s="10"/>
       <c r="E141" s="21"/>
       <c r="F141" s="10"/>
@@ -20046,7 +20082,7 @@
       <c r="CA141" s="10"/>
       <c r="CB141" s="10"/>
     </row>
-    <row r="142" spans="2:80">
+    <row r="142" spans="2:80" x14ac:dyDescent="0.25">
       <c r="D142" s="10"/>
       <c r="E142" s="21"/>
       <c r="F142" s="10"/>
@@ -20125,7 +20161,7 @@
       <c r="CA142" s="10"/>
       <c r="CB142" s="10"/>
     </row>
-    <row r="143" spans="2:80">
+    <row r="143" spans="2:80" x14ac:dyDescent="0.25">
       <c r="D143" s="10"/>
       <c r="E143" s="21"/>
       <c r="F143" s="10"/>
@@ -20204,7 +20240,7 @@
       <c r="CA143" s="10"/>
       <c r="CB143" s="10"/>
     </row>
-    <row r="144" spans="2:80">
+    <row r="144" spans="2:80" x14ac:dyDescent="0.25">
       <c r="D144" s="10"/>
       <c r="E144" s="21"/>
       <c r="F144" s="10"/>
@@ -20283,7 +20319,7 @@
       <c r="CA144" s="10"/>
       <c r="CB144" s="10"/>
     </row>
-    <row r="145" spans="4:80">
+    <row r="145" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D145" s="10"/>
       <c r="E145" s="21"/>
       <c r="F145" s="10"/>
@@ -20362,7 +20398,7 @@
       <c r="CA145" s="10"/>
       <c r="CB145" s="10"/>
     </row>
-    <row r="146" spans="4:80">
+    <row r="146" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D146" s="10"/>
       <c r="E146" s="21"/>
       <c r="F146" s="10"/>
@@ -20441,7 +20477,7 @@
       <c r="CA146" s="10"/>
       <c r="CB146" s="10"/>
     </row>
-    <row r="147" spans="4:80">
+    <row r="147" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D147" s="10"/>
       <c r="E147" s="21"/>
       <c r="F147" s="10"/>
@@ -20520,7 +20556,7 @@
       <c r="CA147" s="10"/>
       <c r="CB147" s="10"/>
     </row>
-    <row r="148" spans="4:80">
+    <row r="148" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D148" s="10"/>
       <c r="E148" s="21"/>
       <c r="F148" s="10"/>
@@ -20599,7 +20635,7 @@
       <c r="CA148" s="10"/>
       <c r="CB148" s="10"/>
     </row>
-    <row r="149" spans="4:80">
+    <row r="149" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D149" s="10"/>
       <c r="E149" s="21"/>
       <c r="F149" s="10"/>
@@ -20678,7 +20714,7 @@
       <c r="CA149" s="10"/>
       <c r="CB149" s="10"/>
     </row>
-    <row r="150" spans="4:80">
+    <row r="150" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D150" s="10"/>
       <c r="E150" s="21"/>
       <c r="F150" s="10"/>
@@ -20757,7 +20793,7 @@
       <c r="CA150" s="10"/>
       <c r="CB150" s="10"/>
     </row>
-    <row r="151" spans="4:80">
+    <row r="151" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D151" s="10"/>
       <c r="E151" s="21"/>
       <c r="F151" s="10"/>
@@ -20836,7 +20872,7 @@
       <c r="CA151" s="10"/>
       <c r="CB151" s="10"/>
     </row>
-    <row r="152" spans="4:80">
+    <row r="152" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D152" s="10"/>
       <c r="E152" s="21"/>
       <c r="F152" s="10"/>
@@ -20915,7 +20951,7 @@
       <c r="CA152" s="10"/>
       <c r="CB152" s="10"/>
     </row>
-    <row r="153" spans="4:80">
+    <row r="153" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D153" s="10"/>
       <c r="E153" s="21"/>
       <c r="F153" s="10"/>
@@ -20994,7 +21030,7 @@
       <c r="CA153" s="10"/>
       <c r="CB153" s="10"/>
     </row>
-    <row r="154" spans="4:80">
+    <row r="154" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D154" s="10"/>
       <c r="E154" s="21"/>
       <c r="F154" s="10"/>
@@ -21073,7 +21109,7 @@
       <c r="CA154" s="10"/>
       <c r="CB154" s="10"/>
     </row>
-    <row r="155" spans="4:80">
+    <row r="155" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D155" s="10"/>
       <c r="E155" s="21"/>
       <c r="F155" s="10"/>
@@ -21152,7 +21188,7 @@
       <c r="CA155" s="10"/>
       <c r="CB155" s="10"/>
     </row>
-    <row r="156" spans="4:80">
+    <row r="156" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D156" s="10"/>
       <c r="E156" s="21"/>
       <c r="F156" s="10"/>
@@ -21231,7 +21267,7 @@
       <c r="CA156" s="10"/>
       <c r="CB156" s="10"/>
     </row>
-    <row r="157" spans="4:80">
+    <row r="157" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D157" s="10"/>
       <c r="E157" s="21"/>
       <c r="F157" s="10"/>
@@ -21310,7 +21346,7 @@
       <c r="CA157" s="10"/>
       <c r="CB157" s="10"/>
     </row>
-    <row r="158" spans="4:80">
+    <row r="158" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D158" s="10"/>
       <c r="E158" s="21"/>
       <c r="F158" s="10"/>
@@ -21389,7 +21425,7 @@
       <c r="CA158" s="10"/>
       <c r="CB158" s="10"/>
     </row>
-    <row r="159" spans="4:80">
+    <row r="159" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D159" s="10"/>
       <c r="E159" s="21"/>
       <c r="F159" s="10"/>
@@ -21468,7 +21504,7 @@
       <c r="CA159" s="10"/>
       <c r="CB159" s="10"/>
     </row>
-    <row r="160" spans="4:80">
+    <row r="160" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D160" s="10"/>
       <c r="E160" s="21"/>
       <c r="F160" s="10"/>
@@ -21547,7 +21583,7 @@
       <c r="CA160" s="10"/>
       <c r="CB160" s="10"/>
     </row>
-    <row r="161" spans="4:80">
+    <row r="161" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D161" s="10"/>
       <c r="E161" s="21"/>
       <c r="F161" s="10"/>
@@ -21626,7 +21662,7 @@
       <c r="CA161" s="10"/>
       <c r="CB161" s="10"/>
     </row>
-    <row r="162" spans="4:80">
+    <row r="162" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D162" s="10"/>
       <c r="E162" s="21"/>
       <c r="F162" s="10"/>
@@ -21705,7 +21741,7 @@
       <c r="CA162" s="10"/>
       <c r="CB162" s="10"/>
     </row>
-    <row r="163" spans="4:80">
+    <row r="163" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D163" s="10"/>
       <c r="E163" s="21"/>
       <c r="F163" s="10"/>
@@ -21784,7 +21820,7 @@
       <c r="CA163" s="10"/>
       <c r="CB163" s="10"/>
     </row>
-    <row r="164" spans="4:80">
+    <row r="164" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D164" s="10"/>
       <c r="E164" s="21"/>
       <c r="F164" s="10"/>
@@ -21875,7 +21911,7 @@
     <hyperlink ref="A37" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Dropbox\2014 - Hortonworks\Projects\HWX\nifi-templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-102400" yWindow="-15400" windowWidth="36540" windowHeight="20440" tabRatio="500"/>
+    <workbookView xWindow="-102405" yWindow="-15405" windowWidth="36540" windowHeight="20445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="219">
   <si>
     <t>Template Name:</t>
   </si>
@@ -685,6 +690,12 @@
   </si>
   <si>
     <t>PutElasticsearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send_HL7_Messages_to_Solr </t>
+  </si>
+  <si>
+    <t>reads HL7 files from a directory, parses the file into segments, and sends to Solr for indexing</t>
   </si>
 </sst>
 </file>
@@ -1137,6 +1148,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1463,536 +1477,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ED164"/>
+  <dimension ref="A1:ED163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="CL47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="X45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="EA47" sqref="EA47"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="1.83203125" style="12" customWidth="1"/>
-    <col min="4" max="13" width="4.83203125" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" style="3" customWidth="1"/>
-    <col min="15" max="133" width="4.83203125" customWidth="1"/>
-    <col min="134" max="134" width="1.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="1.875" style="12" customWidth="1"/>
+    <col min="4" max="13" width="4.875" customWidth="1"/>
+    <col min="14" max="14" width="1.625" style="3" customWidth="1"/>
+    <col min="15" max="133" width="4.875" customWidth="1"/>
+    <col min="134" max="134" width="1.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:134" ht="16" thickBot="1">
+    <row r="1" spans="1:134" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="26" t="s">
         <v>153</v>
       </c>
       <c r="D1">
-        <f>COUNTIFS(D10:D300,"X")</f>
+        <f>COUNTIFS(D10:D299,"X")</f>
         <v>0</v>
       </c>
       <c r="E1">
-        <f>COUNTIFS(E10:E300,"X")</f>
+        <f>COUNTIFS(E10:E299,"X")</f>
         <v>0</v>
       </c>
       <c r="F1">
-        <f t="shared" ref="F1:M1" si="0">COUNTIFS(F10:F300,"X")</f>
+        <f>COUNTIFS(F10:F299,"X")</f>
         <v>3</v>
       </c>
       <c r="G1">
+        <f>COUNTIFS(G10:G299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <f>COUNTIFS(H10:H299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <f>COUNTIFS(I10:I299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <f>COUNTIFS(J10:J299,"X")</f>
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <f>COUNTIFS(K10:K299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <f>COUNTIFS(L10:L299,"X")</f>
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <f>COUNTIFS(M10:M299,"X")</f>
+        <v>2</v>
+      </c>
+      <c r="O1">
+        <f>COUNTIFS(O10:O299,"X")</f>
+        <v>3</v>
+      </c>
+      <c r="P1">
+        <f>COUNTIFS(P10:P299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <f>COUNTIFS(Q10:Q299,"X")</f>
+        <v>5</v>
+      </c>
+      <c r="R1">
+        <f>COUNTIFS(R10:R299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <f>COUNTIFS(S10:S299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <f>COUNTIFS(T10:T299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="U1">
+        <f>COUNTIFS(U10:U299,"X")</f>
+        <v>2</v>
+      </c>
+      <c r="V1">
+        <f>COUNTIFS(V10:V299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <f>COUNTIFS(W10:W299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="X1">
+        <f>COUNTIFS(X10:X299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="Y1">
+        <f>COUNTIFS(Y10:Y299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <f>COUNTIFS(Z10:Z299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <f>COUNTIFS(AA10:AA299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <f>COUNTIFS(AB10:AB299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <f>COUNTIFS(AC10:AC299,"X")</f>
+        <v>3</v>
+      </c>
+      <c r="AD1">
+        <f>COUNTIFS(AD10:AD299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="AE1">
+        <f>COUNTIFS(AE10:AE299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <f>COUNTIFS(AF10:AF299,"X")</f>
+        <v>3</v>
+      </c>
+      <c r="AG1">
+        <f>COUNTIFS(AG10:AG299,"X")</f>
+        <v>8</v>
+      </c>
+      <c r="AH1">
+        <f>COUNTIFS(AH10:AH299,"X")</f>
+        <v>2</v>
+      </c>
+      <c r="AI1">
+        <f>COUNTIFS(AI10:AI299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <f>COUNTIFS(AJ10:AJ299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="AK1">
+        <f>COUNTIFS(AK10:AK299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="AL1">
+        <f>COUNTIFS(AL10:AL299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <f>COUNTIFS(AM10:AM299,"X")</f>
+        <v>3</v>
+      </c>
+      <c r="AN1">
+        <f>COUNTIFS(AN10:AN299,"X")</f>
+        <v>2</v>
+      </c>
+      <c r="AO1">
+        <f>COUNTIFS(AO10:AO299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="AP1">
+        <f>COUNTIFS(AP10:AP299,"X")</f>
+        <v>2</v>
+      </c>
+      <c r="AQ1">
+        <f>COUNTIFS(AQ10:AQ299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="AR1">
+        <f>COUNTIFS(AR10:AR299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="AS1">
+        <f>COUNTIFS(AS10:AS299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="AT1">
+        <f>COUNTIFS(AT10:AT299,"X")</f>
+        <v>8</v>
+      </c>
+      <c r="AU1">
+        <f>COUNTIFS(AU10:AU299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="AV1">
+        <f>COUNTIFS(AV10:AV299,"X")</f>
+        <v>3</v>
+      </c>
+      <c r="AW1">
+        <f>COUNTIFS(AW10:AW299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="AX1">
+        <f>COUNTIFS(AX10:AX299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <f>COUNTIFS(AY10:AY299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="AZ1">
+        <f>COUNTIFS(AZ10:AZ299,"X")</f>
+        <v>13</v>
+      </c>
+      <c r="BA1">
+        <f>COUNTIFS(BA10:BA299,"X")</f>
+        <v>2</v>
+      </c>
+      <c r="BB1">
+        <f>COUNTIFS(BB10:BB299,"X")</f>
+        <v>9</v>
+      </c>
+      <c r="BC1">
+        <f>COUNTIFS(BC10:BC299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="BD1">
+        <f>COUNTIFS(BD10:BD299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="BE1">
+        <f>COUNTIFS(BE10:BE299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="BF1">
+        <f>COUNTIFS(BF10:BF299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="BG1">
+        <f>COUNTIFS(BG10:BG299,"X")</f>
+        <v>7</v>
+      </c>
+      <c r="BH1">
+        <f>COUNTIFS(BH10:BH299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="BI1">
+        <f>COUNTIFS(BI10:BI299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="BJ1">
+        <f>COUNTIFS(BJ10:BJ299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="BK1">
+        <f>COUNTIFS(BK10:BK299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="BL1">
+        <f>COUNTIFS(BL10:BL299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="BM1">
+        <f>COUNTIFS(BM10:BM299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="BN1">
+        <f>COUNTIFS(BN10:BN299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="BO1">
+        <f>COUNTIFS(BO10:BO299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="BP1">
+        <f>COUNTIFS(BP10:BP299,"X")</f>
+        <v>4</v>
+      </c>
+      <c r="BQ1">
+        <f>COUNTIFS(BQ10:BQ299,"X")</f>
+        <v>5</v>
+      </c>
+      <c r="BR1">
+        <f>COUNTIFS(BR10:BR299,"X")</f>
+        <v>5</v>
+      </c>
+      <c r="BS1">
+        <f>COUNTIFS(BS10:BS299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="BT1">
+        <f>COUNTIFS(BT10:BT299,"X")</f>
+        <v>2</v>
+      </c>
+      <c r="BU1">
+        <f>COUNTIFS(BU10:BU299,"X")</f>
+        <v>3</v>
+      </c>
+      <c r="BV1">
+        <f>COUNTIFS(BV10:BV299,"X")</f>
+        <v>8</v>
+      </c>
+      <c r="BX1">
+        <f>COUNTIFS(BX10:BX299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="BY1">
+        <f>COUNTIFS(BY10:BY299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="BZ1">
+        <f>COUNTIFS(BZ10:BZ299,"X")</f>
+        <v>2</v>
+      </c>
+      <c r="CA1">
+        <f>COUNTIFS(CA10:CA299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="CB1">
+        <f>COUNTIFS(CB10:CB299,"X")</f>
+        <v>2</v>
+      </c>
+      <c r="CC1">
+        <f>COUNTIFS(CC10:CC299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="CD1">
+        <f>COUNTIFS(CD10:CD299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="CE1">
+        <f>COUNTIFS(CE10:CE299,"X")</f>
+        <v>11</v>
+      </c>
+      <c r="CF1">
+        <f>COUNTIFS(CF10:CF299,"X")</f>
+        <v>11</v>
+      </c>
+      <c r="CG1">
+        <f>COUNTIFS(CG10:CG299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="CH1">
+        <f>COUNTIFS(CH10:CH299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="CI1">
+        <f>COUNTIFS(CI10:CI299,"X")</f>
+        <v>3</v>
+      </c>
+      <c r="CJ1">
+        <f>COUNTIFS(CJ10:CJ299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="CK1">
+        <f>COUNTIFS(CK10:CK299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="CM1">
+        <f>COUNTIFS(CM10:CM299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="CN1">
+        <f>COUNTIFS(CN10:CN299,"X")</f>
+        <v>0</v>
+      </c>
+      <c r="CO1">
+        <f>COUNTIFS(CO10:CO299,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="CP1">
+        <f>COUNTIFS(CP10:CP299,"X")</f>
+        <v>2</v>
+      </c>
+      <c r="CQ1">
+        <f t="shared" ref="CQ1:EC1" si="0">COUNTIFS(CQ10:CQ299,"X")</f>
+        <v>13</v>
+      </c>
+      <c r="CR1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H1">
+      <c r="CS1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="CT1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="CU1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="CV1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I1">
+      <c r="CW1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="CX1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="CY1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J1">
+      <c r="CZ1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DA1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DB1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="DC1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DD1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DE1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DF1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DH1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="DI1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DJ1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DK1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DL1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="DM1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K1">
+      <c r="DN1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="DO1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L1">
+      <c r="DP1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DQ1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DR1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DS1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DT1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="DU1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M1">
+      <c r="DV1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O1">
-        <f>COUNTIFS(O10:O300,"X")</f>
-        <v>2</v>
-      </c>
-      <c r="P1">
-        <f t="shared" ref="P1:CP1" si="1">COUNTIFS(P10:P300,"X")</f>
         <v>0</v>
       </c>
-      <c r="Q1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="R1">
-        <f t="shared" si="1"/>
+      <c r="DW1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DX1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S1">
-        <f t="shared" si="1"/>
+      <c r="DY1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DZ1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="EA1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="EB1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="EC1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AG1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AH1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AI1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AK1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AM1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AN1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AO1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AP1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AQ1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AR1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AS1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AT1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AU1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AW1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AX1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AY1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AZ1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="BA1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BB1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="BC1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BD1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BE1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BF1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BG1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="BH1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BI1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BK1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BL1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BM1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BN1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BO1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BP1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="BQ1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="BR1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="BS1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BT1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BU1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="BV1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="BX1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BY1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BZ1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="CA1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CB1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="CC1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CD1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="CE1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="CF1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="CG1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CH1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CI1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="CJ1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="CK1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CM1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CN1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CO1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="CP1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="CQ1">
-        <f t="shared" ref="CQ1:EC1" si="2">COUNTIFS(CQ10:CQ300,"X")</f>
-        <v>13</v>
-      </c>
-      <c r="CR1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CS1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="CT1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="CU1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="CV1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CW1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="CX1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="CY1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CZ1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="DA1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DB1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="DC1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="DD1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DE1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DF1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="DH1">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="DI1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="DJ1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DK1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="DL1">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="DM1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="DN1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="DO1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="DP1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DQ1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DR1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="DS1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DT1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="DU1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="DV1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DW1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DX1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="DY1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DZ1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="EA1">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="EB1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="EC1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:134" s="5" customFormat="1" ht="48" customHeight="1" thickBot="1">
+    <row r="2" spans="1:134" s="5" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>183</v>
       </c>
@@ -2134,7 +2148,7 @@
       <c r="EC2" s="32"/>
       <c r="ED2" s="6"/>
     </row>
-    <row r="3" spans="1:134" s="1" customFormat="1" ht="221" customHeight="1" thickTop="1">
+    <row r="3" spans="1:134" s="1" customFormat="1" ht="221.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="20"/>
@@ -2528,11 +2542,11 @@
       </c>
       <c r="ED3" s="4"/>
     </row>
-    <row r="4" spans="1:134" s="3" customFormat="1" ht="8" customHeight="1">
+    <row r="4" spans="1:134" s="3" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:134">
+    <row r="5" spans="1:134" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
@@ -2620,7 +2634,7 @@
       <c r="CA5" s="10"/>
       <c r="CB5" s="10"/>
     </row>
-    <row r="6" spans="1:134">
+    <row r="6" spans="1:134" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
@@ -2714,7 +2728,7 @@
       <c r="CA6" s="10"/>
       <c r="CB6" s="10"/>
     </row>
-    <row r="7" spans="1:134">
+    <row r="7" spans="1:134" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
@@ -2808,7 +2822,7 @@
       <c r="CA7" s="10"/>
       <c r="CB7" s="10"/>
     </row>
-    <row r="8" spans="1:134" s="3" customFormat="1" ht="7" customHeight="1" thickBot="1">
+    <row r="8" spans="1:134" s="3" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="12"/>
       <c r="D8" s="11"/>
@@ -2889,7 +2903,7 @@
       <c r="CA8" s="11"/>
       <c r="CB8" s="11"/>
     </row>
-    <row r="9" spans="1:134" ht="25" customHeight="1" thickTop="1">
+    <row r="9" spans="1:134" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
@@ -3027,7 +3041,7 @@
       <c r="EB9" s="34"/>
       <c r="EC9" s="34"/>
     </row>
-    <row r="10" spans="1:134" ht="120">
+    <row r="10" spans="1:134" ht="126" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>110</v>
       </c>
@@ -3201,7 +3215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:134" ht="90">
+    <row r="11" spans="1:134" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>111</v>
       </c>
@@ -3351,7 +3365,7 @@
       <c r="EB11" s="13"/>
       <c r="EC11" s="13"/>
     </row>
-    <row r="12" spans="1:134" ht="72" customHeight="1">
+    <row r="12" spans="1:134" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>112</v>
       </c>
@@ -3497,7 +3511,7 @@
       <c r="EB12" s="13"/>
       <c r="EC12" s="13"/>
     </row>
-    <row r="13" spans="1:134" ht="72" customHeight="1">
+    <row r="13" spans="1:134" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>115</v>
       </c>
@@ -3645,7 +3659,7 @@
       <c r="EB13" s="13"/>
       <c r="EC13" s="13"/>
     </row>
-    <row r="14" spans="1:134" ht="90">
+    <row r="14" spans="1:134" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>116</v>
       </c>
@@ -3789,7 +3803,7 @@
       <c r="EB14" s="13"/>
       <c r="EC14" s="13"/>
     </row>
-    <row r="15" spans="1:134" ht="90">
+    <row r="15" spans="1:134" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -3943,7 +3957,7 @@
       <c r="EB15" s="13"/>
       <c r="EC15" s="13"/>
     </row>
-    <row r="16" spans="1:134" ht="72" customHeight="1">
+    <row r="16" spans="1:134" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>122</v>
       </c>
@@ -4093,7 +4107,7 @@
       <c r="EB16" s="13"/>
       <c r="EC16" s="13"/>
     </row>
-    <row r="17" spans="1:133" ht="120">
+    <row r="17" spans="1:133" ht="126" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>123</v>
       </c>
@@ -4241,7 +4255,7 @@
       <c r="EB17" s="13"/>
       <c r="EC17" s="13"/>
     </row>
-    <row r="18" spans="1:133" ht="72" customHeight="1">
+    <row r="18" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>126</v>
       </c>
@@ -4405,7 +4419,7 @@
       <c r="EB18" s="13"/>
       <c r="EC18" s="13"/>
     </row>
-    <row r="19" spans="1:133" ht="72" customHeight="1">
+    <row r="19" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>127</v>
       </c>
@@ -4549,7 +4563,7 @@
       <c r="EB19" s="13"/>
       <c r="EC19" s="13"/>
     </row>
-    <row r="20" spans="1:133" ht="90">
+    <row r="20" spans="1:133" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>128</v>
       </c>
@@ -4691,7 +4705,7 @@
       <c r="EB20" s="13"/>
       <c r="EC20" s="13"/>
     </row>
-    <row r="21" spans="1:133" ht="72" customHeight="1">
+    <row r="21" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>131</v>
       </c>
@@ -4837,7 +4851,7 @@
       <c r="EB21" s="13"/>
       <c r="EC21" s="13"/>
     </row>
-    <row r="22" spans="1:133" ht="105">
+    <row r="22" spans="1:133" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>133</v>
       </c>
@@ -4987,7 +5001,7 @@
       <c r="EB22" s="13"/>
       <c r="EC22" s="13"/>
     </row>
-    <row r="23" spans="1:133" ht="105">
+    <row r="23" spans="1:133" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>136</v>
       </c>
@@ -5135,7 +5149,7 @@
       <c r="EB23" s="13"/>
       <c r="EC23" s="13"/>
     </row>
-    <row r="24" spans="1:133" ht="120">
+    <row r="24" spans="1:133" ht="126" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>138</v>
       </c>
@@ -5279,7 +5293,7 @@
       <c r="EB24" s="13"/>
       <c r="EC24" s="13"/>
     </row>
-    <row r="25" spans="1:133" ht="75">
+    <row r="25" spans="1:133" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>140</v>
       </c>
@@ -5425,7 +5439,7 @@
       <c r="EB25" s="13"/>
       <c r="EC25" s="13"/>
     </row>
-    <row r="26" spans="1:133" ht="240">
+    <row r="26" spans="1:133" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>142</v>
       </c>
@@ -5577,7 +5591,7 @@
       <c r="EB26" s="13"/>
       <c r="EC26" s="13"/>
     </row>
-    <row r="27" spans="1:133" ht="330">
+    <row r="27" spans="1:133" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>144</v>
       </c>
@@ -5723,7 +5737,7 @@
       <c r="EB27" s="13"/>
       <c r="EC27" s="13"/>
     </row>
-    <row r="28" spans="1:133" ht="409">
+    <row r="28" spans="1:133" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>147</v>
       </c>
@@ -5881,7 +5895,7 @@
       <c r="EB28" s="13"/>
       <c r="EC28" s="13"/>
     </row>
-    <row r="29" spans="1:133" ht="72" customHeight="1">
+    <row r="29" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>163</v>
       </c>
@@ -6029,7 +6043,7 @@
       <c r="EB29" s="13"/>
       <c r="EC29" s="13"/>
     </row>
-    <row r="30" spans="1:133" ht="105">
+    <row r="30" spans="1:133" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>165</v>
       </c>
@@ -6183,7 +6197,7 @@
       <c r="EB30" s="13"/>
       <c r="EC30" s="13"/>
     </row>
-    <row r="31" spans="1:133" ht="165">
+    <row r="31" spans="1:133" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>168</v>
       </c>
@@ -6353,7 +6367,7 @@
       <c r="EB31" s="13"/>
       <c r="EC31" s="13"/>
     </row>
-    <row r="32" spans="1:133" ht="72" customHeight="1">
+    <row r="32" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>169</v>
       </c>
@@ -6501,7 +6515,7 @@
       <c r="EB32" s="13"/>
       <c r="EC32" s="13"/>
     </row>
-    <row r="33" spans="1:133" ht="72" customHeight="1">
+    <row r="33" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>171</v>
       </c>
@@ -6647,7 +6661,7 @@
       <c r="EB33" s="13"/>
       <c r="EC33" s="13"/>
     </row>
-    <row r="34" spans="1:133" ht="72" customHeight="1">
+    <row r="34" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>173</v>
       </c>
@@ -6801,7 +6815,7 @@
       <c r="EB34" s="13"/>
       <c r="EC34" s="13"/>
     </row>
-    <row r="35" spans="1:133" ht="72" customHeight="1">
+    <row r="35" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>175</v>
       </c>
@@ -6969,7 +6983,7 @@
       <c r="EB35" s="13"/>
       <c r="EC35" s="13"/>
     </row>
-    <row r="36" spans="1:133" ht="72" customHeight="1">
+    <row r="36" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>178</v>
       </c>
@@ -7123,7 +7137,7 @@
       <c r="EB36" s="13"/>
       <c r="EC36" s="13"/>
     </row>
-    <row r="37" spans="1:133" ht="72" customHeight="1">
+    <row r="37" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>179</v>
       </c>
@@ -7281,7 +7295,7 @@
       <c r="EB37" s="13"/>
       <c r="EC37" s="13"/>
     </row>
-    <row r="38" spans="1:133" ht="72" customHeight="1">
+    <row r="38" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>184</v>
       </c>
@@ -7429,7 +7443,7 @@
       <c r="EB38" s="13"/>
       <c r="EC38" s="13"/>
     </row>
-    <row r="39" spans="1:133" ht="72" customHeight="1">
+    <row r="39" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>186</v>
       </c>
@@ -7577,7 +7591,7 @@
       <c r="EB39" s="13"/>
       <c r="EC39" s="13"/>
     </row>
-    <row r="40" spans="1:133" ht="72" customHeight="1">
+    <row r="40" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>190</v>
       </c>
@@ -7743,7 +7757,7 @@
       <c r="EB40" s="13"/>
       <c r="EC40" s="13"/>
     </row>
-    <row r="41" spans="1:133" ht="72" customHeight="1">
+    <row r="41" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>193</v>
       </c>
@@ -7895,7 +7909,7 @@
       <c r="EB41" s="13"/>
       <c r="EC41" s="13"/>
     </row>
-    <row r="42" spans="1:133" ht="72" customHeight="1">
+    <row r="42" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>195</v>
       </c>
@@ -8047,7 +8061,7 @@
       <c r="EB42" s="13"/>
       <c r="EC42" s="13"/>
     </row>
-    <row r="43" spans="1:133" ht="72" customHeight="1">
+    <row r="43" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>197</v>
       </c>
@@ -8193,7 +8207,7 @@
       <c r="EB43" s="13"/>
       <c r="EC43" s="13"/>
     </row>
-    <row r="44" spans="1:133" ht="72" customHeight="1">
+    <row r="44" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>199</v>
       </c>
@@ -8341,7 +8355,7 @@
       <c r="EB44" s="13"/>
       <c r="EC44" s="13"/>
     </row>
-    <row r="45" spans="1:133" ht="72" customHeight="1">
+    <row r="45" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>204</v>
       </c>
@@ -8497,7 +8511,7 @@
       <c r="EB45" s="13"/>
       <c r="EC45" s="13"/>
     </row>
-    <row r="46" spans="1:133" ht="72" customHeight="1">
+    <row r="46" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>209</v>
       </c>
@@ -8645,7 +8659,7 @@
       <c r="EB46" s="13"/>
       <c r="EC46" s="13"/>
     </row>
-    <row r="47" spans="1:133" ht="72" customHeight="1">
+    <row r="47" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>213</v>
       </c>
@@ -8803,9 +8817,13 @@
       <c r="EB47" s="13"/>
       <c r="EC47" s="13"/>
     </row>
-    <row r="48" spans="1:133" ht="72" customHeight="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="24"/>
+    <row r="48" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>218</v>
+      </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="13"/>
@@ -8817,7 +8835,9 @@
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="14"/>
-      <c r="O48" s="13"/>
+      <c r="O48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
       <c r="R48" s="13"/>
@@ -8841,16 +8861,22 @@
       <c r="AJ48" s="13"/>
       <c r="AK48" s="13"/>
       <c r="AL48" s="13"/>
-      <c r="AM48" s="13"/>
+      <c r="AM48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="AN48" s="13"/>
       <c r="AO48" s="13"/>
       <c r="AP48" s="13"/>
       <c r="AQ48" s="13"/>
-      <c r="AR48" s="13"/>
+      <c r="AR48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="AS48" s="13"/>
       <c r="AT48" s="13"/>
       <c r="AU48" s="13"/>
-      <c r="AV48" s="13"/>
+      <c r="AV48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="AW48" s="13"/>
       <c r="AX48" s="13"/>
       <c r="AY48" s="13"/>
@@ -8908,7 +8934,9 @@
       <c r="CY48" s="13"/>
       <c r="CZ48" s="13"/>
       <c r="DA48" s="13"/>
-      <c r="DB48" s="13"/>
+      <c r="DB48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="DC48" s="13"/>
       <c r="DD48" s="13"/>
       <c r="DE48" s="13"/>
@@ -8933,11 +8961,13 @@
       <c r="DX48" s="13"/>
       <c r="DY48" s="13"/>
       <c r="DZ48" s="13"/>
-      <c r="EA48" s="13"/>
+      <c r="EA48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="EB48" s="13"/>
       <c r="EC48" s="13"/>
     </row>
-    <row r="49" spans="1:133" ht="72" customHeight="1">
+    <row r="49" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="24"/>
       <c r="D49" s="18"/>
@@ -9071,7 +9101,7 @@
       <c r="EB49" s="13"/>
       <c r="EC49" s="13"/>
     </row>
-    <row r="50" spans="1:133" ht="72" customHeight="1">
+    <row r="50" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="24"/>
       <c r="D50" s="18"/>
@@ -9205,7 +9235,7 @@
       <c r="EB50" s="13"/>
       <c r="EC50" s="13"/>
     </row>
-    <row r="51" spans="1:133" ht="72" customHeight="1">
+    <row r="51" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="24"/>
       <c r="D51" s="18"/>
@@ -9339,7 +9369,7 @@
       <c r="EB51" s="13"/>
       <c r="EC51" s="13"/>
     </row>
-    <row r="52" spans="1:133" ht="72" customHeight="1">
+    <row r="52" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="24"/>
       <c r="D52" s="18"/>
@@ -9473,7 +9503,7 @@
       <c r="EB52" s="13"/>
       <c r="EC52" s="13"/>
     </row>
-    <row r="53" spans="1:133" ht="72" customHeight="1">
+    <row r="53" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="24"/>
       <c r="D53" s="18"/>
@@ -9607,7 +9637,7 @@
       <c r="EB53" s="13"/>
       <c r="EC53" s="13"/>
     </row>
-    <row r="54" spans="1:133" ht="72" customHeight="1">
+    <row r="54" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="24"/>
       <c r="D54" s="18"/>
@@ -9741,7 +9771,7 @@
       <c r="EB54" s="13"/>
       <c r="EC54" s="13"/>
     </row>
-    <row r="55" spans="1:133" ht="72" customHeight="1">
+    <row r="55" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="24"/>
       <c r="D55" s="18"/>
@@ -9875,7 +9905,7 @@
       <c r="EB55" s="13"/>
       <c r="EC55" s="13"/>
     </row>
-    <row r="56" spans="1:133" ht="72" customHeight="1">
+    <row r="56" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="24"/>
       <c r="D56" s="18"/>
@@ -10009,7 +10039,7 @@
       <c r="EB56" s="13"/>
       <c r="EC56" s="13"/>
     </row>
-    <row r="57" spans="1:133" ht="72" customHeight="1">
+    <row r="57" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="24"/>
       <c r="D57" s="18"/>
@@ -10143,7 +10173,7 @@
       <c r="EB57" s="13"/>
       <c r="EC57" s="13"/>
     </row>
-    <row r="58" spans="1:133" ht="72" customHeight="1">
+    <row r="58" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="24"/>
       <c r="D58" s="18"/>
@@ -10277,7 +10307,7 @@
       <c r="EB58" s="13"/>
       <c r="EC58" s="13"/>
     </row>
-    <row r="59" spans="1:133" ht="72" customHeight="1">
+    <row r="59" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="24"/>
       <c r="D59" s="18"/>
@@ -10411,7 +10441,7 @@
       <c r="EB59" s="13"/>
       <c r="EC59" s="13"/>
     </row>
-    <row r="60" spans="1:133" ht="72" customHeight="1">
+    <row r="60" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="24"/>
       <c r="D60" s="18"/>
@@ -10545,7 +10575,7 @@
       <c r="EB60" s="13"/>
       <c r="EC60" s="13"/>
     </row>
-    <row r="61" spans="1:133" ht="72" customHeight="1">
+    <row r="61" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="24"/>
       <c r="D61" s="18"/>
@@ -10679,7 +10709,7 @@
       <c r="EB61" s="13"/>
       <c r="EC61" s="13"/>
     </row>
-    <row r="62" spans="1:133" ht="72" customHeight="1">
+    <row r="62" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="24"/>
       <c r="D62" s="18"/>
@@ -10813,7 +10843,7 @@
       <c r="EB62" s="13"/>
       <c r="EC62" s="13"/>
     </row>
-    <row r="63" spans="1:133" ht="72" customHeight="1">
+    <row r="63" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="24"/>
       <c r="D63" s="18"/>
@@ -10947,7 +10977,7 @@
       <c r="EB63" s="13"/>
       <c r="EC63" s="13"/>
     </row>
-    <row r="64" spans="1:133" ht="72" customHeight="1">
+    <row r="64" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="24"/>
       <c r="D64" s="18"/>
@@ -11081,7 +11111,7 @@
       <c r="EB64" s="13"/>
       <c r="EC64" s="13"/>
     </row>
-    <row r="65" spans="1:133" ht="72" customHeight="1">
+    <row r="65" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="24"/>
       <c r="D65" s="18"/>
@@ -11215,7 +11245,7 @@
       <c r="EB65" s="13"/>
       <c r="EC65" s="13"/>
     </row>
-    <row r="66" spans="1:133" ht="72" customHeight="1">
+    <row r="66" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="24"/>
       <c r="D66" s="18"/>
@@ -11349,7 +11379,7 @@
       <c r="EB66" s="13"/>
       <c r="EC66" s="13"/>
     </row>
-    <row r="67" spans="1:133" ht="72" customHeight="1">
+    <row r="67" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="24"/>
       <c r="D67" s="18"/>
@@ -11483,7 +11513,7 @@
       <c r="EB67" s="13"/>
       <c r="EC67" s="13"/>
     </row>
-    <row r="68" spans="1:133" ht="72" customHeight="1">
+    <row r="68" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="24"/>
       <c r="D68" s="18"/>
@@ -11617,7 +11647,7 @@
       <c r="EB68" s="13"/>
       <c r="EC68" s="13"/>
     </row>
-    <row r="69" spans="1:133" ht="72" customHeight="1">
+    <row r="69" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="24"/>
       <c r="D69" s="18"/>
@@ -11751,7 +11781,7 @@
       <c r="EB69" s="13"/>
       <c r="EC69" s="13"/>
     </row>
-    <row r="70" spans="1:133" ht="72" customHeight="1">
+    <row r="70" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="24"/>
       <c r="D70" s="18"/>
@@ -11885,7 +11915,7 @@
       <c r="EB70" s="13"/>
       <c r="EC70" s="13"/>
     </row>
-    <row r="71" spans="1:133" ht="72" customHeight="1">
+    <row r="71" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="24"/>
       <c r="D71" s="18"/>
@@ -12019,7 +12049,7 @@
       <c r="EB71" s="13"/>
       <c r="EC71" s="13"/>
     </row>
-    <row r="72" spans="1:133" ht="72" customHeight="1">
+    <row r="72" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="24"/>
       <c r="D72" s="18"/>
@@ -12153,7 +12183,7 @@
       <c r="EB72" s="13"/>
       <c r="EC72" s="13"/>
     </row>
-    <row r="73" spans="1:133" ht="72" customHeight="1">
+    <row r="73" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="24"/>
       <c r="D73" s="18"/>
@@ -12287,7 +12317,7 @@
       <c r="EB73" s="13"/>
       <c r="EC73" s="13"/>
     </row>
-    <row r="74" spans="1:133" ht="72" customHeight="1">
+    <row r="74" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="24"/>
       <c r="D74" s="18"/>
@@ -12421,7 +12451,7 @@
       <c r="EB74" s="13"/>
       <c r="EC74" s="13"/>
     </row>
-    <row r="75" spans="1:133" ht="72" customHeight="1">
+    <row r="75" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="24"/>
       <c r="D75" s="18"/>
@@ -12555,7 +12585,7 @@
       <c r="EB75" s="13"/>
       <c r="EC75" s="13"/>
     </row>
-    <row r="76" spans="1:133" ht="72" customHeight="1">
+    <row r="76" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="24"/>
       <c r="D76" s="18"/>
@@ -12689,7 +12719,7 @@
       <c r="EB76" s="13"/>
       <c r="EC76" s="13"/>
     </row>
-    <row r="77" spans="1:133" ht="72" customHeight="1">
+    <row r="77" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="24"/>
       <c r="D77" s="18"/>
@@ -12823,7 +12853,7 @@
       <c r="EB77" s="13"/>
       <c r="EC77" s="13"/>
     </row>
-    <row r="78" spans="1:133" ht="72" customHeight="1">
+    <row r="78" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="24"/>
       <c r="D78" s="18"/>
@@ -12957,7 +12987,7 @@
       <c r="EB78" s="13"/>
       <c r="EC78" s="13"/>
     </row>
-    <row r="79" spans="1:133" ht="72" customHeight="1">
+    <row r="79" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="24"/>
       <c r="D79" s="18"/>
@@ -13091,7 +13121,7 @@
       <c r="EB79" s="13"/>
       <c r="EC79" s="13"/>
     </row>
-    <row r="80" spans="1:133" ht="72" customHeight="1">
+    <row r="80" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="24"/>
       <c r="D80" s="18"/>
@@ -13225,7 +13255,7 @@
       <c r="EB80" s="13"/>
       <c r="EC80" s="13"/>
     </row>
-    <row r="81" spans="1:133" ht="72" customHeight="1">
+    <row r="81" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="24"/>
       <c r="D81" s="18"/>
@@ -13359,7 +13389,7 @@
       <c r="EB81" s="13"/>
       <c r="EC81" s="13"/>
     </row>
-    <row r="82" spans="1:133" ht="72" customHeight="1">
+    <row r="82" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="24"/>
       <c r="D82" s="18"/>
@@ -13493,7 +13523,7 @@
       <c r="EB82" s="13"/>
       <c r="EC82" s="13"/>
     </row>
-    <row r="83" spans="1:133" ht="72" customHeight="1">
+    <row r="83" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="24"/>
       <c r="D83" s="18"/>
@@ -13627,7 +13657,7 @@
       <c r="EB83" s="13"/>
       <c r="EC83" s="13"/>
     </row>
-    <row r="84" spans="1:133" ht="72" customHeight="1">
+    <row r="84" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="24"/>
       <c r="D84" s="18"/>
@@ -13761,7 +13791,7 @@
       <c r="EB84" s="13"/>
       <c r="EC84" s="13"/>
     </row>
-    <row r="85" spans="1:133" ht="72" customHeight="1">
+    <row r="85" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="24"/>
       <c r="D85" s="18"/>
@@ -13895,7 +13925,7 @@
       <c r="EB85" s="13"/>
       <c r="EC85" s="13"/>
     </row>
-    <row r="86" spans="1:133" ht="72" customHeight="1">
+    <row r="86" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="24"/>
       <c r="D86" s="18"/>
@@ -14029,7 +14059,7 @@
       <c r="EB86" s="13"/>
       <c r="EC86" s="13"/>
     </row>
-    <row r="87" spans="1:133" ht="72" customHeight="1">
+    <row r="87" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="24"/>
       <c r="D87" s="18"/>
@@ -14163,7 +14193,7 @@
       <c r="EB87" s="13"/>
       <c r="EC87" s="13"/>
     </row>
-    <row r="88" spans="1:133" ht="72" customHeight="1">
+    <row r="88" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="24"/>
       <c r="D88" s="18"/>
@@ -14297,7 +14327,7 @@
       <c r="EB88" s="13"/>
       <c r="EC88" s="13"/>
     </row>
-    <row r="89" spans="1:133" ht="72" customHeight="1">
+    <row r="89" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="24"/>
       <c r="D89" s="18"/>
@@ -14431,7 +14461,7 @@
       <c r="EB89" s="13"/>
       <c r="EC89" s="13"/>
     </row>
-    <row r="90" spans="1:133" ht="72" customHeight="1">
+    <row r="90" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="24"/>
       <c r="D90" s="18"/>
@@ -14565,7 +14595,7 @@
       <c r="EB90" s="13"/>
       <c r="EC90" s="13"/>
     </row>
-    <row r="91" spans="1:133" ht="72" customHeight="1">
+    <row r="91" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="24"/>
       <c r="D91" s="18"/>
@@ -14699,7 +14729,7 @@
       <c r="EB91" s="13"/>
       <c r="EC91" s="13"/>
     </row>
-    <row r="92" spans="1:133" ht="72" customHeight="1">
+    <row r="92" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="24"/>
       <c r="D92" s="18"/>
@@ -14833,7 +14863,7 @@
       <c r="EB92" s="13"/>
       <c r="EC92" s="13"/>
     </row>
-    <row r="93" spans="1:133" ht="72" customHeight="1">
+    <row r="93" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="24"/>
       <c r="D93" s="18"/>
@@ -14967,7 +14997,7 @@
       <c r="EB93" s="13"/>
       <c r="EC93" s="13"/>
     </row>
-    <row r="94" spans="1:133" ht="72" customHeight="1">
+    <row r="94" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="24"/>
       <c r="D94" s="18"/>
@@ -15101,7 +15131,7 @@
       <c r="EB94" s="13"/>
       <c r="EC94" s="13"/>
     </row>
-    <row r="95" spans="1:133" ht="72" customHeight="1">
+    <row r="95" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="24"/>
       <c r="D95" s="18"/>
@@ -15235,7 +15265,7 @@
       <c r="EB95" s="13"/>
       <c r="EC95" s="13"/>
     </row>
-    <row r="96" spans="1:133" ht="72" customHeight="1">
+    <row r="96" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="24"/>
       <c r="D96" s="18"/>
@@ -15369,7 +15399,7 @@
       <c r="EB96" s="13"/>
       <c r="EC96" s="13"/>
     </row>
-    <row r="97" spans="1:133" ht="72" customHeight="1">
+    <row r="97" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="24"/>
       <c r="D97" s="18"/>
@@ -15503,7 +15533,7 @@
       <c r="EB97" s="13"/>
       <c r="EC97" s="13"/>
     </row>
-    <row r="98" spans="1:133" ht="72" customHeight="1">
+    <row r="98" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="24"/>
       <c r="D98" s="18"/>
@@ -15637,7 +15667,7 @@
       <c r="EB98" s="13"/>
       <c r="EC98" s="13"/>
     </row>
-    <row r="99" spans="1:133" ht="72" customHeight="1">
+    <row r="99" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="24"/>
       <c r="D99" s="18"/>
@@ -15771,7 +15801,7 @@
       <c r="EB99" s="13"/>
       <c r="EC99" s="13"/>
     </row>
-    <row r="100" spans="1:133" ht="72" customHeight="1">
+    <row r="100" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="24"/>
       <c r="D100" s="18"/>
@@ -15905,7 +15935,7 @@
       <c r="EB100" s="13"/>
       <c r="EC100" s="13"/>
     </row>
-    <row r="101" spans="1:133" ht="72" customHeight="1">
+    <row r="101" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16"/>
       <c r="B101" s="24"/>
       <c r="D101" s="18"/>
@@ -16039,7 +16069,7 @@
       <c r="EB101" s="13"/>
       <c r="EC101" s="13"/>
     </row>
-    <row r="102" spans="1:133" ht="72" customHeight="1">
+    <row r="102" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16"/>
       <c r="B102" s="24"/>
       <c r="D102" s="18"/>
@@ -16173,7 +16203,7 @@
       <c r="EB102" s="13"/>
       <c r="EC102" s="13"/>
     </row>
-    <row r="103" spans="1:133" ht="72" customHeight="1">
+    <row r="103" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="24"/>
       <c r="D103" s="18"/>
@@ -16307,7 +16337,7 @@
       <c r="EB103" s="13"/>
       <c r="EC103" s="13"/>
     </row>
-    <row r="104" spans="1:133" ht="72" customHeight="1">
+    <row r="104" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="24"/>
       <c r="D104" s="18"/>
@@ -16441,7 +16471,7 @@
       <c r="EB104" s="13"/>
       <c r="EC104" s="13"/>
     </row>
-    <row r="105" spans="1:133" ht="72" customHeight="1">
+    <row r="105" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="24"/>
       <c r="D105" s="18"/>
@@ -16575,7 +16605,7 @@
       <c r="EB105" s="13"/>
       <c r="EC105" s="13"/>
     </row>
-    <row r="106" spans="1:133" ht="72" customHeight="1">
+    <row r="106" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="24"/>
       <c r="D106" s="18"/>
@@ -16709,7 +16739,7 @@
       <c r="EB106" s="13"/>
       <c r="EC106" s="13"/>
     </row>
-    <row r="107" spans="1:133" ht="72" customHeight="1">
+    <row r="107" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="24"/>
       <c r="D107" s="18"/>
@@ -16843,7 +16873,7 @@
       <c r="EB107" s="13"/>
       <c r="EC107" s="13"/>
     </row>
-    <row r="108" spans="1:133" ht="72" customHeight="1">
+    <row r="108" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="24"/>
       <c r="D108" s="18"/>
@@ -16977,7 +17007,7 @@
       <c r="EB108" s="13"/>
       <c r="EC108" s="13"/>
     </row>
-    <row r="109" spans="1:133" ht="72" customHeight="1">
+    <row r="109" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="24"/>
       <c r="D109" s="18"/>
@@ -17111,7 +17141,7 @@
       <c r="EB109" s="13"/>
       <c r="EC109" s="13"/>
     </row>
-    <row r="110" spans="1:133" ht="72" customHeight="1">
+    <row r="110" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="24"/>
       <c r="D110" s="18"/>
@@ -17245,7 +17275,7 @@
       <c r="EB110" s="13"/>
       <c r="EC110" s="13"/>
     </row>
-    <row r="111" spans="1:133" ht="72" customHeight="1">
+    <row r="111" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="24"/>
       <c r="D111" s="18"/>
@@ -17379,7 +17409,7 @@
       <c r="EB111" s="13"/>
       <c r="EC111" s="13"/>
     </row>
-    <row r="112" spans="1:133" ht="72" customHeight="1">
+    <row r="112" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="24"/>
       <c r="D112" s="18"/>
@@ -17513,7 +17543,7 @@
       <c r="EB112" s="13"/>
       <c r="EC112" s="13"/>
     </row>
-    <row r="113" spans="1:133" ht="72" customHeight="1">
+    <row r="113" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="24"/>
       <c r="D113" s="18"/>
@@ -17647,7 +17677,7 @@
       <c r="EB113" s="13"/>
       <c r="EC113" s="13"/>
     </row>
-    <row r="114" spans="1:133" ht="72" customHeight="1">
+    <row r="114" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="24"/>
       <c r="D114" s="18"/>
@@ -17781,7 +17811,7 @@
       <c r="EB114" s="13"/>
       <c r="EC114" s="13"/>
     </row>
-    <row r="115" spans="1:133" ht="72" customHeight="1">
+    <row r="115" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="24"/>
       <c r="D115" s="18"/>
@@ -17915,141 +17945,87 @@
       <c r="EB115" s="13"/>
       <c r="EC115" s="13"/>
     </row>
-    <row r="116" spans="1:133" ht="72" customHeight="1">
-      <c r="A116" s="16"/>
-      <c r="B116" s="24"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="14"/>
-      <c r="O116" s="13"/>
-      <c r="P116" s="13"/>
-      <c r="Q116" s="13"/>
-      <c r="R116" s="13"/>
-      <c r="S116" s="13"/>
-      <c r="T116" s="13"/>
-      <c r="U116" s="13"/>
-      <c r="V116" s="13"/>
-      <c r="W116" s="13"/>
-      <c r="X116" s="13"/>
-      <c r="Y116" s="13"/>
-      <c r="Z116" s="13"/>
-      <c r="AA116" s="13"/>
-      <c r="AB116" s="13"/>
-      <c r="AC116" s="13"/>
-      <c r="AD116" s="13"/>
-      <c r="AE116" s="13"/>
-      <c r="AF116" s="13"/>
-      <c r="AG116" s="13"/>
-      <c r="AH116" s="13"/>
-      <c r="AI116" s="13"/>
-      <c r="AJ116" s="13"/>
-      <c r="AK116" s="13"/>
-      <c r="AL116" s="13"/>
-      <c r="AM116" s="13"/>
-      <c r="AN116" s="13"/>
-      <c r="AO116" s="13"/>
-      <c r="AP116" s="13"/>
-      <c r="AQ116" s="13"/>
-      <c r="AR116" s="13"/>
-      <c r="AS116" s="13"/>
-      <c r="AT116" s="13"/>
-      <c r="AU116" s="13"/>
-      <c r="AV116" s="13"/>
-      <c r="AW116" s="13"/>
-      <c r="AX116" s="13"/>
-      <c r="AY116" s="13"/>
-      <c r="AZ116" s="13"/>
-      <c r="BA116" s="13"/>
-      <c r="BB116" s="13"/>
-      <c r="BC116" s="13"/>
-      <c r="BD116" s="13"/>
-      <c r="BE116" s="13"/>
-      <c r="BF116" s="13"/>
-      <c r="BG116" s="13"/>
-      <c r="BH116" s="13"/>
-      <c r="BI116" s="13"/>
-      <c r="BJ116" s="13"/>
-      <c r="BK116" s="13"/>
-      <c r="BL116" s="13"/>
-      <c r="BM116" s="13"/>
-      <c r="BN116" s="13"/>
-      <c r="BO116" s="13"/>
-      <c r="BP116" s="13"/>
-      <c r="BQ116" s="13"/>
-      <c r="BR116" s="13"/>
-      <c r="BS116" s="13"/>
-      <c r="BT116" s="13"/>
-      <c r="BU116" s="13"/>
-      <c r="BV116" s="13"/>
-      <c r="BW116" s="13"/>
-      <c r="BX116" s="13"/>
-      <c r="BY116" s="13"/>
-      <c r="BZ116" s="13"/>
-      <c r="CA116" s="13"/>
-      <c r="CB116" s="13"/>
-      <c r="CC116" s="13"/>
-      <c r="CD116" s="13"/>
-      <c r="CE116" s="13"/>
-      <c r="CF116" s="13"/>
-      <c r="CG116" s="13"/>
-      <c r="CH116" s="13"/>
-      <c r="CI116" s="13"/>
-      <c r="CJ116" s="13"/>
-      <c r="CK116" s="13"/>
-      <c r="CL116" s="13"/>
-      <c r="CM116" s="13"/>
-      <c r="CN116" s="13"/>
-      <c r="CO116" s="13"/>
-      <c r="CP116" s="13"/>
-      <c r="CQ116" s="13"/>
-      <c r="CR116" s="13"/>
-      <c r="CS116" s="13"/>
-      <c r="CT116" s="13"/>
-      <c r="CU116" s="13"/>
-      <c r="CV116" s="13"/>
-      <c r="CW116" s="13"/>
-      <c r="CX116" s="13"/>
-      <c r="CY116" s="13"/>
-      <c r="CZ116" s="13"/>
-      <c r="DA116" s="13"/>
-      <c r="DB116" s="13"/>
-      <c r="DC116" s="13"/>
-      <c r="DD116" s="13"/>
-      <c r="DE116" s="13"/>
-      <c r="DF116" s="13"/>
-      <c r="DG116" s="13"/>
-      <c r="DH116" s="13"/>
-      <c r="DI116" s="13"/>
-      <c r="DJ116" s="13"/>
-      <c r="DK116" s="13"/>
-      <c r="DL116" s="13"/>
-      <c r="DM116" s="13"/>
-      <c r="DN116" s="13"/>
-      <c r="DO116" s="13"/>
-      <c r="DP116" s="13"/>
-      <c r="DQ116" s="13"/>
-      <c r="DR116" s="13"/>
-      <c r="DS116" s="13"/>
-      <c r="DT116" s="13"/>
-      <c r="DU116" s="13"/>
-      <c r="DV116" s="13"/>
-      <c r="DW116" s="13"/>
-      <c r="DX116" s="13"/>
-      <c r="DY116" s="13"/>
-      <c r="DZ116" s="13"/>
-      <c r="EA116" s="13"/>
-      <c r="EB116" s="13"/>
-      <c r="EC116" s="13"/>
+    <row r="116" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="25"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="28"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="21"/>
+      <c r="Q116" s="10"/>
+      <c r="R116" s="28"/>
+      <c r="S116" s="10"/>
+      <c r="T116" s="10"/>
+      <c r="U116" s="10"/>
+      <c r="V116" s="10"/>
+      <c r="W116" s="10"/>
+      <c r="X116" s="10"/>
+      <c r="Y116" s="10"/>
+      <c r="Z116" s="10"/>
+      <c r="AA116" s="21"/>
+      <c r="AB116" s="10"/>
+      <c r="AC116" s="10"/>
+      <c r="AD116" s="10"/>
+      <c r="AE116" s="10"/>
+      <c r="AF116" s="10"/>
+      <c r="AG116" s="10"/>
+      <c r="AH116" s="10"/>
+      <c r="AI116" s="10"/>
+      <c r="AJ116" s="10"/>
+      <c r="AK116" s="10"/>
+      <c r="AL116" s="10"/>
+      <c r="AM116" s="10"/>
+      <c r="AN116" s="27"/>
+      <c r="AO116" s="10"/>
+      <c r="AP116" s="10"/>
+      <c r="AQ116" s="21"/>
+      <c r="AR116" s="10"/>
+      <c r="AS116" s="10"/>
+      <c r="AT116" s="10"/>
+      <c r="AU116" s="28"/>
+      <c r="AV116" s="10"/>
+      <c r="AW116" s="10"/>
+      <c r="AX116" s="10"/>
+      <c r="AY116" s="21"/>
+      <c r="AZ116" s="10"/>
+      <c r="BA116" s="10"/>
+      <c r="BB116" s="10"/>
+      <c r="BC116" s="10"/>
+      <c r="BD116" s="21"/>
+      <c r="BE116" s="10"/>
+      <c r="BF116" s="10"/>
+      <c r="BG116" s="10"/>
+      <c r="BH116" s="10"/>
+      <c r="BI116" s="10"/>
+      <c r="BJ116" s="10"/>
+      <c r="BK116" s="10"/>
+      <c r="BL116" s="10"/>
+      <c r="BM116" s="10"/>
+      <c r="BN116" s="28"/>
+      <c r="BO116" s="10"/>
+      <c r="BP116" s="10"/>
+      <c r="BQ116" s="10"/>
+      <c r="BR116" s="10"/>
+      <c r="BS116" s="10"/>
+      <c r="BT116" s="10"/>
+      <c r="BU116" s="10"/>
+      <c r="BV116" s="10"/>
+      <c r="BW116" s="27"/>
+      <c r="BX116" s="10"/>
+      <c r="BY116" s="28"/>
+      <c r="BZ116" s="10"/>
+      <c r="CA116" s="10"/>
+      <c r="CB116" s="10"/>
     </row>
-    <row r="117" spans="1:133" ht="72" customHeight="1">
+    <row r="117" spans="1:133" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="25"/>
       <c r="D117" s="10"/>
       <c r="E117" s="21"/>
@@ -18129,7 +18105,7 @@
       <c r="CA117" s="10"/>
       <c r="CB117" s="10"/>
     </row>
-    <row r="118" spans="1:133" ht="72" customHeight="1">
+    <row r="118" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B118" s="25"/>
       <c r="D118" s="10"/>
       <c r="E118" s="21"/>
@@ -18209,7 +18185,7 @@
       <c r="CA118" s="10"/>
       <c r="CB118" s="10"/>
     </row>
-    <row r="119" spans="1:133">
+    <row r="119" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B119" s="25"/>
       <c r="D119" s="10"/>
       <c r="E119" s="21"/>
@@ -18289,7 +18265,7 @@
       <c r="CA119" s="10"/>
       <c r="CB119" s="10"/>
     </row>
-    <row r="120" spans="1:133">
+    <row r="120" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B120" s="25"/>
       <c r="D120" s="10"/>
       <c r="E120" s="21"/>
@@ -18369,7 +18345,7 @@
       <c r="CA120" s="10"/>
       <c r="CB120" s="10"/>
     </row>
-    <row r="121" spans="1:133">
+    <row r="121" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B121" s="25"/>
       <c r="D121" s="10"/>
       <c r="E121" s="21"/>
@@ -18449,7 +18425,7 @@
       <c r="CA121" s="10"/>
       <c r="CB121" s="10"/>
     </row>
-    <row r="122" spans="1:133">
+    <row r="122" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B122" s="25"/>
       <c r="D122" s="10"/>
       <c r="E122" s="21"/>
@@ -18529,7 +18505,7 @@
       <c r="CA122" s="10"/>
       <c r="CB122" s="10"/>
     </row>
-    <row r="123" spans="1:133">
+    <row r="123" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B123" s="25"/>
       <c r="D123" s="10"/>
       <c r="E123" s="21"/>
@@ -18609,7 +18585,7 @@
       <c r="CA123" s="10"/>
       <c r="CB123" s="10"/>
     </row>
-    <row r="124" spans="1:133">
+    <row r="124" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B124" s="25"/>
       <c r="D124" s="10"/>
       <c r="E124" s="21"/>
@@ -18689,7 +18665,7 @@
       <c r="CA124" s="10"/>
       <c r="CB124" s="10"/>
     </row>
-    <row r="125" spans="1:133">
+    <row r="125" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B125" s="25"/>
       <c r="D125" s="10"/>
       <c r="E125" s="21"/>
@@ -18769,7 +18745,7 @@
       <c r="CA125" s="10"/>
       <c r="CB125" s="10"/>
     </row>
-    <row r="126" spans="1:133">
+    <row r="126" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B126" s="25"/>
       <c r="D126" s="10"/>
       <c r="E126" s="21"/>
@@ -18849,7 +18825,7 @@
       <c r="CA126" s="10"/>
       <c r="CB126" s="10"/>
     </row>
-    <row r="127" spans="1:133">
+    <row r="127" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B127" s="25"/>
       <c r="D127" s="10"/>
       <c r="E127" s="21"/>
@@ -18929,7 +18905,7 @@
       <c r="CA127" s="10"/>
       <c r="CB127" s="10"/>
     </row>
-    <row r="128" spans="1:133">
+    <row r="128" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B128" s="25"/>
       <c r="D128" s="10"/>
       <c r="E128" s="21"/>
@@ -19009,7 +18985,7 @@
       <c r="CA128" s="10"/>
       <c r="CB128" s="10"/>
     </row>
-    <row r="129" spans="2:80">
+    <row r="129" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B129" s="25"/>
       <c r="D129" s="10"/>
       <c r="E129" s="21"/>
@@ -19089,7 +19065,7 @@
       <c r="CA129" s="10"/>
       <c r="CB129" s="10"/>
     </row>
-    <row r="130" spans="2:80">
+    <row r="130" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B130" s="25"/>
       <c r="D130" s="10"/>
       <c r="E130" s="21"/>
@@ -19169,7 +19145,7 @@
       <c r="CA130" s="10"/>
       <c r="CB130" s="10"/>
     </row>
-    <row r="131" spans="2:80">
+    <row r="131" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B131" s="25"/>
       <c r="D131" s="10"/>
       <c r="E131" s="21"/>
@@ -19249,7 +19225,7 @@
       <c r="CA131" s="10"/>
       <c r="CB131" s="10"/>
     </row>
-    <row r="132" spans="2:80">
+    <row r="132" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B132" s="25"/>
       <c r="D132" s="10"/>
       <c r="E132" s="21"/>
@@ -19329,7 +19305,7 @@
       <c r="CA132" s="10"/>
       <c r="CB132" s="10"/>
     </row>
-    <row r="133" spans="2:80">
+    <row r="133" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B133" s="25"/>
       <c r="D133" s="10"/>
       <c r="E133" s="21"/>
@@ -19409,7 +19385,7 @@
       <c r="CA133" s="10"/>
       <c r="CB133" s="10"/>
     </row>
-    <row r="134" spans="2:80">
+    <row r="134" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B134" s="25"/>
       <c r="D134" s="10"/>
       <c r="E134" s="21"/>
@@ -19489,7 +19465,7 @@
       <c r="CA134" s="10"/>
       <c r="CB134" s="10"/>
     </row>
-    <row r="135" spans="2:80">
+    <row r="135" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B135" s="25"/>
       <c r="D135" s="10"/>
       <c r="E135" s="21"/>
@@ -19569,7 +19545,7 @@
       <c r="CA135" s="10"/>
       <c r="CB135" s="10"/>
     </row>
-    <row r="136" spans="2:80">
+    <row r="136" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B136" s="25"/>
       <c r="D136" s="10"/>
       <c r="E136" s="21"/>
@@ -19649,7 +19625,7 @@
       <c r="CA136" s="10"/>
       <c r="CB136" s="10"/>
     </row>
-    <row r="137" spans="2:80">
+    <row r="137" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B137" s="25"/>
       <c r="D137" s="10"/>
       <c r="E137" s="21"/>
@@ -19729,8 +19705,7 @@
       <c r="CA137" s="10"/>
       <c r="CB137" s="10"/>
     </row>
-    <row r="138" spans="2:80">
-      <c r="B138" s="25"/>
+    <row r="138" spans="2:80" x14ac:dyDescent="0.25">
       <c r="D138" s="10"/>
       <c r="E138" s="21"/>
       <c r="F138" s="10"/>
@@ -19809,7 +19784,7 @@
       <c r="CA138" s="10"/>
       <c r="CB138" s="10"/>
     </row>
-    <row r="139" spans="2:80">
+    <row r="139" spans="2:80" x14ac:dyDescent="0.25">
       <c r="D139" s="10"/>
       <c r="E139" s="21"/>
       <c r="F139" s="10"/>
@@ -19888,7 +19863,7 @@
       <c r="CA139" s="10"/>
       <c r="CB139" s="10"/>
     </row>
-    <row r="140" spans="2:80">
+    <row r="140" spans="2:80" x14ac:dyDescent="0.25">
       <c r="D140" s="10"/>
       <c r="E140" s="21"/>
       <c r="F140" s="10"/>
@@ -19967,7 +19942,7 @@
       <c r="CA140" s="10"/>
       <c r="CB140" s="10"/>
     </row>
-    <row r="141" spans="2:80">
+    <row r="141" spans="2:80" x14ac:dyDescent="0.25">
       <c r="D141" s="10"/>
       <c r="E141" s="21"/>
       <c r="F141" s="10"/>
@@ -20046,7 +20021,7 @@
       <c r="CA141" s="10"/>
       <c r="CB141" s="10"/>
     </row>
-    <row r="142" spans="2:80">
+    <row r="142" spans="2:80" x14ac:dyDescent="0.25">
       <c r="D142" s="10"/>
       <c r="E142" s="21"/>
       <c r="F142" s="10"/>
@@ -20125,7 +20100,7 @@
       <c r="CA142" s="10"/>
       <c r="CB142" s="10"/>
     </row>
-    <row r="143" spans="2:80">
+    <row r="143" spans="2:80" x14ac:dyDescent="0.25">
       <c r="D143" s="10"/>
       <c r="E143" s="21"/>
       <c r="F143" s="10"/>
@@ -20204,7 +20179,7 @@
       <c r="CA143" s="10"/>
       <c r="CB143" s="10"/>
     </row>
-    <row r="144" spans="2:80">
+    <row r="144" spans="2:80" x14ac:dyDescent="0.25">
       <c r="D144" s="10"/>
       <c r="E144" s="21"/>
       <c r="F144" s="10"/>
@@ -20283,7 +20258,7 @@
       <c r="CA144" s="10"/>
       <c r="CB144" s="10"/>
     </row>
-    <row r="145" spans="4:80">
+    <row r="145" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D145" s="10"/>
       <c r="E145" s="21"/>
       <c r="F145" s="10"/>
@@ -20362,7 +20337,7 @@
       <c r="CA145" s="10"/>
       <c r="CB145" s="10"/>
     </row>
-    <row r="146" spans="4:80">
+    <row r="146" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D146" s="10"/>
       <c r="E146" s="21"/>
       <c r="F146" s="10"/>
@@ -20441,7 +20416,7 @@
       <c r="CA146" s="10"/>
       <c r="CB146" s="10"/>
     </row>
-    <row r="147" spans="4:80">
+    <row r="147" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D147" s="10"/>
       <c r="E147" s="21"/>
       <c r="F147" s="10"/>
@@ -20520,7 +20495,7 @@
       <c r="CA147" s="10"/>
       <c r="CB147" s="10"/>
     </row>
-    <row r="148" spans="4:80">
+    <row r="148" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D148" s="10"/>
       <c r="E148" s="21"/>
       <c r="F148" s="10"/>
@@ -20599,7 +20574,7 @@
       <c r="CA148" s="10"/>
       <c r="CB148" s="10"/>
     </row>
-    <row r="149" spans="4:80">
+    <row r="149" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D149" s="10"/>
       <c r="E149" s="21"/>
       <c r="F149" s="10"/>
@@ -20678,7 +20653,7 @@
       <c r="CA149" s="10"/>
       <c r="CB149" s="10"/>
     </row>
-    <row r="150" spans="4:80">
+    <row r="150" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D150" s="10"/>
       <c r="E150" s="21"/>
       <c r="F150" s="10"/>
@@ -20757,7 +20732,7 @@
       <c r="CA150" s="10"/>
       <c r="CB150" s="10"/>
     </row>
-    <row r="151" spans="4:80">
+    <row r="151" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D151" s="10"/>
       <c r="E151" s="21"/>
       <c r="F151" s="10"/>
@@ -20836,7 +20811,7 @@
       <c r="CA151" s="10"/>
       <c r="CB151" s="10"/>
     </row>
-    <row r="152" spans="4:80">
+    <row r="152" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D152" s="10"/>
       <c r="E152" s="21"/>
       <c r="F152" s="10"/>
@@ -20915,7 +20890,7 @@
       <c r="CA152" s="10"/>
       <c r="CB152" s="10"/>
     </row>
-    <row r="153" spans="4:80">
+    <row r="153" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D153" s="10"/>
       <c r="E153" s="21"/>
       <c r="F153" s="10"/>
@@ -20994,7 +20969,7 @@
       <c r="CA153" s="10"/>
       <c r="CB153" s="10"/>
     </row>
-    <row r="154" spans="4:80">
+    <row r="154" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D154" s="10"/>
       <c r="E154" s="21"/>
       <c r="F154" s="10"/>
@@ -21073,7 +21048,7 @@
       <c r="CA154" s="10"/>
       <c r="CB154" s="10"/>
     </row>
-    <row r="155" spans="4:80">
+    <row r="155" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D155" s="10"/>
       <c r="E155" s="21"/>
       <c r="F155" s="10"/>
@@ -21152,7 +21127,7 @@
       <c r="CA155" s="10"/>
       <c r="CB155" s="10"/>
     </row>
-    <row r="156" spans="4:80">
+    <row r="156" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D156" s="10"/>
       <c r="E156" s="21"/>
       <c r="F156" s="10"/>
@@ -21231,7 +21206,7 @@
       <c r="CA156" s="10"/>
       <c r="CB156" s="10"/>
     </row>
-    <row r="157" spans="4:80">
+    <row r="157" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D157" s="10"/>
       <c r="E157" s="21"/>
       <c r="F157" s="10"/>
@@ -21310,7 +21285,7 @@
       <c r="CA157" s="10"/>
       <c r="CB157" s="10"/>
     </row>
-    <row r="158" spans="4:80">
+    <row r="158" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D158" s="10"/>
       <c r="E158" s="21"/>
       <c r="F158" s="10"/>
@@ -21389,7 +21364,7 @@
       <c r="CA158" s="10"/>
       <c r="CB158" s="10"/>
     </row>
-    <row r="159" spans="4:80">
+    <row r="159" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D159" s="10"/>
       <c r="E159" s="21"/>
       <c r="F159" s="10"/>
@@ -21468,7 +21443,7 @@
       <c r="CA159" s="10"/>
       <c r="CB159" s="10"/>
     </row>
-    <row r="160" spans="4:80">
+    <row r="160" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D160" s="10"/>
       <c r="E160" s="21"/>
       <c r="F160" s="10"/>
@@ -21547,7 +21522,7 @@
       <c r="CA160" s="10"/>
       <c r="CB160" s="10"/>
     </row>
-    <row r="161" spans="4:80">
+    <row r="161" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D161" s="10"/>
       <c r="E161" s="21"/>
       <c r="F161" s="10"/>
@@ -21626,7 +21601,7 @@
       <c r="CA161" s="10"/>
       <c r="CB161" s="10"/>
     </row>
-    <row r="162" spans="4:80">
+    <row r="162" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D162" s="10"/>
       <c r="E162" s="21"/>
       <c r="F162" s="10"/>
@@ -21705,7 +21680,7 @@
       <c r="CA162" s="10"/>
       <c r="CB162" s="10"/>
     </row>
-    <row r="163" spans="4:80">
+    <row r="163" spans="4:80" x14ac:dyDescent="0.25">
       <c r="D163" s="10"/>
       <c r="E163" s="21"/>
       <c r="F163" s="10"/>
@@ -21784,85 +21759,6 @@
       <c r="CA163" s="10"/>
       <c r="CB163" s="10"/>
     </row>
-    <row r="164" spans="4:80">
-      <c r="D164" s="10"/>
-      <c r="E164" s="21"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="10"/>
-      <c r="I164" s="10"/>
-      <c r="J164" s="10"/>
-      <c r="K164" s="28"/>
-      <c r="L164" s="10"/>
-      <c r="M164" s="10"/>
-      <c r="N164" s="11"/>
-      <c r="O164" s="10"/>
-      <c r="P164" s="21"/>
-      <c r="Q164" s="10"/>
-      <c r="R164" s="28"/>
-      <c r="S164" s="10"/>
-      <c r="T164" s="10"/>
-      <c r="U164" s="10"/>
-      <c r="V164" s="10"/>
-      <c r="W164" s="10"/>
-      <c r="X164" s="10"/>
-      <c r="Y164" s="10"/>
-      <c r="Z164" s="10"/>
-      <c r="AA164" s="21"/>
-      <c r="AB164" s="10"/>
-      <c r="AC164" s="10"/>
-      <c r="AD164" s="10"/>
-      <c r="AE164" s="10"/>
-      <c r="AF164" s="10"/>
-      <c r="AG164" s="10"/>
-      <c r="AH164" s="10"/>
-      <c r="AI164" s="10"/>
-      <c r="AJ164" s="10"/>
-      <c r="AK164" s="10"/>
-      <c r="AL164" s="10"/>
-      <c r="AM164" s="10"/>
-      <c r="AN164" s="27"/>
-      <c r="AO164" s="10"/>
-      <c r="AP164" s="10"/>
-      <c r="AQ164" s="21"/>
-      <c r="AR164" s="10"/>
-      <c r="AS164" s="10"/>
-      <c r="AT164" s="10"/>
-      <c r="AU164" s="28"/>
-      <c r="AV164" s="10"/>
-      <c r="AW164" s="10"/>
-      <c r="AX164" s="10"/>
-      <c r="AY164" s="21"/>
-      <c r="AZ164" s="10"/>
-      <c r="BA164" s="10"/>
-      <c r="BB164" s="10"/>
-      <c r="BC164" s="10"/>
-      <c r="BD164" s="21"/>
-      <c r="BE164" s="10"/>
-      <c r="BF164" s="10"/>
-      <c r="BG164" s="10"/>
-      <c r="BH164" s="10"/>
-      <c r="BI164" s="10"/>
-      <c r="BJ164" s="10"/>
-      <c r="BK164" s="10"/>
-      <c r="BL164" s="10"/>
-      <c r="BM164" s="10"/>
-      <c r="BN164" s="28"/>
-      <c r="BO164" s="10"/>
-      <c r="BP164" s="10"/>
-      <c r="BQ164" s="10"/>
-      <c r="BR164" s="10"/>
-      <c r="BS164" s="10"/>
-      <c r="BT164" s="10"/>
-      <c r="BU164" s="10"/>
-      <c r="BV164" s="10"/>
-      <c r="BW164" s="27"/>
-      <c r="BX164" s="10"/>
-      <c r="BY164" s="28"/>
-      <c r="BZ164" s="10"/>
-      <c r="CA164" s="10"/>
-      <c r="CB164" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:B3"/>
@@ -21875,7 +21771,7 @@
     <hyperlink ref="A37" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-102400" yWindow="-15400" windowWidth="36540" windowHeight="20440" tabRatio="500"/>
+    <workbookView xWindow="-51200" yWindow="-10820" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="218">
   <si>
     <t>Template Name:</t>
   </si>
@@ -685,6 +685,9 @@
   </si>
   <si>
     <t>PutElasticsearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1466,10 +1469,10 @@
   <dimension ref="A1:ED164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="CL47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="EA47" sqref="EA47"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1767,6 +1770,10 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="BW1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="BX1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1797,7 +1804,7 @@
       </c>
       <c r="CE1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CF1">
         <f t="shared" si="1"/>
@@ -1865,7 +1872,7 @@
       </c>
       <c r="CW1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CX1">
         <f t="shared" si="2"/>
@@ -1921,7 +1928,7 @@
       </c>
       <c r="DL1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DM1">
         <f t="shared" si="2"/>
@@ -5735,7 +5742,9 @@
       <c r="F28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13" t="s">
@@ -5821,7 +5830,9 @@
       <c r="CB28" s="13"/>
       <c r="CC28" s="13"/>
       <c r="CD28" s="13"/>
-      <c r="CE28" s="13"/>
+      <c r="CE28" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CF28" s="13"/>
       <c r="CG28" s="13"/>
       <c r="CH28" s="13"/>
@@ -5843,11 +5854,11 @@
       </c>
       <c r="CU28" s="13"/>
       <c r="CV28" s="13"/>
-      <c r="CW28" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="CW28" s="13"/>
       <c r="CX28" s="13"/>
-      <c r="CY28" s="13"/>
+      <c r="CY28" s="13" t="s">
+        <v>217</v>
+      </c>
       <c r="CZ28" s="13"/>
       <c r="DA28" s="13"/>
       <c r="DB28" s="13"/>
@@ -5860,7 +5871,9 @@
       <c r="DI28" s="13"/>
       <c r="DJ28" s="13"/>
       <c r="DK28" s="13"/>
-      <c r="DL28" s="13"/>
+      <c r="DL28" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DM28" s="13"/>
       <c r="DN28" s="13"/>
       <c r="DO28" s="13"/>

--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="219">
   <si>
     <t>Template Name:</t>
   </si>
@@ -1480,10 +1480,10 @@
   <dimension ref="A1:ED163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="X45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="AQ45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48:XFD48"/>
+      <selection pane="bottomRight" activeCell="CB48" sqref="CB48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1502,339 +1502,339 @@
         <v>153</v>
       </c>
       <c r="D1">
-        <f>COUNTIFS(D10:D299,"X")</f>
+        <f t="shared" ref="D1:M1" si="0">COUNTIFS(D10:D299,"X")</f>
         <v>0</v>
       </c>
       <c r="E1">
-        <f>COUNTIFS(E10:E299,"X")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F1">
-        <f>COUNTIFS(F10:F299,"X")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G1">
-        <f>COUNTIFS(G10:G299,"X")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H1">
-        <f>COUNTIFS(H10:H299,"X")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I1">
-        <f>COUNTIFS(I10:I299,"X")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J1">
-        <f>COUNTIFS(J10:J299,"X")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K1">
-        <f>COUNTIFS(K10:K299,"X")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L1">
-        <f>COUNTIFS(L10:L299,"X")</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="M1">
-        <f>COUNTIFS(M10:M299,"X")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O1">
-        <f>COUNTIFS(O10:O299,"X")</f>
+        <f t="shared" ref="O1:AT1" si="1">COUNTIFS(O10:O299,"X")</f>
         <v>3</v>
       </c>
       <c r="P1">
-        <f>COUNTIFS(P10:P299,"X")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q1">
-        <f>COUNTIFS(Q10:Q299,"X")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R1">
-        <f>COUNTIFS(R10:R299,"X")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S1">
-        <f>COUNTIFS(S10:S299,"X")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T1">
-        <f>COUNTIFS(T10:T299,"X")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U1">
-        <f>COUNTIFS(U10:U299,"X")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V1">
-        <f>COUNTIFS(V10:V299,"X")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W1">
-        <f>COUNTIFS(W10:W299,"X")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X1">
-        <f>COUNTIFS(X10:X299,"X")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Y1">
-        <f>COUNTIFS(Y10:Y299,"X")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z1">
-        <f>COUNTIFS(Z10:Z299,"X")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA1">
-        <f>COUNTIFS(AA10:AA299,"X")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB1">
-        <f>COUNTIFS(AB10:AB299,"X")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC1">
-        <f>COUNTIFS(AC10:AC299,"X")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD1">
-        <f>COUNTIFS(AD10:AD299,"X")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AE1">
-        <f>COUNTIFS(AE10:AE299,"X")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF1">
-        <f>COUNTIFS(AF10:AF299,"X")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AG1">
-        <f>COUNTIFS(AG10:AG299,"X")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AH1">
-        <f>COUNTIFS(AH10:AH299,"X")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AI1">
-        <f>COUNTIFS(AI10:AI299,"X")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ1">
-        <f>COUNTIFS(AJ10:AJ299,"X")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AK1">
-        <f>COUNTIFS(AK10:AK299,"X")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL1">
-        <f>COUNTIFS(AL10:AL299,"X")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM1">
-        <f>COUNTIFS(AM10:AM299,"X")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN1">
-        <f>COUNTIFS(AN10:AN299,"X")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AO1">
-        <f>COUNTIFS(AO10:AO299,"X")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP1">
-        <f>COUNTIFS(AP10:AP299,"X")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AQ1">
-        <f>COUNTIFS(AQ10:AQ299,"X")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR1">
-        <f>COUNTIFS(AR10:AR299,"X")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AS1">
-        <f>COUNTIFS(AS10:AS299,"X")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT1">
-        <f>COUNTIFS(AT10:AT299,"X")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AU1">
-        <f>COUNTIFS(AU10:AU299,"X")</f>
+        <f t="shared" ref="AU1:BV1" si="2">COUNTIFS(AU10:AU299,"X")</f>
         <v>0</v>
       </c>
       <c r="AV1">
-        <f>COUNTIFS(AV10:AV299,"X")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AW1">
-        <f>COUNTIFS(AW10:AW299,"X")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX1">
-        <f>COUNTIFS(AX10:AX299,"X")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AY1">
-        <f>COUNTIFS(AY10:AY299,"X")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AZ1">
-        <f>COUNTIFS(AZ10:AZ299,"X")</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="BA1">
-        <f>COUNTIFS(BA10:BA299,"X")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BB1">
-        <f>COUNTIFS(BB10:BB299,"X")</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="BC1">
-        <f>COUNTIFS(BC10:BC299,"X")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BD1">
-        <f>COUNTIFS(BD10:BD299,"X")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BE1">
-        <f>COUNTIFS(BE10:BE299,"X")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF1">
-        <f>COUNTIFS(BF10:BF299,"X")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BG1">
-        <f>COUNTIFS(BG10:BG299,"X")</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="BH1">
-        <f>COUNTIFS(BH10:BH299,"X")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BI1">
-        <f>COUNTIFS(BI10:BI299,"X")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BJ1">
-        <f>COUNTIFS(BJ10:BJ299,"X")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BK1">
-        <f>COUNTIFS(BK10:BK299,"X")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BL1">
-        <f>COUNTIFS(BL10:BL299,"X")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BM1">
-        <f>COUNTIFS(BM10:BM299,"X")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BN1">
-        <f>COUNTIFS(BN10:BN299,"X")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BO1">
-        <f>COUNTIFS(BO10:BO299,"X")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BP1">
-        <f>COUNTIFS(BP10:BP299,"X")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BQ1">
-        <f>COUNTIFS(BQ10:BQ299,"X")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BR1">
-        <f>COUNTIFS(BR10:BR299,"X")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BS1">
-        <f>COUNTIFS(BS10:BS299,"X")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT1">
-        <f>COUNTIFS(BT10:BT299,"X")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BU1">
-        <f>COUNTIFS(BU10:BU299,"X")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BV1">
-        <f>COUNTIFS(BV10:BV299,"X")</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="BX1">
-        <f>COUNTIFS(BX10:BX299,"X")</f>
+        <f t="shared" ref="BX1:CK1" si="3">COUNTIFS(BX10:BX299,"X")</f>
         <v>0</v>
       </c>
       <c r="BY1">
-        <f>COUNTIFS(BY10:BY299,"X")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BZ1">
-        <f>COUNTIFS(BZ10:BZ299,"X")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CA1">
-        <f>COUNTIFS(CA10:CA299,"X")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CB1">
-        <f>COUNTIFS(CB10:CB299,"X")</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="CC1">
-        <f>COUNTIFS(CC10:CC299,"X")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CD1">
-        <f>COUNTIFS(CD10:CD299,"X")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="CE1">
-        <f>COUNTIFS(CE10:CE299,"X")</f>
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="CF1">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="CF1">
-        <f>COUNTIFS(CF10:CF299,"X")</f>
-        <v>11</v>
-      </c>
       <c r="CG1">
-        <f>COUNTIFS(CG10:CG299,"X")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CH1">
-        <f>COUNTIFS(CH10:CH299,"X")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CI1">
-        <f>COUNTIFS(CI10:CI299,"X")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="CJ1">
-        <f>COUNTIFS(CJ10:CJ299,"X")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="CK1">
-        <f>COUNTIFS(CK10:CK299,"X")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CM1">
@@ -1854,155 +1854,155 @@
         <v>2</v>
       </c>
       <c r="CQ1">
-        <f t="shared" ref="CQ1:EC1" si="0">COUNTIFS(CQ10:CQ299,"X")</f>
+        <f t="shared" ref="CQ1:EC1" si="4">COUNTIFS(CQ10:CQ299,"X")</f>
         <v>13</v>
       </c>
       <c r="CR1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="CS1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="CT1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CU1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="CV1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="CW1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="CX1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="CY1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="CZ1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="DA1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="DB1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="DC1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="DD1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="DE1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="DF1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="DH1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="DI1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="DJ1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="DK1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="DL1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="DM1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="DN1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="DO1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="DP1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="DQ1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="DR1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="DS1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="DT1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="DU1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="DV1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="DW1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="DX1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="DY1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="DZ1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="EA1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="EB1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="EC1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8908,10 +8908,14 @@
       <c r="BY48" s="13"/>
       <c r="BZ48" s="13"/>
       <c r="CA48" s="13"/>
-      <c r="CB48" s="13"/>
+      <c r="CB48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="CC48" s="13"/>
       <c r="CD48" s="13"/>
-      <c r="CE48" s="13"/>
+      <c r="CE48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="CF48" s="13"/>
       <c r="CG48" s="13"/>
       <c r="CH48" s="13"/>

--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="219">
   <si>
     <t>Template Name:</t>
   </si>
@@ -1480,10 +1480,10 @@
   <dimension ref="A1:ED164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="CM9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="CK45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="EA48" sqref="EA48"/>
+      <selection pane="bottomRight" activeCell="DH48" sqref="DH48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1615,11 +1615,11 @@
       </c>
       <c r="AG1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI1">
         <f t="shared" si="1"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="DH1">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DI1">
         <f t="shared" si="2"/>
@@ -8857,10 +8857,10 @@
       <c r="AD48" s="13"/>
       <c r="AE48" s="13"/>
       <c r="AF48" s="13"/>
-      <c r="AG48" s="13"/>
-      <c r="AH48" s="13" t="s">
+      <c r="AG48" s="13" t="s">
         <v>191</v>
       </c>
+      <c r="AH48" s="13"/>
       <c r="AI48" s="13"/>
       <c r="AJ48" s="13"/>
       <c r="AK48" s="13"/>
@@ -8946,7 +8946,9 @@
       <c r="DE48" s="13"/>
       <c r="DF48" s="13"/>
       <c r="DG48" s="13"/>
-      <c r="DH48" s="13"/>
+      <c r="DH48" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="DI48" s="13"/>
       <c r="DJ48" s="13"/>
       <c r="DK48" s="13"/>

--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-10820" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="6340" yWindow="1140" windowWidth="39940" windowHeight="24340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="220">
   <si>
     <t>Template Name:</t>
   </si>
@@ -688,6 +688,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ConvertCSVtoCQL</t>
+  </si>
+  <si>
+    <t>Describes a flow where a CSV file (whose filename and content) contributes to the fields in a Cassandra table is processed, then CQL statements are constructed and executed.</t>
   </si>
 </sst>
 </file>
@@ -1469,10 +1475,10 @@
   <dimension ref="A1:ED164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="EA49" sqref="EA49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1636,7 +1642,7 @@
       </c>
       <c r="AO1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP1">
         <f t="shared" si="1"/>
@@ -1656,7 +1662,7 @@
       </c>
       <c r="AT1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU1">
         <f t="shared" si="1"/>
@@ -1772,7 +1778,7 @@
       </c>
       <c r="BW1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX1">
         <f t="shared" si="1"/>
@@ -1912,7 +1918,7 @@
       </c>
       <c r="DH1">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DI1">
         <f t="shared" si="2"/>
@@ -1964,7 +1970,7 @@
       </c>
       <c r="DU1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DV1">
         <f t="shared" si="2"/>
@@ -1988,7 +1994,7 @@
       </c>
       <c r="EA1">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="EB1">
         <f t="shared" si="2"/>
@@ -8817,8 +8823,12 @@
       <c r="EC47" s="13"/>
     </row>
     <row r="48" spans="1:133" ht="72" customHeight="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="24"/>
+      <c r="A48" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>219</v>
+      </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="13"/>
@@ -8856,12 +8866,16 @@
       <c r="AL48" s="13"/>
       <c r="AM48" s="13"/>
       <c r="AN48" s="13"/>
-      <c r="AO48" s="13"/>
+      <c r="AO48" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AP48" s="13"/>
       <c r="AQ48" s="13"/>
       <c r="AR48" s="13"/>
       <c r="AS48" s="13"/>
-      <c r="AT48" s="13"/>
+      <c r="AT48" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AU48" s="13"/>
       <c r="AV48" s="13"/>
       <c r="AW48" s="13"/>
@@ -8890,7 +8904,9 @@
       <c r="BT48" s="13"/>
       <c r="BU48" s="13"/>
       <c r="BV48" s="13"/>
-      <c r="BW48" s="13"/>
+      <c r="BW48" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BX48" s="13"/>
       <c r="BY48" s="13"/>
       <c r="BZ48" s="13"/>
@@ -8905,7 +8921,9 @@
       <c r="CI48" s="13"/>
       <c r="CJ48" s="13"/>
       <c r="CK48" s="13"/>
-      <c r="CL48" s="13"/>
+      <c r="CL48" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CM48" s="13"/>
       <c r="CN48" s="13"/>
       <c r="CO48" s="13"/>
@@ -8927,7 +8945,9 @@
       <c r="DE48" s="13"/>
       <c r="DF48" s="13"/>
       <c r="DG48" s="13"/>
-      <c r="DH48" s="13"/>
+      <c r="DH48" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DI48" s="13"/>
       <c r="DJ48" s="13"/>
       <c r="DK48" s="13"/>
@@ -8940,13 +8960,17 @@
       <c r="DR48" s="13"/>
       <c r="DS48" s="13"/>
       <c r="DT48" s="13"/>
-      <c r="DU48" s="13"/>
+      <c r="DU48" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="DV48" s="13"/>
       <c r="DW48" s="13"/>
       <c r="DX48" s="13"/>
       <c r="DY48" s="13"/>
       <c r="DZ48" s="13"/>
-      <c r="EA48" s="13"/>
+      <c r="EA48" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="EB48" s="13"/>
       <c r="EC48" s="13"/>
     </row>

--- a/NiFi Templates.xlsx
+++ b/NiFi Templates.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-10820" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="5900" yWindow="1820" windowWidth="35120" windowHeight="22420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="220">
   <si>
     <t>Template Name:</t>
   </si>
@@ -688,6 +688,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ScriptedMapCacheExample</t>
+  </si>
+  <si>
+    <t>This template shows how to use ExecuteScript to populate and fetch from a DistributedMapCacheServer using a DistributedMapCacheClientService. Prior to NiFi 1.0.0 this had to be done manually using the map cache protocol, now the DistributedMapCacheClient can be used directly.</t>
   </si>
 </sst>
 </file>
@@ -1469,10 +1475,10 @@
   <dimension ref="A1:ED164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="BD43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="CF49" sqref="CF49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1500,11 +1506,11 @@
       </c>
       <c r="F1">
         <f t="shared" ref="F1:M1" si="0">COUNTIFS(F10:F300,"X")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1">
         <f t="shared" si="0"/>
@@ -1632,7 +1638,7 @@
       </c>
       <c r="AN1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO1">
         <f t="shared" si="1"/>
@@ -1680,7 +1686,7 @@
       </c>
       <c r="AZ1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA1">
         <f t="shared" si="1"/>
@@ -1808,7 +1814,7 @@
       </c>
       <c r="CF1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CG1">
         <f t="shared" si="1"/>
@@ -8817,12 +8823,20 @@
       <c r="EC47" s="13"/>
     </row>
     <row r="48" spans="1:133" ht="72" customHeight="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="24"/>
+      <c r="A48" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>219</v>
+      </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="F48" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
@@ -8855,7 +8869,9 @@
       <c r="AK48" s="13"/>
       <c r="AL48" s="13"/>
       <c r="AM48" s="13"/>
-      <c r="AN48" s="13"/>
+      <c r="AN48" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="AO48" s="13"/>
       <c r="AP48" s="13"/>
       <c r="AQ48" s="13"/>
@@ -8867,7 +8883,9 @@
       <c r="AW48" s="13"/>
       <c r="AX48" s="13"/>
       <c r="AY48" s="13"/>
-      <c r="AZ48" s="13"/>
+      <c r="AZ48" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="BA48" s="13"/>
       <c r="BB48" s="13"/>
       <c r="BC48" s="13"/>
@@ -8899,7 +8917,9 @@
       <c r="CC48" s="13"/>
       <c r="CD48" s="13"/>
       <c r="CE48" s="13"/>
-      <c r="CF48" s="13"/>
+      <c r="CF48" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="CG48" s="13"/>
       <c r="CH48" s="13"/>
       <c r="CI48" s="13"/>
